--- a/BackTest/2019-10-29 BackTest CMT.xlsx
+++ b/BackTest/2019-10-29 BackTest CMT.xlsx
@@ -451,17 +451,13 @@
         <v>20.56000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K2" t="n">
-        <v>20.7</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>20.58000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>20.59500000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>20.60500000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>20.61500000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>20.61500000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,17 +661,13 @@
         <v>20.61000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>20.5</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,22 +696,14 @@
         <v>20.60500000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,22 +731,14 @@
         <v>20.61000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -826,17 +766,13 @@
         <v>20.61500000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>20.7</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -865,22 +801,14 @@
         <v>20.61500000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -908,22 +836,14 @@
         <v>20.62000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K13" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -951,22 +871,14 @@
         <v>20.62500000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -994,22 +906,14 @@
         <v>20.63500000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1037,22 +941,14 @@
         <v>20.645</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1080,22 +976,14 @@
         <v>20.66</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K17" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1123,22 +1011,14 @@
         <v>20.685</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1166,22 +1046,14 @@
         <v>20.7</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K19" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1209,22 +1081,14 @@
         <v>20.705</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1252,22 +1116,14 @@
         <v>20.71</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K21" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1295,22 +1151,14 @@
         <v>20.715</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1186,14 @@
         <v>20.725</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>21</v>
-      </c>
-      <c r="K23" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1381,22 +1221,14 @@
         <v>20.73</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K24" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1424,22 +1256,14 @@
         <v>20.75</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>21</v>
-      </c>
-      <c r="K25" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1467,22 +1291,14 @@
         <v>20.755</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K26" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1510,22 +1326,14 @@
         <v>20.755</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1361,14 @@
         <v>20.77</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K28" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1596,22 +1396,14 @@
         <v>20.785</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1639,22 +1431,14 @@
         <v>20.79</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K30" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1682,22 +1466,14 @@
         <v>20.79</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K31" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1725,22 +1501,14 @@
         <v>20.79499999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K32" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1768,22 +1536,14 @@
         <v>20.79499999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K33" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1811,22 +1571,14 @@
         <v>20.79499999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K34" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1854,22 +1606,14 @@
         <v>20.79</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K35" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1897,22 +1641,14 @@
         <v>20.78499999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K36" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1940,22 +1676,14 @@
         <v>20.775</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K37" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1983,22 +1711,14 @@
         <v>20.75499999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K38" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2026,22 +1746,14 @@
         <v>20.74499999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K39" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2069,22 +1781,14 @@
         <v>20.73999999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K40" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2112,22 +1816,14 @@
         <v>20.74499999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K41" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2155,22 +1851,14 @@
         <v>20.74499999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K42" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2198,22 +1886,14 @@
         <v>20.73499999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K43" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2241,22 +1921,14 @@
         <v>20.74499999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>21</v>
-      </c>
-      <c r="K44" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2284,22 +1956,14 @@
         <v>20.78999999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="K45" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2333,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2374,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2415,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2456,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2497,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2538,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2576,17 +2204,11 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2620,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2661,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2702,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2743,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2784,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2825,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2866,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2904,17 +2484,11 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2948,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2989,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3030,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3071,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3109,19 +2659,13 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>1.241376811594203</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -3185,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -3220,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -3255,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3290,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3325,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3360,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3395,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -4337,14 +3881,20 @@
         <v>23.88500000000001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>23.3</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4372,14 +3922,20 @@
         <v>23.85000000000001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>23.3</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4407,14 +3963,20 @@
         <v>23.81500000000001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>23.3</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4449,7 +4011,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4484,7 +4050,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4512,14 +4082,20 @@
         <v>23.77500000000001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>23.7</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4547,14 +4123,20 @@
         <v>23.75000000000001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>23.6</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4582,14 +4164,20 @@
         <v>23.72000000000001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>23.9</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4624,7 +4212,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4659,7 +4251,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4694,7 +4290,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4729,7 +4329,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4764,7 +4368,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4799,7 +4407,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4834,7 +4446,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4869,7 +4485,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4904,7 +4524,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4939,7 +4563,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4967,14 +4595,20 @@
         <v>23.44000000000001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>23.1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +4643,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5044,7 +4682,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5079,7 +4721,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5114,7 +4760,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5149,7 +4799,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5184,7 +4838,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5219,7 +4877,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5254,7 +4916,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5289,7 +4955,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5324,7 +4994,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5359,7 +5033,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5394,7 +5072,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5429,7 +5111,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5464,7 +5150,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5499,7 +5189,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5534,7 +5228,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5569,7 +5267,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5604,7 +5306,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5639,7 +5345,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5674,7 +5384,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5709,7 +5423,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5744,7 +5462,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5779,7 +5501,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5814,7 +5540,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5849,7 +5579,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5884,7 +5618,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5919,7 +5657,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5954,7 +5696,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5989,7 +5735,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6024,7 +5774,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6059,7 +5813,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6094,7 +5852,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6129,7 +5891,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +5930,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6199,7 +5969,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6234,7 +6008,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6269,7 +6047,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6304,7 +6086,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6339,7 +6125,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6374,7 +6164,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6409,7 +6203,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6444,7 +6242,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6479,7 +6281,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6514,7 +6320,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6549,7 +6359,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6584,7 +6398,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6619,7 +6437,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6654,7 +6476,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6689,7 +6515,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6724,7 +6554,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6759,7 +6593,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6794,7 +6632,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6829,7 +6671,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6864,7 +6710,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6899,7 +6749,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6934,7 +6788,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6969,7 +6827,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7004,7 +6866,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7039,7 +6905,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7074,7 +6944,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7109,7 +6983,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7144,7 +7022,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7179,7 +7061,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7214,7 +7100,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7249,7 +7139,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7284,7 +7178,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +7217,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7354,7 +7256,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7389,7 +7295,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7424,7 +7334,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7459,7 +7373,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7494,7 +7412,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7529,7 +7451,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7564,7 +7490,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7599,7 +7529,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7634,7 +7568,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7669,7 +7607,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7704,7 +7646,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7739,7 +7685,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7774,7 +7724,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7809,7 +7763,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7844,7 +7802,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7879,7 +7841,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7914,7 +7880,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7949,7 +7919,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7984,7 +7958,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8019,7 +7997,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8054,7 +8036,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8089,7 +8075,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8124,7 +8114,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8159,7 +8153,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8194,7 +8192,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8229,7 +8231,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8264,7 +8270,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8299,7 +8309,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8334,7 +8348,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8369,7 +8387,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8404,7 +8426,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8439,7 +8465,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8504,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8509,7 +8543,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8544,7 +8582,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8579,7 +8621,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8614,7 +8660,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8649,7 +8699,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8684,7 +8738,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8719,7 +8777,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8754,7 +8816,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8789,7 +8855,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8824,7 +8894,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8859,7 +8933,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8894,7 +8972,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8929,7 +9011,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-29 BackTest CMT.xlsx
+++ b/BackTest/2019-10-29 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M231"/>
+  <dimension ref="A1:M232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="C2" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="D2" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="E2" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="F2" t="n">
-        <v>11583.0395</v>
+        <v>5448</v>
       </c>
       <c r="G2" t="n">
-        <v>20.56000000000001</v>
+        <v>20.54500000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C3" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D3" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E3" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>11583.0395</v>
       </c>
       <c r="G3" t="n">
-        <v>20.58000000000001</v>
+        <v>20.54166666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C4" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="D4" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="E4" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="F4" t="n">
-        <v>6133.3815</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>20.59500000000001</v>
+        <v>20.54166666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="C5" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="D5" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="E5" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="F5" t="n">
-        <v>17800</v>
+        <v>6133.3815</v>
       </c>
       <c r="G5" t="n">
-        <v>20.60500000000001</v>
+        <v>20.54000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>20.6</v>
       </c>
       <c r="F6" t="n">
-        <v>55424.3881</v>
+        <v>17800</v>
       </c>
       <c r="G6" t="n">
-        <v>20.61500000000001</v>
+        <v>20.53833333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="D7" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="E7" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="F7" t="n">
-        <v>193391.7374</v>
+        <v>55424.3881</v>
       </c>
       <c r="G7" t="n">
-        <v>20.61500000000001</v>
+        <v>20.535</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>20.5</v>
       </c>
       <c r="F8" t="n">
-        <v>8000</v>
+        <v>193391.7374</v>
       </c>
       <c r="G8" t="n">
-        <v>20.61000000000001</v>
+        <v>20.53</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>20.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1739.9254</v>
+        <v>8000</v>
       </c>
       <c r="G9" t="n">
-        <v>20.60500000000001</v>
+        <v>20.525</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="C10" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="D10" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="E10" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="F10" t="n">
-        <v>746.5048</v>
+        <v>1739.9254</v>
       </c>
       <c r="G10" t="n">
-        <v>20.61000000000001</v>
+        <v>20.52</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="C11" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="D11" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="E11" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="F11" t="n">
-        <v>23249.9797</v>
+        <v>746.5048</v>
       </c>
       <c r="G11" t="n">
-        <v>20.61500000000001</v>
+        <v>20.51666666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="C12" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="D12" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="E12" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="F12" t="n">
-        <v>9827.157999999999</v>
+        <v>23249.9797</v>
       </c>
       <c r="G12" t="n">
-        <v>20.61500000000001</v>
+        <v>20.51666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="C13" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="D13" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="E13" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="F13" t="n">
-        <v>20889.7971</v>
+        <v>9827.157999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>20.62000000000001</v>
+        <v>20.51333333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>20.7</v>
       </c>
       <c r="C14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E14" t="n">
         <v>20.7</v>
       </c>
       <c r="F14" t="n">
-        <v>13000</v>
+        <v>20889.7971</v>
       </c>
       <c r="G14" t="n">
-        <v>20.62500000000001</v>
+        <v>20.51333333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C15" t="n">
         <v>20.8</v>
@@ -897,13 +897,13 @@
         <v>20.8</v>
       </c>
       <c r="E15" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F15" t="n">
-        <v>30099.4711</v>
+        <v>13000</v>
       </c>
       <c r="G15" t="n">
-        <v>20.63500000000001</v>
+        <v>20.51666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>20.8</v>
       </c>
       <c r="F16" t="n">
-        <v>22690.3195</v>
+        <v>30099.4711</v>
       </c>
       <c r="G16" t="n">
-        <v>20.645</v>
+        <v>20.52</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="C17" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="D17" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="E17" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="F17" t="n">
-        <v>145277.8672</v>
+        <v>22690.3195</v>
       </c>
       <c r="G17" t="n">
-        <v>20.66</v>
+        <v>20.52333333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="C18" t="n">
         <v>21.1</v>
@@ -1002,13 +1002,13 @@
         <v>21.1</v>
       </c>
       <c r="E18" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="F18" t="n">
-        <v>9117.298578199052</v>
+        <v>145277.8672</v>
       </c>
       <c r="G18" t="n">
-        <v>20.685</v>
+        <v>20.53166666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="C19" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="D19" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="E19" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="F19" t="n">
-        <v>1505.9244</v>
+        <v>9117.298578199052</v>
       </c>
       <c r="G19" t="n">
-        <v>20.7</v>
+        <v>20.54000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="C20" t="n">
         <v>20.8</v>
       </c>
       <c r="D20" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="E20" t="n">
         <v>20.8</v>
       </c>
       <c r="F20" t="n">
-        <v>775.7473</v>
+        <v>1505.9244</v>
       </c>
       <c r="G20" t="n">
-        <v>20.705</v>
+        <v>20.54333333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C21" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="D21" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="E21" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="F21" t="n">
-        <v>9094.505300000001</v>
+        <v>775.7473</v>
       </c>
       <c r="G21" t="n">
-        <v>20.71</v>
+        <v>20.54833333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C22" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D22" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E22" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F22" t="n">
-        <v>332.37</v>
+        <v>9094.505300000001</v>
       </c>
       <c r="G22" t="n">
-        <v>20.715</v>
+        <v>20.55166666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="E23" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="F23" t="n">
-        <v>22846.1904</v>
+        <v>332.37</v>
       </c>
       <c r="G23" t="n">
-        <v>20.725</v>
+        <v>20.55666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="C24" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="D24" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="E24" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="F24" t="n">
-        <v>52000</v>
+        <v>22846.1904</v>
       </c>
       <c r="G24" t="n">
-        <v>20.73</v>
+        <v>20.56833333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="C25" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="D25" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="E25" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="F25" t="n">
-        <v>2213.4285</v>
+        <v>52000</v>
       </c>
       <c r="G25" t="n">
-        <v>20.75</v>
+        <v>20.57333333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="C26" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="D26" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="E26" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="F26" t="n">
-        <v>1416.4833</v>
+        <v>2213.4285</v>
       </c>
       <c r="G26" t="n">
-        <v>20.755</v>
+        <v>20.58166666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="C27" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="D27" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="E27" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="F27" t="n">
-        <v>2167.518</v>
+        <v>1416.4833</v>
       </c>
       <c r="G27" t="n">
-        <v>20.755</v>
+        <v>20.58666666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="C28" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="D28" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="E28" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="F28" t="n">
-        <v>14026.4712</v>
+        <v>2167.518</v>
       </c>
       <c r="G28" t="n">
-        <v>20.77</v>
+        <v>20.58833333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>20.8</v>
       </c>
       <c r="F29" t="n">
-        <v>24808.4801</v>
+        <v>14026.4712</v>
       </c>
       <c r="G29" t="n">
-        <v>20.785</v>
+        <v>20.59833333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C30" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="D30" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="E30" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="F30" t="n">
-        <v>48191.3808</v>
+        <v>24808.4801</v>
       </c>
       <c r="G30" t="n">
-        <v>20.79</v>
+        <v>20.605</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>20.7</v>
       </c>
       <c r="F31" t="n">
-        <v>10889.5128</v>
+        <v>48191.3808</v>
       </c>
       <c r="G31" t="n">
-        <v>20.79</v>
+        <v>20.61333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>20.7</v>
       </c>
       <c r="F32" t="n">
-        <v>37301.8682</v>
+        <v>10889.5128</v>
       </c>
       <c r="G32" t="n">
-        <v>20.79499999999999</v>
+        <v>20.61833333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>20.7</v>
       </c>
       <c r="F33" t="n">
-        <v>64600</v>
+        <v>37301.8682</v>
       </c>
       <c r="G33" t="n">
-        <v>20.79499999999999</v>
+        <v>20.62333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>20.7</v>
       </c>
       <c r="F34" t="n">
-        <v>42700</v>
+        <v>64600</v>
       </c>
       <c r="G34" t="n">
-        <v>20.79499999999999</v>
+        <v>20.625</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>20.7</v>
       </c>
       <c r="F35" t="n">
-        <v>68400</v>
+        <v>42700</v>
       </c>
       <c r="G35" t="n">
-        <v>20.79</v>
+        <v>20.63</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>20.7</v>
       </c>
       <c r="F36" t="n">
-        <v>2655.8235</v>
+        <v>68400</v>
       </c>
       <c r="G36" t="n">
-        <v>20.78499999999999</v>
+        <v>20.635</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>20.7</v>
       </c>
       <c r="F37" t="n">
-        <v>22494.3302</v>
+        <v>2655.8235</v>
       </c>
       <c r="G37" t="n">
-        <v>20.775</v>
+        <v>20.64166666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>20.7</v>
       </c>
       <c r="F38" t="n">
-        <v>2555.0577</v>
+        <v>22494.3302</v>
       </c>
       <c r="G38" t="n">
-        <v>20.75499999999999</v>
+        <v>20.64833333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>20.7</v>
       </c>
       <c r="F39" t="n">
-        <v>26188</v>
+        <v>2555.0577</v>
       </c>
       <c r="G39" t="n">
-        <v>20.74499999999999</v>
+        <v>20.65166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>20.7</v>
       </c>
       <c r="F40" t="n">
-        <v>37600</v>
+        <v>26188</v>
       </c>
       <c r="G40" t="n">
-        <v>20.73999999999999</v>
+        <v>20.65666666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="C41" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D41" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E41" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="F41" t="n">
-        <v>27149.4951</v>
+        <v>37600</v>
       </c>
       <c r="G41" t="n">
-        <v>20.74499999999999</v>
+        <v>20.66166666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>20.8</v>
       </c>
       <c r="F42" t="n">
-        <v>26322.166</v>
+        <v>27149.4951</v>
       </c>
       <c r="G42" t="n">
-        <v>20.74499999999999</v>
+        <v>20.66833333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>20.8</v>
       </c>
       <c r="F43" t="n">
-        <v>3548.8717</v>
+        <v>26322.166</v>
       </c>
       <c r="G43" t="n">
-        <v>20.73499999999999</v>
+        <v>20.675</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="C44" t="n">
-        <v>22.6</v>
+        <v>20.8</v>
       </c>
       <c r="D44" t="n">
-        <v>22.6</v>
+        <v>20.8</v>
       </c>
       <c r="E44" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="F44" t="n">
-        <v>282505.7512</v>
+        <v>3548.8717</v>
       </c>
       <c r="G44" t="n">
-        <v>20.74499999999999</v>
+        <v>20.68166666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>21.9</v>
+        <v>21</v>
       </c>
       <c r="C45" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="D45" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="E45" t="n">
-        <v>21.9</v>
+        <v>21</v>
       </c>
       <c r="F45" t="n">
-        <v>66454.67200000001</v>
+        <v>282505.7512</v>
       </c>
       <c r="G45" t="n">
-        <v>20.78999999999999</v>
+        <v>20.71833333333332</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>22.8</v>
+        <v>21.9</v>
       </c>
       <c r="C46" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="D46" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="E46" t="n">
-        <v>22.3</v>
+        <v>21.9</v>
       </c>
       <c r="F46" t="n">
-        <v>121024.3884</v>
+        <v>66454.67200000001</v>
       </c>
       <c r="G46" t="n">
-        <v>20.89499999999999</v>
+        <v>20.75999999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="C47" t="n">
         <v>23.1</v>
       </c>
       <c r="D47" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="E47" t="n">
         <v>22.3</v>
       </c>
       <c r="F47" t="n">
-        <v>77257.13989999999</v>
+        <v>121024.3884</v>
       </c>
       <c r="G47" t="n">
-        <v>21.025</v>
+        <v>20.80499999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="C48" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="D48" t="n">
         <v>23.2</v>
       </c>
       <c r="E48" t="n">
-        <v>23</v>
+        <v>22.3</v>
       </c>
       <c r="F48" t="n">
-        <v>150628.4872</v>
+        <v>77257.13989999999</v>
       </c>
       <c r="G48" t="n">
-        <v>21.13499999999999</v>
+        <v>20.84833333333332</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="C49" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="D49" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="E49" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="F49" t="n">
-        <v>129871.8788</v>
+        <v>150628.4872</v>
       </c>
       <c r="G49" t="n">
-        <v>21.25999999999999</v>
+        <v>20.89166666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C50" t="n">
         <v>23.8</v>
       </c>
-      <c r="C50" t="n">
-        <v>24.3</v>
-      </c>
       <c r="D50" t="n">
-        <v>24.5</v>
+        <v>23.8</v>
       </c>
       <c r="E50" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="F50" t="n">
-        <v>555628.1006868853</v>
+        <v>129871.8788</v>
       </c>
       <c r="G50" t="n">
-        <v>21.415</v>
+        <v>20.94499999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C51" t="n">
         <v>24.3</v>
       </c>
-      <c r="C51" t="n">
-        <v>23.7</v>
-      </c>
       <c r="D51" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="E51" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="F51" t="n">
-        <v>136801.5864</v>
+        <v>555628.1006868853</v>
       </c>
       <c r="G51" t="n">
-        <v>21.595</v>
+        <v>21.00833333333332</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>23.6</v>
+        <v>24.3</v>
       </c>
       <c r="C52" t="n">
         <v>23.7</v>
       </c>
       <c r="D52" t="n">
-        <v>24</v>
+        <v>24.4</v>
       </c>
       <c r="E52" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="F52" t="n">
-        <v>37086.99886</v>
+        <v>136801.5864</v>
       </c>
       <c r="G52" t="n">
-        <v>21.74</v>
+        <v>21.05999999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="C53" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="D53" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="E53" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="F53" t="n">
-        <v>78671.20600000001</v>
+        <v>37086.99886</v>
       </c>
       <c r="G53" t="n">
-        <v>21.875</v>
+        <v>21.11166666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="C54" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="D54" t="n">
-        <v>23.9</v>
+        <v>23.5</v>
       </c>
       <c r="E54" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="F54" t="n">
-        <v>177787.2675</v>
+        <v>78671.20600000001</v>
       </c>
       <c r="G54" t="n">
-        <v>22.02</v>
+        <v>21.15833333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="C55" t="n">
         <v>23.9</v>
       </c>
       <c r="D55" t="n">
-        <v>24.4</v>
+        <v>23.9</v>
       </c>
       <c r="E55" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="F55" t="n">
-        <v>81589.90664</v>
+        <v>177787.2675</v>
       </c>
       <c r="G55" t="n">
-        <v>22.18</v>
+        <v>21.21333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="C56" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="D56" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="E56" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="F56" t="n">
-        <v>14841.9584</v>
+        <v>81589.90664</v>
       </c>
       <c r="G56" t="n">
-        <v>22.345</v>
+        <v>21.26833333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>24</v>
+      </c>
+      <c r="C57" t="n">
         <v>24.1</v>
       </c>
-      <c r="C57" t="n">
-        <v>24.8</v>
-      </c>
       <c r="D57" t="n">
-        <v>24.8</v>
+        <v>24.1</v>
       </c>
       <c r="E57" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="F57" t="n">
-        <v>441071.5485258065</v>
+        <v>14841.9584</v>
       </c>
       <c r="G57" t="n">
-        <v>22.515</v>
+        <v>21.32666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="C58" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="D58" t="n">
-        <v>25.8</v>
+        <v>24.8</v>
       </c>
       <c r="E58" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="F58" t="n">
-        <v>1030830.556474194</v>
+        <v>441071.5485258065</v>
       </c>
       <c r="G58" t="n">
-        <v>22.7</v>
+        <v>21.39666666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>25.2</v>
+        <v>24.4</v>
       </c>
       <c r="C59" t="n">
-        <v>25.8</v>
+        <v>25.1</v>
       </c>
       <c r="D59" t="n">
         <v>25.8</v>
       </c>
       <c r="E59" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="F59" t="n">
-        <v>413339.5545612403</v>
+        <v>1030830.556474194</v>
       </c>
       <c r="G59" t="n">
-        <v>22.925</v>
+        <v>21.47166666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>25.7</v>
+        <v>25.2</v>
       </c>
       <c r="C60" t="n">
         <v>25.8</v>
@@ -2472,19 +2472,19 @@
         <v>25.8</v>
       </c>
       <c r="E60" t="n">
-        <v>25.1</v>
+        <v>24.5</v>
       </c>
       <c r="F60" t="n">
-        <v>266341.5015093024</v>
+        <v>413339.5545612403</v>
       </c>
       <c r="G60" t="n">
-        <v>23.175</v>
+        <v>21.55833333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2498,28 +2498,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C61" t="n">
         <v>25.8</v>
-      </c>
-      <c r="C61" t="n">
-        <v>25.1</v>
       </c>
       <c r="D61" t="n">
         <v>25.8</v>
       </c>
       <c r="E61" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="F61" t="n">
-        <v>563130.5223</v>
+        <v>266341.5015093024</v>
       </c>
       <c r="G61" t="n">
-        <v>23.425</v>
+        <v>21.64333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2533,28 +2533,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C62" t="n">
         <v>25.1</v>
       </c>
-      <c r="C62" t="n">
-        <v>25.9</v>
-      </c>
       <c r="D62" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="E62" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="F62" t="n">
-        <v>337308.614</v>
+        <v>563130.5223</v>
       </c>
       <c r="G62" t="n">
-        <v>23.64</v>
+        <v>21.71833333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2568,28 +2568,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D63" t="n">
         <v>26</v>
       </c>
-      <c r="C63" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D63" t="n">
-        <v>26.5</v>
-      </c>
       <c r="E63" t="n">
-        <v>25.9</v>
+        <v>25.1</v>
       </c>
       <c r="F63" t="n">
-        <v>539126.325450566</v>
+        <v>337308.614</v>
       </c>
       <c r="G63" t="n">
-        <v>23.9</v>
+        <v>21.805</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>26</v>
+      </c>
+      <c r="C64" t="n">
         <v>26.2</v>
       </c>
-      <c r="C64" t="n">
-        <v>25.7</v>
-      </c>
       <c r="D64" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="E64" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="F64" t="n">
-        <v>291820.7001</v>
+        <v>539126.325450566</v>
       </c>
       <c r="G64" t="n">
-        <v>24.16</v>
+        <v>21.895</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,28 +2638,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C65" t="n">
         <v>25.7</v>
       </c>
-      <c r="C65" t="n">
-        <v>25.8</v>
-      </c>
       <c r="D65" t="n">
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
       <c r="E65" t="n">
-        <v>24.6</v>
+        <v>25.6</v>
       </c>
       <c r="F65" t="n">
-        <v>121789.6239</v>
+        <v>291820.7001</v>
       </c>
       <c r="G65" t="n">
-        <v>24.35</v>
+        <v>21.97833333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>25.2</v>
+        <v>25.7</v>
       </c>
       <c r="C66" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="D66" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="E66" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="F66" t="n">
-        <v>468311.1692921849</v>
+        <v>121789.6239</v>
       </c>
       <c r="G66" t="n">
-        <v>24.47</v>
+        <v>22.065</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="C67" t="n">
-        <v>25.6</v>
+        <v>26.9</v>
       </c>
       <c r="D67" t="n">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="E67" t="n">
-        <v>24.9</v>
+        <v>24.3</v>
       </c>
       <c r="F67" t="n">
-        <v>124842.5788</v>
+        <v>468311.1692921849</v>
       </c>
       <c r="G67" t="n">
-        <v>24.56</v>
+        <v>22.17000000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="C68" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="D68" t="n">
-        <v>25.7</v>
+        <v>26.4</v>
       </c>
       <c r="E68" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="F68" t="n">
-        <v>480625.852</v>
+        <v>124842.5788</v>
       </c>
       <c r="G68" t="n">
-        <v>24.695</v>
+        <v>22.25500000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="C69" t="n">
-        <v>25.8</v>
+        <v>25.2</v>
       </c>
       <c r="D69" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="E69" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="F69" t="n">
-        <v>338987.6976</v>
+        <v>480625.852</v>
       </c>
       <c r="G69" t="n">
-        <v>24.795</v>
+        <v>22.33333333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="C70" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D70" t="n">
+        <v>26</v>
+      </c>
+      <c r="E70" t="n">
         <v>25</v>
       </c>
-      <c r="D70" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="E70" t="n">
-        <v>24.9</v>
-      </c>
       <c r="F70" t="n">
-        <v>414751.6175</v>
+        <v>338987.6976</v>
       </c>
       <c r="G70" t="n">
-        <v>24.865</v>
+        <v>22.42166666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C71" t="n">
         <v>25</v>
       </c>
-      <c r="C71" t="n">
-        <v>24.9</v>
-      </c>
       <c r="D71" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="E71" t="n">
         <v>24.9</v>
       </c>
       <c r="F71" t="n">
-        <v>124074.4352</v>
+        <v>414751.6175</v>
       </c>
       <c r="G71" t="n">
-        <v>24.9</v>
+        <v>22.49500000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>25</v>
+      </c>
+      <c r="C72" t="n">
         <v>24.9</v>
       </c>
-      <c r="C72" t="n">
-        <v>24.7</v>
-      </c>
       <c r="D72" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="E72" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="F72" t="n">
-        <v>93937.60249999999</v>
+        <v>124074.4352</v>
       </c>
       <c r="G72" t="n">
-        <v>24.965</v>
+        <v>22.56500000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="C73" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="D73" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="E73" t="n">
         <v>24.7</v>
       </c>
       <c r="F73" t="n">
-        <v>84553.10249999999</v>
+        <v>93937.60249999999</v>
       </c>
       <c r="G73" t="n">
-        <v>25.035</v>
+        <v>22.63333333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C74" t="n">
         <v>24.9</v>
       </c>
-      <c r="C74" t="n">
-        <v>25.4</v>
-      </c>
       <c r="D74" t="n">
-        <v>26</v>
+        <v>24.9</v>
       </c>
       <c r="E74" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="F74" t="n">
-        <v>327701.522488417</v>
+        <v>84553.10249999999</v>
       </c>
       <c r="G74" t="n">
-        <v>25.09999999999999</v>
+        <v>22.70333333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C75" t="n">
         <v>25.4</v>
       </c>
-      <c r="C75" t="n">
-        <v>24.7</v>
-      </c>
       <c r="D75" t="n">
-        <v>25.4</v>
+        <v>26</v>
       </c>
       <c r="E75" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="F75" t="n">
-        <v>95153.1811</v>
+        <v>327701.522488417</v>
       </c>
       <c r="G75" t="n">
-        <v>25.17499999999999</v>
+        <v>22.78000000000002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>24.8</v>
+        <v>25.4</v>
       </c>
       <c r="C76" t="n">
-        <v>24</v>
+        <v>24.7</v>
       </c>
       <c r="D76" t="n">
-        <v>24.8</v>
+        <v>25.4</v>
       </c>
       <c r="E76" t="n">
-        <v>24</v>
+        <v>24.7</v>
       </c>
       <c r="F76" t="n">
-        <v>111904.3815612903</v>
+        <v>95153.1811</v>
       </c>
       <c r="G76" t="n">
-        <v>25.21499999999999</v>
+        <v>22.84500000000002</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>24.1</v>
+        <v>24.8</v>
       </c>
       <c r="C77" t="n">
         <v>24</v>
       </c>
       <c r="D77" t="n">
-        <v>24.1</v>
+        <v>24.8</v>
       </c>
       <c r="E77" t="n">
-        <v>23.4</v>
+        <v>24</v>
       </c>
       <c r="F77" t="n">
-        <v>376662.762</v>
+        <v>111904.3815612903</v>
       </c>
       <c r="G77" t="n">
-        <v>25.21499999999999</v>
+        <v>22.89833333333335</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="C78" t="n">
-        <v>23.4</v>
+        <v>24</v>
       </c>
       <c r="D78" t="n">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="E78" t="n">
         <v>23.4</v>
       </c>
       <c r="F78" t="n">
-        <v>822542.7769000001</v>
+        <v>376662.762</v>
       </c>
       <c r="G78" t="n">
-        <v>25.21999999999999</v>
+        <v>22.94666666666668</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="C79" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="D79" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="E79" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="F79" t="n">
-        <v>121591.2063</v>
+        <v>822542.7769000001</v>
       </c>
       <c r="G79" t="n">
-        <v>25.165</v>
+        <v>22.98500000000002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="C80" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="D80" t="n">
         <v>24.2</v>
       </c>
       <c r="E80" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="F80" t="n">
-        <v>125039.3333</v>
+        <v>121591.2063</v>
       </c>
       <c r="G80" t="n">
-        <v>25.08</v>
+        <v>23.03833333333336</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3201,19 @@
         <v>24</v>
       </c>
       <c r="C81" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="D81" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="E81" t="n">
         <v>24</v>
       </c>
       <c r="F81" t="n">
-        <v>389395.9175</v>
+        <v>125039.3333</v>
       </c>
       <c r="G81" t="n">
-        <v>24.98999999999999</v>
+        <v>23.09500000000002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>24</v>
       </c>
       <c r="F82" t="n">
-        <v>114884.1658</v>
+        <v>389395.9175</v>
       </c>
       <c r="G82" t="n">
-        <v>24.935</v>
+        <v>23.15000000000002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,31 +3268,35 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="C83" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="D83" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="E83" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="F83" t="n">
-        <v>109989.4072</v>
+        <v>114884.1658</v>
       </c>
       <c r="G83" t="n">
-        <v>24.845</v>
+        <v>23.20333333333336</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>24</v>
+      </c>
+      <c r="K83" t="n">
+        <v>24</v>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
@@ -3303,10 +3307,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="C84" t="n">
-        <v>24.2</v>
+        <v>23.8</v>
       </c>
       <c r="D84" t="n">
         <v>24.2</v>
@@ -3315,10 +3319,10 @@
         <v>23.8</v>
       </c>
       <c r="F84" t="n">
-        <v>131738.8533</v>
+        <v>109989.4072</v>
       </c>
       <c r="G84" t="n">
-        <v>24.73</v>
+        <v>23.25000000000002</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3331,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>24</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,32 +3348,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="C85" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="D85" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="E85" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="F85" t="n">
-        <v>71537.1162</v>
+        <v>131738.8533</v>
       </c>
       <c r="G85" t="n">
-        <v>24.645</v>
+        <v>23.30833333333335</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K85" t="n">
+        <v>24</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3391,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="C86" t="n">
         <v>24.3</v>
       </c>
       <c r="D86" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="E86" t="n">
-        <v>24.3</v>
+        <v>23.7</v>
       </c>
       <c r="F86" t="n">
-        <v>3793.4441</v>
+        <v>71537.1162</v>
       </c>
       <c r="G86" t="n">
-        <v>24.6</v>
+        <v>23.36333333333335</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3415,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>24</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3411,19 +3435,19 @@
         <v>24.3</v>
       </c>
       <c r="C87" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="D87" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="E87" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="F87" t="n">
-        <v>120926.5372666667</v>
+        <v>3793.4441</v>
       </c>
       <c r="G87" t="n">
-        <v>24.57</v>
+        <v>23.42333333333335</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,8 +3456,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>24</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3473,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="C88" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="D88" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="E88" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="F88" t="n">
-        <v>74550.82429999999</v>
+        <v>120926.5372666667</v>
       </c>
       <c r="G88" t="n">
-        <v>24.495</v>
+        <v>23.49166666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3497,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>24</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,7 +3514,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="C89" t="n">
         <v>24.3</v>
@@ -3487,13 +3523,13 @@
         <v>24.3</v>
       </c>
       <c r="E89" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="F89" t="n">
-        <v>426263.9918</v>
+        <v>74550.82429999999</v>
       </c>
       <c r="G89" t="n">
-        <v>24.43</v>
+        <v>23.55000000000002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,8 +3538,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>24</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3516,19 +3558,19 @@
         <v>24</v>
       </c>
       <c r="C90" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="D90" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="E90" t="n">
         <v>24</v>
       </c>
       <c r="F90" t="n">
-        <v>1046.5791</v>
+        <v>426263.9918</v>
       </c>
       <c r="G90" t="n">
-        <v>24.37000000000001</v>
+        <v>23.60833333333335</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3579,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>24</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,10 +3596,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>24</v>
+      </c>
+      <c r="C91" t="n">
         <v>24.1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>24</v>
       </c>
       <c r="D91" t="n">
         <v>24.1</v>
@@ -3560,10 +3608,10 @@
         <v>24</v>
       </c>
       <c r="F91" t="n">
-        <v>5277.0863</v>
+        <v>1046.5791</v>
       </c>
       <c r="G91" t="n">
-        <v>24.32500000000001</v>
+        <v>23.66500000000002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,8 +3620,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>24</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3637,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="C92" t="n">
         <v>24</v>
       </c>
       <c r="D92" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="E92" t="n">
         <v>24</v>
       </c>
       <c r="F92" t="n">
-        <v>683.9251</v>
+        <v>5277.0863</v>
       </c>
       <c r="G92" t="n">
-        <v>24.28000000000001</v>
+        <v>23.72000000000002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,8 +3661,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>24</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3621,19 +3681,19 @@
         <v>24</v>
       </c>
       <c r="C93" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="D93" t="n">
         <v>24</v>
       </c>
       <c r="E93" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="F93" t="n">
-        <v>110122.8146</v>
+        <v>683.9251</v>
       </c>
       <c r="G93" t="n">
-        <v>24.24000000000001</v>
+        <v>23.77500000000002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,8 +3702,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>24</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +3719,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>24</v>
+      </c>
+      <c r="C94" t="n">
         <v>23.9</v>
       </c>
-      <c r="C94" t="n">
-        <v>23.6</v>
-      </c>
       <c r="D94" t="n">
+        <v>24</v>
+      </c>
+      <c r="E94" t="n">
         <v>23.9</v>
       </c>
-      <c r="E94" t="n">
-        <v>23.6</v>
-      </c>
       <c r="F94" t="n">
-        <v>75305.3998</v>
+        <v>110122.8146</v>
       </c>
       <c r="G94" t="n">
-        <v>24.19000000000001</v>
+        <v>23.82833333333335</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,8 +3743,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>24</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3760,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="C95" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="D95" t="n">
         <v>23.9</v>
       </c>
       <c r="E95" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="F95" t="n">
-        <v>321885.341</v>
+        <v>75305.3998</v>
       </c>
       <c r="G95" t="n">
-        <v>24.11000000000001</v>
+        <v>23.87666666666668</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,8 +3784,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>24</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +3801,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="C96" t="n">
         <v>23.5</v>
       </c>
       <c r="D96" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="E96" t="n">
         <v>23.5</v>
       </c>
-      <c r="E96" t="n">
-        <v>23.4</v>
-      </c>
       <c r="F96" t="n">
-        <v>26688.7575</v>
+        <v>321885.341</v>
       </c>
       <c r="G96" t="n">
-        <v>24.04500000000001</v>
+        <v>23.92333333333335</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,8 +3825,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>24</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3767,13 +3851,13 @@
         <v>23.5</v>
       </c>
       <c r="E97" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="F97" t="n">
-        <v>2297.4241</v>
+        <v>26688.7575</v>
       </c>
       <c r="G97" t="n">
-        <v>24.01500000000001</v>
+        <v>23.97000000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,8 +3866,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>24</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +3883,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="C98" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="D98" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="E98" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="F98" t="n">
-        <v>36122.6958</v>
+        <v>2297.4241</v>
       </c>
       <c r="G98" t="n">
-        <v>23.96000000000001</v>
+        <v>24.01666666666668</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,8 +3907,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>24</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +3924,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="C99" t="n">
         <v>23.3</v>
       </c>
       <c r="D99" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="E99" t="n">
         <v>23.3</v>
       </c>
       <c r="F99" t="n">
-        <v>59311.4239</v>
+        <v>36122.6958</v>
       </c>
       <c r="G99" t="n">
-        <v>23.92000000000001</v>
+        <v>24.06000000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,8 +3948,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>24</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3872,27 +3974,27 @@
         <v>23.3</v>
       </c>
       <c r="E100" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="F100" t="n">
-        <v>248620.7706</v>
+        <v>59311.4239</v>
       </c>
       <c r="G100" t="n">
-        <v>23.88500000000001</v>
+        <v>24.10333333333334</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>24</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -3913,24 +4015,24 @@
         <v>23.3</v>
       </c>
       <c r="E101" t="n">
-        <v>23.3</v>
+        <v>22.9</v>
       </c>
       <c r="F101" t="n">
-        <v>996.1224999999999</v>
+        <v>248620.7706</v>
       </c>
       <c r="G101" t="n">
-        <v>23.85000000000001</v>
+        <v>24.14666666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>24</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3948,30 +4050,30 @@
         <v>23.3</v>
       </c>
       <c r="C102" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="D102" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="E102" t="n">
         <v>23.3</v>
       </c>
       <c r="F102" t="n">
-        <v>10880.1195</v>
+        <v>996.1224999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>23.81500000000001</v>
+        <v>24.18833333333334</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>24</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3986,22 +4088,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="C103" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="D103" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="E103" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="F103" t="n">
-        <v>6314.573951260504</v>
+        <v>10880.1195</v>
       </c>
       <c r="G103" t="n">
-        <v>23.79500000000001</v>
+        <v>24.23333333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4010,7 +4112,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>24</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4025,22 +4129,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="C104" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="D104" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="E104" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="F104" t="n">
-        <v>15616.0867</v>
+        <v>6314.573951260504</v>
       </c>
       <c r="G104" t="n">
-        <v>23.78500000000001</v>
+        <v>24.27666666666668</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4049,7 +4153,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>24</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4064,33 +4170,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="C105" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="D105" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="E105" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="F105" t="n">
-        <v>16099.4294</v>
+        <v>15616.0867</v>
       </c>
       <c r="G105" t="n">
-        <v>23.77500000000001</v>
+        <v>24.29500000000001</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>24</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4108,30 +4214,30 @@
         <v>23.8</v>
       </c>
       <c r="C106" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="D106" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="E106" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="F106" t="n">
-        <v>63739.7489</v>
+        <v>16099.4294</v>
       </c>
       <c r="G106" t="n">
-        <v>23.75000000000001</v>
+        <v>24.30666666666668</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>24</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4146,33 +4252,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="C107" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="D107" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="E107" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="F107" t="n">
-        <v>42011.8606</v>
+        <v>63739.7489</v>
       </c>
       <c r="G107" t="n">
-        <v>23.72000000000001</v>
+        <v>24.32000000000001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>24</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4199,10 +4305,10 @@
         <v>23.7</v>
       </c>
       <c r="F108" t="n">
-        <v>8261.018400000001</v>
+        <v>42011.8606</v>
       </c>
       <c r="G108" t="n">
-        <v>23.69500000000001</v>
+        <v>24.33000000000002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4211,7 +4317,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>24</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4226,22 +4334,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="C109" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="D109" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="E109" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="F109" t="n">
-        <v>17584.2659</v>
+        <v>8261.018400000001</v>
       </c>
       <c r="G109" t="n">
-        <v>23.67000000000001</v>
+        <v>24.33833333333335</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4250,7 +4358,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>24</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4265,22 +4375,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C110" t="n">
         <v>23.4</v>
       </c>
-      <c r="C110" t="n">
-        <v>23.2</v>
-      </c>
       <c r="D110" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E110" t="n">
         <v>23.4</v>
       </c>
-      <c r="E110" t="n">
-        <v>23.2</v>
-      </c>
       <c r="F110" t="n">
-        <v>88596.1385</v>
+        <v>17584.2659</v>
       </c>
       <c r="G110" t="n">
-        <v>23.64000000000001</v>
+        <v>24.33166666666668</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4289,7 +4399,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>24</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4304,22 +4416,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="C111" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="D111" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="E111" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="F111" t="n">
-        <v>9908.9998</v>
+        <v>88596.1385</v>
       </c>
       <c r="G111" t="n">
-        <v>23.61500000000001</v>
+        <v>24.31333333333335</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4328,7 +4440,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>24</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4343,22 +4457,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C112" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="D112" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="E112" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="F112" t="n">
-        <v>717.6894</v>
+        <v>9908.9998</v>
       </c>
       <c r="G112" t="n">
-        <v>23.59000000000001</v>
+        <v>24.31333333333335</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4367,7 +4481,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>24</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4382,22 +4498,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="C113" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="D113" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="E113" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="F113" t="n">
-        <v>13000</v>
+        <v>717.6894</v>
       </c>
       <c r="G113" t="n">
-        <v>23.55000000000001</v>
+        <v>24.30666666666668</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4406,7 +4522,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>24</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4421,22 +4539,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="C114" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="D114" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="E114" t="n">
         <v>23.1</v>
       </c>
       <c r="F114" t="n">
-        <v>188880.4364</v>
+        <v>13000</v>
       </c>
       <c r="G114" t="n">
-        <v>23.52500000000001</v>
+        <v>24.30166666666668</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4445,7 +4563,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>24</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4460,22 +4580,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="C115" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="D115" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="E115" t="n">
         <v>23.1</v>
       </c>
       <c r="F115" t="n">
-        <v>29065.155</v>
+        <v>188880.4364</v>
       </c>
       <c r="G115" t="n">
-        <v>23.49500000000001</v>
+        <v>24.29166666666668</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4484,7 +4604,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>24</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4499,22 +4621,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="C116" t="n">
         <v>23.1</v>
       </c>
       <c r="D116" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="E116" t="n">
         <v>23.1</v>
       </c>
       <c r="F116" t="n">
-        <v>19388.3897</v>
+        <v>29065.155</v>
       </c>
       <c r="G116" t="n">
-        <v>23.47500000000001</v>
+        <v>24.27833333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4523,7 +4645,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>24</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4550,10 +4674,10 @@
         <v>23.1</v>
       </c>
       <c r="F117" t="n">
-        <v>16888.0444</v>
+        <v>19388.3897</v>
       </c>
       <c r="G117" t="n">
-        <v>23.45500000000001</v>
+        <v>24.26166666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4562,7 +4686,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>24</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4580,30 +4706,30 @@
         <v>23.1</v>
       </c>
       <c r="C118" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="D118" t="n">
-        <v>23.7</v>
+        <v>23.1</v>
       </c>
       <c r="E118" t="n">
         <v>23.1</v>
       </c>
       <c r="F118" t="n">
-        <v>107916.858</v>
+        <v>16888.0444</v>
       </c>
       <c r="G118" t="n">
-        <v>23.44000000000001</v>
+        <v>24.23333333333334</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>24</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4618,22 +4744,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C119" t="n">
         <v>23.2</v>
       </c>
-      <c r="C119" t="n">
-        <v>23.3</v>
-      </c>
       <c r="D119" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="E119" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="F119" t="n">
-        <v>55040.3196</v>
+        <v>107916.858</v>
       </c>
       <c r="G119" t="n">
-        <v>23.43500000000001</v>
+        <v>24.20166666666668</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4642,7 +4768,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>24</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4660,19 +4788,19 @@
         <v>23.2</v>
       </c>
       <c r="C120" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D120" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="E120" t="n">
         <v>23.2</v>
       </c>
       <c r="F120" t="n">
-        <v>11017.0158</v>
+        <v>55040.3196</v>
       </c>
       <c r="G120" t="n">
-        <v>23.43000000000001</v>
+        <v>24.16000000000001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4681,7 +4809,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>24</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4696,22 +4826,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="C121" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="D121" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="E121" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F121" t="n">
-        <v>320</v>
+        <v>11017.0158</v>
       </c>
       <c r="G121" t="n">
-        <v>23.43000000000001</v>
+        <v>24.11666666666668</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4720,7 +4850,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>24</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4735,22 +4867,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="C122" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="D122" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="E122" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F122" t="n">
-        <v>117260.7325</v>
+        <v>320</v>
       </c>
       <c r="G122" t="n">
-        <v>23.42500000000001</v>
+        <v>24.08666666666668</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4759,7 +4891,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>24</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4774,22 +4908,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C123" t="n">
         <v>23.6</v>
       </c>
-      <c r="C123" t="n">
-        <v>23.8</v>
-      </c>
       <c r="D123" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="E123" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="F123" t="n">
-        <v>20221.5359</v>
+        <v>117260.7325</v>
       </c>
       <c r="G123" t="n">
-        <v>23.41500000000001</v>
+        <v>24.04833333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4798,7 +4932,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>24</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4813,22 +4949,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="C124" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="D124" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="E124" t="n">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="F124" t="n">
-        <v>33684.0268</v>
+        <v>20221.5359</v>
       </c>
       <c r="G124" t="n">
-        <v>23.43000000000001</v>
+        <v>24.00833333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4837,7 +4973,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>24</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4852,22 +4990,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="C125" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="D125" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="E125" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="F125" t="n">
-        <v>32031.9893</v>
+        <v>33684.0268</v>
       </c>
       <c r="G125" t="n">
-        <v>23.43000000000001</v>
+        <v>23.98000000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4876,7 +5014,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>24</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4891,22 +5031,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="C126" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="D126" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="E126" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="F126" t="n">
-        <v>42000</v>
+        <v>32031.9893</v>
       </c>
       <c r="G126" t="n">
-        <v>23.42500000000001</v>
+        <v>23.94666666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4915,7 +5055,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>24</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4930,22 +5072,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="C127" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="D127" t="n">
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="E127" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="F127" t="n">
-        <v>4000</v>
+        <v>42000</v>
       </c>
       <c r="G127" t="n">
-        <v>23.45000000000001</v>
+        <v>23.89666666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4954,7 +5096,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>24</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4972,19 +5116,19 @@
         <v>24.2</v>
       </c>
       <c r="C128" t="n">
-        <v>24</v>
+        <v>24.6</v>
       </c>
       <c r="D128" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E128" t="n">
         <v>24.2</v>
       </c>
-      <c r="E128" t="n">
-        <v>24</v>
-      </c>
       <c r="F128" t="n">
-        <v>94683.0148</v>
+        <v>4000</v>
       </c>
       <c r="G128" t="n">
-        <v>23.47500000000001</v>
+        <v>23.88000000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4993,7 +5137,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>24</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5008,22 +5154,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="C129" t="n">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="D129" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="E129" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="F129" t="n">
-        <v>2700.8254</v>
+        <v>94683.0148</v>
       </c>
       <c r="G129" t="n">
-        <v>23.51500000000001</v>
+        <v>23.86000000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5032,7 +5178,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>24</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5047,22 +5195,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="C130" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="D130" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="E130" t="n">
         <v>24.1</v>
       </c>
       <c r="F130" t="n">
-        <v>158254.6678</v>
+        <v>2700.8254</v>
       </c>
       <c r="G130" t="n">
-        <v>23.55500000000001</v>
+        <v>23.835</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5071,7 +5219,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>24</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5086,22 +5236,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C131" t="n">
         <v>24.1</v>
       </c>
-      <c r="C131" t="n">
-        <v>23.6</v>
-      </c>
       <c r="D131" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="E131" t="n">
         <v>24.1</v>
       </c>
-      <c r="E131" t="n">
-        <v>23.6</v>
-      </c>
       <c r="F131" t="n">
-        <v>9372</v>
+        <v>158254.6678</v>
       </c>
       <c r="G131" t="n">
-        <v>23.58000000000001</v>
+        <v>23.82</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5110,7 +5260,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>24</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5125,22 +5277,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="C132" t="n">
-        <v>24.1</v>
+        <v>23.6</v>
       </c>
       <c r="D132" t="n">
         <v>24.1</v>
       </c>
       <c r="E132" t="n">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="F132" t="n">
-        <v>56420.1659</v>
+        <v>9372</v>
       </c>
       <c r="G132" t="n">
-        <v>23.60500000000001</v>
+        <v>23.79833333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5149,7 +5301,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>24</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5164,22 +5318,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="C133" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="D133" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="E133" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="F133" t="n">
-        <v>268947.0356</v>
+        <v>56420.1659</v>
       </c>
       <c r="G133" t="n">
-        <v>23.63500000000001</v>
+        <v>23.78833333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5188,7 +5342,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>24</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5203,22 +5359,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="C134" t="n">
-        <v>23.9</v>
+        <v>24.4</v>
       </c>
       <c r="D134" t="n">
-        <v>23.9</v>
+        <v>24.4</v>
       </c>
       <c r="E134" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="F134" t="n">
-        <v>57404.6055</v>
+        <v>268947.0356</v>
       </c>
       <c r="G134" t="n">
-        <v>23.66000000000001</v>
+        <v>23.78</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5227,7 +5383,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>24</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5242,22 +5400,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="C135" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="D135" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="E135" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="F135" t="n">
-        <v>34261.7762</v>
+        <v>57404.6055</v>
       </c>
       <c r="G135" t="n">
-        <v>23.68500000000001</v>
+        <v>23.755</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5266,7 +5424,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>24</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5281,22 +5441,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="D136" t="n">
         <v>23.8</v>
       </c>
-      <c r="C136" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="D136" t="n">
-        <v>24.5</v>
-      </c>
       <c r="E136" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="F136" t="n">
-        <v>610132.8945000001</v>
+        <v>34261.7762</v>
       </c>
       <c r="G136" t="n">
-        <v>23.72000000000001</v>
+        <v>23.73666666666666</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5305,7 +5465,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>24</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5320,22 +5482,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="C137" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="D137" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E137" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="F137" t="n">
-        <v>26255.0497</v>
+        <v>610132.8945000001</v>
       </c>
       <c r="G137" t="n">
-        <v>23.76500000000001</v>
+        <v>23.74333333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5344,7 +5506,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>24</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5359,22 +5523,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>24</v>
+      </c>
+      <c r="C138" t="n">
         <v>24.1</v>
       </c>
-      <c r="C138" t="n">
-        <v>24.2</v>
-      </c>
       <c r="D138" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="E138" t="n">
         <v>23.6</v>
       </c>
       <c r="F138" t="n">
-        <v>95637.29180000001</v>
+        <v>26255.0497</v>
       </c>
       <c r="G138" t="n">
-        <v>23.81500000000001</v>
+        <v>23.745</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5383,7 +5547,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>24</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5398,22 +5564,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C139" t="n">
         <v>24.2</v>
       </c>
-      <c r="C139" t="n">
-        <v>23.9</v>
-      </c>
       <c r="D139" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="E139" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="F139" t="n">
-        <v>31672.1519</v>
+        <v>95637.29180000001</v>
       </c>
       <c r="G139" t="n">
-        <v>23.86500000000001</v>
+        <v>23.75833333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5422,7 +5588,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>24</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5437,22 +5605,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C140" t="n">
         <v>23.9</v>
       </c>
-      <c r="C140" t="n">
-        <v>24</v>
-      </c>
       <c r="D140" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="E140" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="F140" t="n">
-        <v>155077.8519</v>
+        <v>31672.1519</v>
       </c>
       <c r="G140" t="n">
-        <v>23.90000000000001</v>
+        <v>23.75666666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5461,7 +5629,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>24</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5476,7 +5646,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="C141" t="n">
         <v>24</v>
@@ -5488,10 +5658,10 @@
         <v>23.5</v>
       </c>
       <c r="F141" t="n">
-        <v>2178.6</v>
+        <v>155077.8519</v>
       </c>
       <c r="G141" t="n">
-        <v>23.91000000000001</v>
+        <v>23.75333333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5500,7 +5670,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>24</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5515,22 +5687,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="C142" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D142" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="E142" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="F142" t="n">
-        <v>65365.0024</v>
+        <v>2178.6</v>
       </c>
       <c r="G142" t="n">
-        <v>23.93000000000001</v>
+        <v>23.75333333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5539,7 +5711,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>24</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5557,19 +5731,19 @@
         <v>23.6</v>
       </c>
       <c r="C143" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="D143" t="n">
-        <v>24.1</v>
+        <v>23.6</v>
       </c>
       <c r="E143" t="n">
         <v>23.3</v>
       </c>
       <c r="F143" t="n">
-        <v>183237.1508</v>
+        <v>65365.0024</v>
       </c>
       <c r="G143" t="n">
-        <v>23.93000000000001</v>
+        <v>23.74666666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5578,7 +5752,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>24</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5593,22 +5769,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C144" t="n">
         <v>23.5</v>
-      </c>
-      <c r="C144" t="n">
-        <v>23.6</v>
       </c>
       <c r="D144" t="n">
         <v>24.1</v>
       </c>
       <c r="E144" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="F144" t="n">
-        <v>113834.9166</v>
+        <v>183237.1508</v>
       </c>
       <c r="G144" t="n">
-        <v>23.90500000000001</v>
+        <v>23.74166666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5617,7 +5793,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>24</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5632,22 +5810,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C145" t="n">
         <v>23.6</v>
       </c>
-      <c r="C145" t="n">
+      <c r="D145" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="E145" t="n">
         <v>23.5</v>
       </c>
-      <c r="D145" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="E145" t="n">
-        <v>23.4</v>
-      </c>
       <c r="F145" t="n">
-        <v>49975.9178</v>
+        <v>113834.9166</v>
       </c>
       <c r="G145" t="n">
-        <v>23.89500000000001</v>
+        <v>23.73166666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5656,7 +5834,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>24</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5674,19 +5854,19 @@
         <v>23.6</v>
       </c>
       <c r="C146" t="n">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="D146" t="n">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="E146" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="F146" t="n">
-        <v>59020.9602825</v>
+        <v>49975.9178</v>
       </c>
       <c r="G146" t="n">
-        <v>23.89000000000001</v>
+        <v>23.71833333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5695,7 +5875,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>24</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5710,22 +5892,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C147" t="n">
+        <v>24</v>
+      </c>
+      <c r="D147" t="n">
+        <v>24</v>
+      </c>
+      <c r="E147" t="n">
         <v>23.5</v>
       </c>
-      <c r="C147" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="D147" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="E147" t="n">
-        <v>23.4</v>
-      </c>
       <c r="F147" t="n">
-        <v>5527.4875</v>
+        <v>59020.9602825</v>
       </c>
       <c r="G147" t="n">
-        <v>23.85500000000001</v>
+        <v>23.71333333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5734,7 +5916,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>24</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5749,22 +5933,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="C148" t="n">
         <v>23.7</v>
       </c>
       <c r="D148" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="E148" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="F148" t="n">
-        <v>13000</v>
+        <v>5527.4875</v>
       </c>
       <c r="G148" t="n">
-        <v>23.83000000000001</v>
+        <v>23.69833333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5773,7 +5957,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>24</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5788,7 +5974,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="C149" t="n">
         <v>23.7</v>
@@ -5797,13 +5983,13 @@
         <v>23.7</v>
       </c>
       <c r="E149" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="F149" t="n">
-        <v>757.0647</v>
+        <v>13000</v>
       </c>
       <c r="G149" t="n">
-        <v>23.79000000000001</v>
+        <v>23.68833333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5812,7 +5998,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>24</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5827,7 +6015,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="C150" t="n">
         <v>23.7</v>
@@ -5836,13 +6024,13 @@
         <v>23.7</v>
       </c>
       <c r="E150" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="F150" t="n">
-        <v>1765</v>
+        <v>757.0647</v>
       </c>
       <c r="G150" t="n">
-        <v>23.76000000000001</v>
+        <v>23.67833333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5851,7 +6039,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>24</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5878,10 +6068,10 @@
         <v>23.6</v>
       </c>
       <c r="F151" t="n">
-        <v>82829.2203</v>
+        <v>1765</v>
       </c>
       <c r="G151" t="n">
-        <v>23.73500000000001</v>
+        <v>23.67166666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5890,7 +6080,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>24</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5905,22 +6097,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C152" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="D152" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="E152" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="F152" t="n">
-        <v>10649.0961</v>
+        <v>82829.2203</v>
       </c>
       <c r="G152" t="n">
-        <v>23.71000000000002</v>
+        <v>23.66666666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5929,7 +6121,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>24</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5947,19 +6141,19 @@
         <v>23.5</v>
       </c>
       <c r="C153" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="D153" t="n">
         <v>23.5</v>
       </c>
       <c r="E153" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="F153" t="n">
-        <v>115942.1883</v>
+        <v>10649.0961</v>
       </c>
       <c r="G153" t="n">
-        <v>23.69500000000001</v>
+        <v>23.65833333333334</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5968,7 +6162,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>24</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5983,22 +6179,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="C154" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="D154" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="E154" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="F154" t="n">
-        <v>11</v>
+        <v>115942.1883</v>
       </c>
       <c r="G154" t="n">
-        <v>23.68000000000001</v>
+        <v>23.65</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6007,7 +6203,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>24</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6022,7 +6220,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="C155" t="n">
         <v>23.6</v>
@@ -6031,13 +6229,13 @@
         <v>23.6</v>
       </c>
       <c r="E155" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="F155" t="n">
-        <v>55570.0533</v>
+        <v>11</v>
       </c>
       <c r="G155" t="n">
-        <v>23.66500000000001</v>
+        <v>23.65</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6046,7 +6244,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>24</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6064,19 +6264,19 @@
         <v>23.4</v>
       </c>
       <c r="C156" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="D156" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E156" t="n">
         <v>23.4</v>
       </c>
       <c r="F156" t="n">
-        <v>26033</v>
+        <v>55570.0533</v>
       </c>
       <c r="G156" t="n">
-        <v>23.64500000000001</v>
+        <v>23.65166666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6085,7 +6285,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>24</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6112,10 +6314,10 @@
         <v>23.4</v>
       </c>
       <c r="F157" t="n">
-        <v>26669.2501</v>
+        <v>26033</v>
       </c>
       <c r="G157" t="n">
-        <v>23.61500000000001</v>
+        <v>23.65166666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6124,7 +6326,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>24</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6139,22 +6343,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C158" t="n">
         <v>23.5</v>
       </c>
-      <c r="C158" t="n">
-        <v>23.7</v>
-      </c>
       <c r="D158" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="E158" t="n">
         <v>23.4</v>
       </c>
       <c r="F158" t="n">
-        <v>65989.47629999999</v>
+        <v>26669.2501</v>
       </c>
       <c r="G158" t="n">
-        <v>23.58500000000001</v>
+        <v>23.65166666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6163,7 +6367,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>24</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6187,13 +6393,13 @@
         <v>23.7</v>
       </c>
       <c r="E159" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="F159" t="n">
-        <v>34837.3682</v>
+        <v>65989.47629999999</v>
       </c>
       <c r="G159" t="n">
-        <v>23.55000000000001</v>
+        <v>23.65833333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6202,7 +6408,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>24</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6217,22 +6425,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="C160" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="D160" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="E160" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="F160" t="n">
-        <v>255996.9438</v>
+        <v>34837.3682</v>
       </c>
       <c r="G160" t="n">
-        <v>23.53500000000001</v>
+        <v>23.66500000000001</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6241,7 +6449,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>24</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6259,19 +6469,19 @@
         <v>23.6</v>
       </c>
       <c r="C161" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="D161" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="E161" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="F161" t="n">
-        <v>262705.8269</v>
+        <v>255996.9438</v>
       </c>
       <c r="G161" t="n">
-        <v>23.54000000000001</v>
+        <v>23.67000000000001</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6280,7 +6490,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>24</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6295,7 +6507,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="C162" t="n">
         <v>23.9</v>
@@ -6304,13 +6516,13 @@
         <v>23.9</v>
       </c>
       <c r="E162" t="n">
-        <v>23.9</v>
+        <v>23.5</v>
       </c>
       <c r="F162" t="n">
-        <v>941.4225</v>
+        <v>262705.8269</v>
       </c>
       <c r="G162" t="n">
-        <v>23.55500000000001</v>
+        <v>23.68000000000001</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6319,7 +6531,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>24</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6334,22 +6548,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="C163" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="D163" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="E163" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="F163" t="n">
-        <v>709.0336</v>
+        <v>941.4225</v>
       </c>
       <c r="G163" t="n">
-        <v>23.56500000000001</v>
+        <v>23.68666666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6358,7 +6572,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>24</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6373,22 +6589,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="C164" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="D164" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="E164" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="F164" t="n">
-        <v>706.4417999999999</v>
+        <v>709.0336</v>
       </c>
       <c r="G164" t="n">
-        <v>23.56000000000001</v>
+        <v>23.69333333333334</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6397,7 +6613,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>24</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6412,22 +6630,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="C165" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="D165" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E165" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="F165" t="n">
-        <v>2412</v>
+        <v>706.4417999999999</v>
       </c>
       <c r="G165" t="n">
-        <v>23.55500000000001</v>
+        <v>23.69166666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6436,7 +6654,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>24</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6454,19 +6674,19 @@
         <v>23.5</v>
       </c>
       <c r="C166" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="D166" t="n">
         <v>23.5</v>
       </c>
       <c r="E166" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="F166" t="n">
-        <v>70026.3345</v>
+        <v>2412</v>
       </c>
       <c r="G166" t="n">
-        <v>23.55000000000001</v>
+        <v>23.69</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6475,7 +6695,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>24</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6490,22 +6712,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C167" t="n">
         <v>23.4</v>
       </c>
-      <c r="C167" t="n">
-        <v>23.3</v>
-      </c>
       <c r="D167" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E167" t="n">
         <v>23.4</v>
       </c>
-      <c r="E167" t="n">
-        <v>23.3</v>
-      </c>
       <c r="F167" t="n">
-        <v>14256.1541</v>
+        <v>70026.3345</v>
       </c>
       <c r="G167" t="n">
-        <v>23.54500000000001</v>
+        <v>23.68166666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6514,7 +6736,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>24</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6529,22 +6753,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="C168" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="D168" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="E168" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="F168" t="n">
-        <v>179.1906</v>
+        <v>14256.1541</v>
       </c>
       <c r="G168" t="n">
-        <v>23.54000000000001</v>
+        <v>23.675</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6553,7 +6777,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>24</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6568,22 +6794,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C169" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="D169" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E169" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="F169" t="n">
-        <v>638.2978000000001</v>
+        <v>179.1906</v>
       </c>
       <c r="G169" t="n">
-        <v>23.54000000000001</v>
+        <v>23.67333333333334</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6592,7 +6818,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>24</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6607,7 +6835,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="C170" t="n">
         <v>23.5</v>
@@ -6616,13 +6844,13 @@
         <v>23.5</v>
       </c>
       <c r="E170" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="F170" t="n">
-        <v>35738.1425</v>
+        <v>638.2978000000001</v>
       </c>
       <c r="G170" t="n">
-        <v>23.52500000000001</v>
+        <v>23.675</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6631,7 +6859,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>24</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6658,10 +6888,10 @@
         <v>23.3</v>
       </c>
       <c r="F171" t="n">
-        <v>45833.06942832618</v>
+        <v>35738.1425</v>
       </c>
       <c r="G171" t="n">
-        <v>23.51000000000001</v>
+        <v>23.68</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6670,7 +6900,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>24</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6685,22 +6917,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C172" t="n">
         <v>23.5</v>
-      </c>
-      <c r="C172" t="n">
-        <v>23.1</v>
       </c>
       <c r="D172" t="n">
         <v>23.5</v>
       </c>
       <c r="E172" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="F172" t="n">
-        <v>41291.0252</v>
+        <v>45833.06942832618</v>
       </c>
       <c r="G172" t="n">
-        <v>23.51000000000001</v>
+        <v>23.67666666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6709,7 +6941,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>24</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6724,22 +6958,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="C173" t="n">
-        <v>23.5</v>
+        <v>23.1</v>
       </c>
       <c r="D173" t="n">
         <v>23.5</v>
       </c>
       <c r="E173" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="F173" t="n">
-        <v>340500.6544</v>
+        <v>41291.0252</v>
       </c>
       <c r="G173" t="n">
-        <v>23.49500000000001</v>
+        <v>23.67333333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6748,7 +6982,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>24</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6763,22 +6999,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="C174" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="D174" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="E174" t="n">
-        <v>23.3</v>
+        <v>22.9</v>
       </c>
       <c r="F174" t="n">
-        <v>49999.1056</v>
+        <v>340500.6544</v>
       </c>
       <c r="G174" t="n">
-        <v>23.48000000000001</v>
+        <v>23.68</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6787,7 +7023,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>24</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6805,19 +7043,19 @@
         <v>23.3</v>
       </c>
       <c r="C175" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="D175" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="E175" t="n">
         <v>23.3</v>
       </c>
       <c r="F175" t="n">
-        <v>727</v>
+        <v>49999.1056</v>
       </c>
       <c r="G175" t="n">
-        <v>23.47500000000001</v>
+        <v>23.685</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6826,7 +7064,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>24</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6844,19 +7084,19 @@
         <v>23.3</v>
       </c>
       <c r="C176" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D176" t="n">
         <v>23.3</v>
       </c>
       <c r="E176" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F176" t="n">
-        <v>16715.9998</v>
+        <v>727</v>
       </c>
       <c r="G176" t="n">
-        <v>23.47000000000001</v>
+        <v>23.68833333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6865,7 +7105,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>24</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6880,22 +7122,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="C177" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="D177" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="E177" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="F177" t="n">
-        <v>10245.4065</v>
+        <v>16715.9998</v>
       </c>
       <c r="G177" t="n">
-        <v>23.45000000000001</v>
+        <v>23.69</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6904,7 +7146,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>24</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6922,19 +7166,19 @@
         <v>23</v>
       </c>
       <c r="C178" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="D178" t="n">
         <v>23</v>
       </c>
       <c r="E178" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="F178" t="n">
-        <v>224.8996</v>
+        <v>10245.4065</v>
       </c>
       <c r="G178" t="n">
-        <v>23.42500000000001</v>
+        <v>23.68666666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6943,7 +7187,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>24</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6970,10 +7216,10 @@
         <v>23</v>
       </c>
       <c r="F179" t="n">
-        <v>135.8798</v>
+        <v>224.8996</v>
       </c>
       <c r="G179" t="n">
-        <v>23.40000000000001</v>
+        <v>23.68333333333334</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6982,7 +7228,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>24</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6997,22 +7245,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="C180" t="n">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="D180" t="n">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="E180" t="n">
         <v>23</v>
       </c>
       <c r="F180" t="n">
-        <v>90464.37119999999</v>
+        <v>135.8798</v>
       </c>
       <c r="G180" t="n">
-        <v>23.38500000000001</v>
+        <v>23.67833333333334</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7021,7 +7269,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>24</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7036,7 +7286,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="C181" t="n">
         <v>23.4</v>
@@ -7045,13 +7295,13 @@
         <v>23.4</v>
       </c>
       <c r="E181" t="n">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="F181" t="n">
-        <v>583</v>
+        <v>90464.37119999999</v>
       </c>
       <c r="G181" t="n">
-        <v>23.37500000000001</v>
+        <v>23.68166666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7060,7 +7310,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>24</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7075,22 +7327,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>23</v>
+        <v>23.4</v>
       </c>
       <c r="C182" t="n">
-        <v>22.8</v>
+        <v>23.4</v>
       </c>
       <c r="D182" t="n">
-        <v>23</v>
+        <v>23.4</v>
       </c>
       <c r="E182" t="n">
-        <v>22.8</v>
+        <v>23.4</v>
       </c>
       <c r="F182" t="n">
-        <v>342919.572</v>
+        <v>583</v>
       </c>
       <c r="G182" t="n">
-        <v>23.33000000000001</v>
+        <v>23.68333333333334</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7099,7 +7351,9 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>24</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7114,22 +7368,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="C183" t="n">
-        <v>23.2</v>
+        <v>22.8</v>
       </c>
       <c r="D183" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="E183" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="F183" t="n">
-        <v>32911.249</v>
+        <v>342919.572</v>
       </c>
       <c r="G183" t="n">
-        <v>23.28500000000001</v>
+        <v>23.67000000000001</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7138,7 +7392,9 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>24</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7153,22 +7409,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="C184" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="D184" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="E184" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="F184" t="n">
-        <v>44396.9777</v>
+        <v>32911.249</v>
       </c>
       <c r="G184" t="n">
-        <v>23.27000000000001</v>
+        <v>23.66000000000001</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7177,7 +7433,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>24</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7192,22 +7450,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="C185" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="D185" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="E185" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="F185" t="n">
-        <v>81428.92</v>
+        <v>44396.9777</v>
       </c>
       <c r="G185" t="n">
-        <v>23.24000000000001</v>
+        <v>23.64333333333334</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7216,7 +7474,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>24</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7231,22 +7491,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="C186" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="D186" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="E186" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="F186" t="n">
-        <v>39309.9465</v>
+        <v>81428.92</v>
       </c>
       <c r="G186" t="n">
-        <v>23.19500000000001</v>
+        <v>23.62500000000001</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7255,7 +7515,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>24</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7270,22 +7532,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C187" t="n">
         <v>22.5</v>
       </c>
-      <c r="C187" t="n">
-        <v>22.4</v>
-      </c>
       <c r="D187" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E187" t="n">
         <v>22.5</v>
       </c>
-      <c r="E187" t="n">
-        <v>22.4</v>
-      </c>
       <c r="F187" t="n">
-        <v>42377.3247</v>
+        <v>39309.9465</v>
       </c>
       <c r="G187" t="n">
-        <v>23.15000000000001</v>
+        <v>23.60166666666668</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7294,7 +7556,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>24</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7309,22 +7573,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="C188" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="D188" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="E188" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="F188" t="n">
-        <v>17977.7874</v>
+        <v>42377.3247</v>
       </c>
       <c r="G188" t="n">
-        <v>23.10500000000001</v>
+        <v>23.56500000000001</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7333,7 +7597,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>24</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7348,22 +7614,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="C189" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="D189" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="E189" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="F189" t="n">
-        <v>107465.6158</v>
+        <v>17977.7874</v>
       </c>
       <c r="G189" t="n">
-        <v>23.05500000000001</v>
+        <v>23.54333333333335</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7372,7 +7638,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>24</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7387,22 +7655,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="C190" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="D190" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="E190" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="F190" t="n">
-        <v>22200</v>
+        <v>107465.6158</v>
       </c>
       <c r="G190" t="n">
-        <v>23.02500000000001</v>
+        <v>23.51500000000001</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7411,7 +7679,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>24</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7438,10 +7708,10 @@
         <v>22.7</v>
       </c>
       <c r="F191" t="n">
-        <v>14600</v>
+        <v>22200</v>
       </c>
       <c r="G191" t="n">
-        <v>22.99500000000001</v>
+        <v>23.49166666666668</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7450,7 +7720,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>24</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7465,22 +7737,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="C192" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="D192" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="E192" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="F192" t="n">
-        <v>1454.9781</v>
+        <v>14600</v>
       </c>
       <c r="G192" t="n">
-        <v>22.96500000000001</v>
+        <v>23.47666666666668</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7489,7 +7761,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>24</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7504,22 +7778,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="C193" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="D193" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="E193" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="F193" t="n">
-        <v>26600</v>
+        <v>1454.9781</v>
       </c>
       <c r="G193" t="n">
-        <v>22.94500000000001</v>
+        <v>23.45666666666669</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7528,7 +7802,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>24</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7543,22 +7819,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="C194" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="D194" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="E194" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="F194" t="n">
-        <v>11409.8888</v>
+        <v>26600</v>
       </c>
       <c r="G194" t="n">
-        <v>22.91000000000001</v>
+        <v>23.43000000000002</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7567,7 +7843,9 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>24</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7582,22 +7860,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="C195" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="D195" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="E195" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="F195" t="n">
-        <v>41475</v>
+        <v>11409.8888</v>
       </c>
       <c r="G195" t="n">
-        <v>22.88500000000001</v>
+        <v>23.40833333333335</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7606,7 +7884,9 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>24</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7621,22 +7901,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="C196" t="n">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="D196" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="E196" t="n">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="F196" t="n">
-        <v>51362.7217</v>
+        <v>41475</v>
       </c>
       <c r="G196" t="n">
-        <v>22.85000000000001</v>
+        <v>23.39500000000002</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7645,7 +7925,9 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>24</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7663,19 +7945,19 @@
         <v>22.6</v>
       </c>
       <c r="C197" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="D197" t="n">
         <v>22.6</v>
       </c>
       <c r="E197" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="F197" t="n">
-        <v>1419.6632</v>
+        <v>51362.7217</v>
       </c>
       <c r="G197" t="n">
-        <v>22.83000000000001</v>
+        <v>23.36166666666668</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7684,7 +7966,9 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>24</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7699,22 +7983,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="C198" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="D198" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="E198" t="n">
-        <v>22.1</v>
+        <v>22.6</v>
       </c>
       <c r="F198" t="n">
-        <v>526341.927</v>
+        <v>1419.6632</v>
       </c>
       <c r="G198" t="n">
-        <v>22.80500000000001</v>
+        <v>23.33666666666668</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7723,7 +8007,9 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>24</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7738,22 +8024,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="C199" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="D199" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="E199" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="F199" t="n">
-        <v>4667.7276</v>
+        <v>526341.927</v>
       </c>
       <c r="G199" t="n">
-        <v>22.78500000000001</v>
+        <v>23.31166666666668</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7762,7 +8048,9 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>24</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7777,22 +8065,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="C200" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="D200" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="E200" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="F200" t="n">
-        <v>21.8519</v>
+        <v>4667.7276</v>
       </c>
       <c r="G200" t="n">
-        <v>22.74500000000001</v>
+        <v>23.28666666666668</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7801,7 +8089,9 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>24</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7816,22 +8106,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="C201" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="D201" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="E201" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="F201" t="n">
-        <v>228156.0866</v>
+        <v>21.8519</v>
       </c>
       <c r="G201" t="n">
-        <v>22.70500000000001</v>
+        <v>23.26166666666668</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7840,7 +8130,9 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>24</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7855,7 +8147,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="C202" t="n">
         <v>22.7</v>
@@ -7864,13 +8156,13 @@
         <v>22.7</v>
       </c>
       <c r="E202" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="F202" t="n">
-        <v>50800</v>
+        <v>228156.0866</v>
       </c>
       <c r="G202" t="n">
-        <v>22.69000000000001</v>
+        <v>23.24000000000002</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7879,7 +8171,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>24</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7906,10 +8200,10 @@
         <v>22.7</v>
       </c>
       <c r="F203" t="n">
-        <v>48066.5198</v>
+        <v>50800</v>
       </c>
       <c r="G203" t="n">
-        <v>22.68000000000001</v>
+        <v>23.22500000000002</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7918,7 +8212,9 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>24</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7933,22 +8229,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="C204" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="D204" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="E204" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="F204" t="n">
-        <v>309468.4022</v>
+        <v>48066.5198</v>
       </c>
       <c r="G204" t="n">
-        <v>22.66500000000001</v>
+        <v>23.21166666666669</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7957,7 +8253,9 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>24</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7972,10 +8270,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C205" t="n">
         <v>22.6</v>
-      </c>
-      <c r="C205" t="n">
-        <v>22.8</v>
       </c>
       <c r="D205" t="n">
         <v>22.8</v>
@@ -7984,10 +8282,10 @@
         <v>22.6</v>
       </c>
       <c r="F205" t="n">
-        <v>892.8787</v>
+        <v>309468.4022</v>
       </c>
       <c r="G205" t="n">
-        <v>22.65000000000001</v>
+        <v>23.19500000000002</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7996,7 +8294,9 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>24</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8011,22 +8311,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="C206" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="D206" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="E206" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="F206" t="n">
-        <v>198.4127</v>
+        <v>892.8787</v>
       </c>
       <c r="G206" t="n">
-        <v>22.65500000000001</v>
+        <v>23.18333333333335</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8035,7 +8335,9 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>24</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8050,22 +8352,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="C207" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="D207" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="E207" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="F207" t="n">
-        <v>11</v>
+        <v>198.4127</v>
       </c>
       <c r="G207" t="n">
-        <v>22.67000000000001</v>
+        <v>23.16166666666669</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8074,7 +8376,9 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>24</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8089,22 +8393,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="C208" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="D208" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="E208" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="F208" t="n">
-        <v>756.8988000000001</v>
+        <v>11</v>
       </c>
       <c r="G208" t="n">
-        <v>22.68000000000001</v>
+        <v>23.14666666666669</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8113,7 +8417,9 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>24</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8128,22 +8434,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C209" t="n">
         <v>22.7</v>
       </c>
-      <c r="C209" t="n">
-        <v>22.8</v>
-      </c>
       <c r="D209" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="E209" t="n">
         <v>22.7</v>
       </c>
       <c r="F209" t="n">
-        <v>430</v>
+        <v>756.8988000000001</v>
       </c>
       <c r="G209" t="n">
-        <v>22.69000000000001</v>
+        <v>23.13000000000002</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8152,7 +8458,9 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>24</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8167,22 +8475,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C210" t="n">
         <v>22.8</v>
       </c>
-      <c r="C210" t="n">
-        <v>23</v>
-      </c>
       <c r="D210" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="E210" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="F210" t="n">
-        <v>50525.2017</v>
+        <v>430</v>
       </c>
       <c r="G210" t="n">
-        <v>22.69500000000001</v>
+        <v>23.11500000000002</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8191,7 +8499,9 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>24</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8206,22 +8516,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="C211" t="n">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="D211" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="E211" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="F211" t="n">
-        <v>57781.9898</v>
+        <v>50525.2017</v>
       </c>
       <c r="G211" t="n">
-        <v>22.69500000000001</v>
+        <v>23.10333333333335</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8230,7 +8540,9 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>24</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8245,22 +8557,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="C212" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="D212" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="E212" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="F212" t="n">
-        <v>25542.9472</v>
+        <v>57781.9898</v>
       </c>
       <c r="G212" t="n">
-        <v>22.69000000000002</v>
+        <v>23.09833333333335</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8269,7 +8581,9 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>24</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8284,22 +8598,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="C213" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="D213" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="E213" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="F213" t="n">
-        <v>308</v>
+        <v>25542.9472</v>
       </c>
       <c r="G213" t="n">
-        <v>22.69500000000001</v>
+        <v>23.09333333333335</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8308,7 +8622,9 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>24</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8326,19 +8642,19 @@
         <v>22.9</v>
       </c>
       <c r="C214" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="D214" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="E214" t="n">
         <v>22.9</v>
       </c>
       <c r="F214" t="n">
-        <v>8861.0434</v>
+        <v>308</v>
       </c>
       <c r="G214" t="n">
-        <v>22.71000000000001</v>
+        <v>23.09166666666668</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8347,7 +8663,9 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>24</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8374,10 +8692,10 @@
         <v>22.9</v>
       </c>
       <c r="F215" t="n">
-        <v>4989.6069</v>
+        <v>8861.0434</v>
       </c>
       <c r="G215" t="n">
-        <v>22.71500000000001</v>
+        <v>23.08000000000002</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8386,7 +8704,9 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>24</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8401,22 +8721,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="C216" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="D216" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="E216" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="F216" t="n">
-        <v>949.3622</v>
+        <v>4989.6069</v>
       </c>
       <c r="G216" t="n">
-        <v>22.71500000000001</v>
+        <v>23.06833333333335</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8425,7 +8745,9 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>24</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8440,22 +8762,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="C217" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="D217" t="n">
-        <v>23.2</v>
+        <v>22.6</v>
       </c>
       <c r="E217" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="F217" t="n">
-        <v>1212.3973</v>
+        <v>949.3622</v>
       </c>
       <c r="G217" t="n">
-        <v>22.73000000000001</v>
+        <v>23.05333333333335</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8464,7 +8786,9 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>24</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8482,19 +8806,19 @@
         <v>22.9</v>
       </c>
       <c r="C218" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="D218" t="n">
         <v>23.2</v>
       </c>
       <c r="E218" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="F218" t="n">
-        <v>17284.9737</v>
+        <v>1212.3973</v>
       </c>
       <c r="G218" t="n">
-        <v>22.75000000000001</v>
+        <v>23.04333333333335</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8503,7 +8827,9 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>24</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8518,22 +8844,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C219" t="n">
         <v>23.2</v>
       </c>
-      <c r="C219" t="n">
-        <v>22.6</v>
-      </c>
       <c r="D219" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="E219" t="n">
         <v>22.6</v>
       </c>
       <c r="F219" t="n">
-        <v>210633.5856</v>
+        <v>17284.9737</v>
       </c>
       <c r="G219" t="n">
-        <v>22.78</v>
+        <v>23.03500000000002</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8542,7 +8868,9 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>24</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8557,22 +8885,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="C220" t="n">
-        <v>23</v>
+        <v>22.6</v>
       </c>
       <c r="D220" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="E220" t="n">
-        <v>23</v>
+        <v>22.6</v>
       </c>
       <c r="F220" t="n">
-        <v>171</v>
+        <v>210633.5856</v>
       </c>
       <c r="G220" t="n">
-        <v>22.805</v>
+        <v>23.01666666666669</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8581,7 +8909,9 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>24</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8599,19 +8929,19 @@
         <v>23</v>
       </c>
       <c r="C221" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="D221" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="E221" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="F221" t="n">
-        <v>17147.0538</v>
+        <v>171</v>
       </c>
       <c r="G221" t="n">
-        <v>22.825</v>
+        <v>23.00666666666669</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8620,7 +8950,9 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>24</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8635,22 +8967,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
+        <v>23</v>
+      </c>
+      <c r="C222" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D222" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E222" t="n">
         <v>22.9</v>
       </c>
-      <c r="C222" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D222" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="E222" t="n">
-        <v>22.7</v>
-      </c>
       <c r="F222" t="n">
-        <v>4414.5121</v>
+        <v>17147.0538</v>
       </c>
       <c r="G222" t="n">
-        <v>22.835</v>
+        <v>22.99666666666668</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8659,7 +8991,9 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>24</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8674,22 +9008,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="C223" t="n">
         <v>22.7</v>
       </c>
       <c r="D223" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="E223" t="n">
         <v>22.7</v>
       </c>
       <c r="F223" t="n">
-        <v>223.8636</v>
+        <v>4414.5121</v>
       </c>
       <c r="G223" t="n">
-        <v>22.835</v>
+        <v>22.97666666666668</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8698,7 +9032,9 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>24</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8725,10 +9061,10 @@
         <v>22.7</v>
       </c>
       <c r="F224" t="n">
-        <v>3275.45</v>
+        <v>223.8636</v>
       </c>
       <c r="G224" t="n">
-        <v>22.83</v>
+        <v>22.95833333333335</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8737,7 +9073,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>24</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8755,19 +9093,19 @@
         <v>22.7</v>
       </c>
       <c r="C225" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="D225" t="n">
         <v>22.7</v>
       </c>
       <c r="E225" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="F225" t="n">
-        <v>28159.9298</v>
+        <v>3275.45</v>
       </c>
       <c r="G225" t="n">
-        <v>22.835</v>
+        <v>22.94333333333335</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8776,7 +9114,9 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>24</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8791,22 +9131,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="C226" t="n">
         <v>22.4</v>
       </c>
       <c r="D226" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="E226" t="n">
         <v>22.4</v>
       </c>
       <c r="F226" t="n">
-        <v>18709.63</v>
+        <v>28159.9298</v>
       </c>
       <c r="G226" t="n">
-        <v>22.82</v>
+        <v>22.92500000000002</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8815,7 +9155,9 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>24</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8833,19 +9175,19 @@
         <v>22.4</v>
       </c>
       <c r="C227" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="D227" t="n">
         <v>22.4</v>
       </c>
       <c r="E227" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="F227" t="n">
-        <v>67711.4148</v>
+        <v>18709.63</v>
       </c>
       <c r="G227" t="n">
-        <v>22.8</v>
+        <v>22.90833333333336</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8854,7 +9196,9 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>24</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8869,22 +9213,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C228" t="n">
         <v>22.3</v>
       </c>
-      <c r="C228" t="n">
-        <v>22.7</v>
-      </c>
       <c r="D228" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="E228" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="F228" t="n">
-        <v>118899.5559</v>
+        <v>67711.4148</v>
       </c>
       <c r="G228" t="n">
-        <v>22.77</v>
+        <v>22.89166666666669</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8893,7 +9237,9 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>24</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8908,22 +9254,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="C229" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="D229" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="E229" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="F229" t="n">
-        <v>4891.9111</v>
+        <v>118899.5559</v>
       </c>
       <c r="G229" t="n">
-        <v>22.76</v>
+        <v>22.87666666666669</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8932,7 +9278,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>24</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8947,22 +9295,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="C230" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="D230" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="E230" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="F230" t="n">
-        <v>368</v>
+        <v>4891.9111</v>
       </c>
       <c r="G230" t="n">
-        <v>22.75</v>
+        <v>22.86000000000002</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8971,7 +9319,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>24</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8986,37 +9336,80 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="C231" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="D231" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="E231" t="n">
         <v>22.4</v>
       </c>
       <c r="F231" t="n">
+        <v>368</v>
+      </c>
+      <c r="G231" t="n">
+        <v>22.84500000000002</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>24</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C232" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D232" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E232" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F232" t="n">
         <v>347</v>
       </c>
-      <c r="G231" t="n">
-        <v>22.735</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+      <c r="G232" t="n">
+        <v>22.82833333333336</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>24</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest CMT.xlsx
+++ b/BackTest/2019-10-29 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M232"/>
+  <dimension ref="A1:N242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>5448</v>
       </c>
       <c r="G2" t="n">
+        <v>20.59333333333335</v>
+      </c>
+      <c r="H2" t="n">
         <v>20.54500000000001</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>11583.0395</v>
       </c>
       <c r="G3" t="n">
+        <v>20.60666666666668</v>
+      </c>
+      <c r="H3" t="n">
         <v>20.54166666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
+        <v>20.62000000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>20.54166666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>6133.3815</v>
       </c>
       <c r="G5" t="n">
+        <v>20.62666666666668</v>
+      </c>
+      <c r="H5" t="n">
         <v>20.54000000000001</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,25 @@
         <v>17800</v>
       </c>
       <c r="G6" t="n">
+        <v>20.63333333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>20.53833333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,29 @@
         <v>55424.3881</v>
       </c>
       <c r="G7" t="n">
+        <v>20.63333333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>20.535</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +713,29 @@
         <v>193391.7374</v>
       </c>
       <c r="G8" t="n">
+        <v>20.62666666666668</v>
+      </c>
+      <c r="H8" t="n">
         <v>20.53</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +759,25 @@
         <v>8000</v>
       </c>
       <c r="G9" t="n">
+        <v>20.62000000000001</v>
+      </c>
+      <c r="H9" t="n">
         <v>20.525</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +801,29 @@
         <v>1739.9254</v>
       </c>
       <c r="G10" t="n">
+        <v>20.61333333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>20.52</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +847,29 @@
         <v>746.5048</v>
       </c>
       <c r="G11" t="n">
+        <v>20.61333333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>20.51666666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +893,25 @@
         <v>23249.9797</v>
       </c>
       <c r="G12" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="H12" t="n">
         <v>20.51666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L12" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +935,29 @@
         <v>9827.157999999999</v>
       </c>
       <c r="G13" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="H13" t="n">
         <v>20.51333333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L13" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +981,29 @@
         <v>20889.7971</v>
       </c>
       <c r="G14" t="n">
+        <v>20.62666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>20.51333333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1027,29 @@
         <v>13000</v>
       </c>
       <c r="G15" t="n">
+        <v>20.64</v>
+      </c>
+      <c r="H15" t="n">
         <v>20.51666666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L15" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1073,29 @@
         <v>30099.4711</v>
       </c>
       <c r="G16" t="n">
+        <v>20.64666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>20.52</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1119,29 @@
         <v>22690.3195</v>
       </c>
       <c r="G17" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="H17" t="n">
         <v>20.52333333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1165,29 @@
         <v>145277.8672</v>
       </c>
       <c r="G18" t="n">
+        <v>20.68666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>20.53166666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1211,29 @@
         <v>9117.298578199052</v>
       </c>
       <c r="G19" t="n">
+        <v>20.70666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>20.54000000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1257,29 @@
         <v>1505.9244</v>
       </c>
       <c r="G20" t="n">
+        <v>20.71333333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>20.54333333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1303,29 @@
         <v>775.7473</v>
       </c>
       <c r="G21" t="n">
+        <v>20.72666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>20.54833333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L21" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1349,29 @@
         <v>9094.505300000001</v>
       </c>
       <c r="G22" t="n">
+        <v>20.73333333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>20.55166666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L22" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1395,29 @@
         <v>332.37</v>
       </c>
       <c r="G23" t="n">
+        <v>20.75333333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>20.55666666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L23" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1441,29 @@
         <v>22846.1904</v>
       </c>
       <c r="G24" t="n">
+        <v>20.78666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>20.56833333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1487,29 @@
         <v>52000</v>
       </c>
       <c r="G25" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="H25" t="n">
         <v>20.57333333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>21</v>
+      </c>
+      <c r="L25" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1533,29 @@
         <v>2213.4285</v>
       </c>
       <c r="G26" t="n">
+        <v>20.82666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>20.58166666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L26" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1579,29 @@
         <v>1416.4833</v>
       </c>
       <c r="G27" t="n">
+        <v>20.82666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>20.58666666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>21</v>
+      </c>
+      <c r="L27" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1625,29 @@
         <v>2167.518</v>
       </c>
       <c r="G28" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="H28" t="n">
         <v>20.58833333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1671,29 @@
         <v>14026.4712</v>
       </c>
       <c r="G29" t="n">
+        <v>20.82666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>20.59833333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1717,29 @@
         <v>24808.4801</v>
       </c>
       <c r="G30" t="n">
+        <v>20.82666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>20.605</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L30" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1763,29 @@
         <v>48191.3808</v>
       </c>
       <c r="G31" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="H31" t="n">
         <v>20.61333333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L31" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1809,29 @@
         <v>10889.5128</v>
       </c>
       <c r="G32" t="n">
+        <v>20.81333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>20.61833333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L32" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1855,29 @@
         <v>37301.8682</v>
       </c>
       <c r="G33" t="n">
+        <v>20.78666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>20.62333333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L33" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1901,29 @@
         <v>64600</v>
       </c>
       <c r="G34" t="n">
+        <v>20.75999999999999</v>
+      </c>
+      <c r="H34" t="n">
         <v>20.625</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L34" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1947,29 @@
         <v>42700</v>
       </c>
       <c r="G35" t="n">
+        <v>20.75333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>20.63</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L35" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1993,29 @@
         <v>68400</v>
       </c>
       <c r="G36" t="n">
+        <v>20.74666666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>20.635</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L36" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +2039,29 @@
         <v>2655.8235</v>
       </c>
       <c r="G37" t="n">
+        <v>20.74666666666666</v>
+      </c>
+      <c r="H37" t="n">
         <v>20.64166666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L37" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2085,29 @@
         <v>22494.3302</v>
       </c>
       <c r="G38" t="n">
+        <v>20.73999999999999</v>
+      </c>
+      <c r="H38" t="n">
         <v>20.64833333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L38" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2131,29 @@
         <v>2555.0577</v>
       </c>
       <c r="G39" t="n">
+        <v>20.71999999999999</v>
+      </c>
+      <c r="H39" t="n">
         <v>20.65166666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L39" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2177,29 @@
         <v>26188</v>
       </c>
       <c r="G40" t="n">
+        <v>20.71999999999999</v>
+      </c>
+      <c r="H40" t="n">
         <v>20.65666666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L40" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2223,29 @@
         <v>37600</v>
       </c>
       <c r="G41" t="n">
+        <v>20.69999999999999</v>
+      </c>
+      <c r="H41" t="n">
         <v>20.66166666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L41" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2269,29 @@
         <v>27149.4951</v>
       </c>
       <c r="G42" t="n">
+        <v>20.70666666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>20.66833333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L42" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2315,29 @@
         <v>26322.166</v>
       </c>
       <c r="G43" t="n">
+        <v>20.72666666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>20.675</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L43" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2361,29 @@
         <v>3548.8717</v>
       </c>
       <c r="G44" t="n">
+        <v>20.72666666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>20.68166666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L44" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2407,29 @@
         <v>282505.7512</v>
       </c>
       <c r="G45" t="n">
+        <v>20.84666666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>20.71833333333332</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L45" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2453,27 @@
         <v>66454.67200000001</v>
       </c>
       <c r="G46" t="n">
+        <v>20.99333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>20.75999999999999</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2497,27 @@
         <v>121024.3884</v>
       </c>
       <c r="G47" t="n">
+        <v>21.15333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>20.80499999999999</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2541,27 @@
         <v>77257.13989999999</v>
       </c>
       <c r="G48" t="n">
+        <v>21.31333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>20.84833333333332</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2585,27 @@
         <v>150628.4872</v>
       </c>
       <c r="G49" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="H49" t="n">
         <v>20.89166666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2629,27 @@
         <v>129871.8788</v>
       </c>
       <c r="G50" t="n">
+        <v>21.68666666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>20.94499999999999</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2673,27 @@
         <v>555628.1006868853</v>
       </c>
       <c r="G51" t="n">
+        <v>21.92666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>21.00833333333332</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2717,27 @@
         <v>136801.5864</v>
       </c>
       <c r="G52" t="n">
+        <v>22.12666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>21.05999999999999</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2761,27 @@
         <v>37086.99886</v>
       </c>
       <c r="G53" t="n">
+        <v>22.32666666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>21.11166666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2805,27 @@
         <v>78671.20600000001</v>
       </c>
       <c r="G54" t="n">
+        <v>22.50666666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>21.15833333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2849,27 @@
         <v>177787.2675</v>
       </c>
       <c r="G55" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="H55" t="n">
         <v>21.21333333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2893,27 @@
         <v>81589.90664</v>
       </c>
       <c r="G56" t="n">
+        <v>22.93333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>21.26833333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2937,27 @@
         <v>14841.9584</v>
       </c>
       <c r="G57" t="n">
+        <v>23.15333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>21.32666666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2981,27 @@
         <v>441071.5485258065</v>
       </c>
       <c r="G58" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="H58" t="n">
         <v>21.39666666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +3025,27 @@
         <v>1030830.556474194</v>
       </c>
       <c r="G59" t="n">
+        <v>23.70666666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>21.47166666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +3069,27 @@
         <v>413339.5545612403</v>
       </c>
       <c r="G60" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="H60" t="n">
         <v>21.55833333333334</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +3113,27 @@
         <v>266341.5015093024</v>
       </c>
       <c r="G61" t="n">
+        <v>24.11333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>21.64333333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +3157,27 @@
         <v>563130.5223</v>
       </c>
       <c r="G62" t="n">
+        <v>24.24666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>21.71833333333334</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3201,27 @@
         <v>337308.614</v>
       </c>
       <c r="G63" t="n">
+        <v>24.43333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>21.805</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3245,27 @@
         <v>539126.325450566</v>
       </c>
       <c r="G64" t="n">
+        <v>24.63333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>21.895</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3289,27 @@
         <v>291820.7001</v>
       </c>
       <c r="G65" t="n">
+        <v>24.75999999999999</v>
+      </c>
+      <c r="H65" t="n">
         <v>21.97833333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3333,27 @@
         <v>121789.6239</v>
       </c>
       <c r="G66" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="H66" t="n">
         <v>22.065</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3377,27 @@
         <v>468311.1692921849</v>
       </c>
       <c r="G67" t="n">
+        <v>25.07333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>22.17000000000001</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3421,27 @@
         <v>124842.5788</v>
       </c>
       <c r="G68" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="H68" t="n">
         <v>22.25500000000001</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3465,27 @@
         <v>480625.852</v>
       </c>
       <c r="G69" t="n">
+        <v>25.32</v>
+      </c>
+      <c r="H69" t="n">
         <v>22.33333333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3509,27 @@
         <v>338987.6976</v>
       </c>
       <c r="G70" t="n">
+        <v>25.44666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>22.42166666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,19 +3553,28 @@
         <v>414751.6175</v>
       </c>
       <c r="G71" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="H71" t="n">
         <v>22.49500000000001</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
+      <c r="L71" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>1.208592233009709</v>
       </c>
     </row>
     <row r="72">
@@ -2898,18 +3597,21 @@
         <v>124074.4352</v>
       </c>
       <c r="G72" t="n">
+        <v>25.57333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>22.56500000000001</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3635,21 @@
         <v>93937.60249999999</v>
       </c>
       <c r="G73" t="n">
+        <v>25.56666666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>22.63333333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3673,21 @@
         <v>84553.10249999999</v>
       </c>
       <c r="G74" t="n">
+        <v>25.55333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>22.70333333333334</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3711,21 @@
         <v>327701.522488417</v>
       </c>
       <c r="G75" t="n">
+        <v>25.52666666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>22.78000000000002</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3749,21 @@
         <v>95153.1811</v>
       </c>
       <c r="G76" t="n">
+        <v>25.45333333333332</v>
+      </c>
+      <c r="H76" t="n">
         <v>22.84500000000002</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3787,21 @@
         <v>111904.3815612903</v>
       </c>
       <c r="G77" t="n">
+        <v>25.37999999999999</v>
+      </c>
+      <c r="H77" t="n">
         <v>22.89833333333335</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3825,21 @@
         <v>376662.762</v>
       </c>
       <c r="G78" t="n">
+        <v>25.25333333333332</v>
+      </c>
+      <c r="H78" t="n">
         <v>22.94666666666668</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3863,21 @@
         <v>822542.7769000001</v>
       </c>
       <c r="G79" t="n">
+        <v>25.06666666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>22.98500000000002</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3901,21 @@
         <v>121591.2063</v>
       </c>
       <c r="G80" t="n">
+        <v>24.95333333333332</v>
+      </c>
+      <c r="H80" t="n">
         <v>23.03833333333336</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3939,21 @@
         <v>125039.3333</v>
       </c>
       <c r="G81" t="n">
+        <v>24.84666666666665</v>
+      </c>
+      <c r="H81" t="n">
         <v>23.09500000000002</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3977,21 @@
         <v>389395.9175</v>
       </c>
       <c r="G82" t="n">
+        <v>24.65333333333332</v>
+      </c>
+      <c r="H82" t="n">
         <v>23.15000000000002</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,22 +4015,21 @@
         <v>114884.1658</v>
       </c>
       <c r="G83" t="n">
+        <v>24.54666666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>23.20333333333336</v>
       </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>24</v>
-      </c>
-      <c r="K83" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3322,24 +4053,21 @@
         <v>109989.4072</v>
       </c>
       <c r="G84" t="n">
+        <v>24.45333333333332</v>
+      </c>
+      <c r="H84" t="n">
         <v>23.25000000000002</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>24</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3363,26 +4091,21 @@
         <v>131738.8533</v>
       </c>
       <c r="G85" t="n">
+        <v>24.34666666666665</v>
+      </c>
+      <c r="H85" t="n">
         <v>23.30833333333335</v>
       </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K85" t="n">
-        <v>24</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,24 +4129,21 @@
         <v>71537.1162</v>
       </c>
       <c r="G86" t="n">
+        <v>24.29999999999999</v>
+      </c>
+      <c r="H86" t="n">
         <v>23.36333333333335</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>24</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3447,24 +4167,21 @@
         <v>3793.4441</v>
       </c>
       <c r="G87" t="n">
+        <v>24.25999999999999</v>
+      </c>
+      <c r="H87" t="n">
         <v>23.42333333333335</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>24</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3488,24 +4205,21 @@
         <v>120926.5372666667</v>
       </c>
       <c r="G88" t="n">
+        <v>24.25333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>23.49166666666668</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>24</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3529,24 +4243,21 @@
         <v>74550.82429999999</v>
       </c>
       <c r="G89" t="n">
+        <v>24.21333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>23.55000000000002</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>24</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3570,24 +4281,21 @@
         <v>426263.9918</v>
       </c>
       <c r="G90" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="H90" t="n">
         <v>23.60833333333335</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>24</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3611,24 +4319,21 @@
         <v>1046.5791</v>
       </c>
       <c r="G91" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="H91" t="n">
         <v>23.66500000000002</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>24</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3652,24 +4357,21 @@
         <v>5277.0863</v>
       </c>
       <c r="G92" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="H92" t="n">
         <v>23.72000000000002</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>24</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3693,24 +4395,21 @@
         <v>683.9251</v>
       </c>
       <c r="G93" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="H93" t="n">
         <v>23.77500000000002</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>24</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3734,24 +4433,21 @@
         <v>110122.8146</v>
       </c>
       <c r="G94" t="n">
+        <v>24.13333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>23.82833333333335</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>24</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3775,24 +4471,21 @@
         <v>75305.3998</v>
       </c>
       <c r="G95" t="n">
+        <v>24.10666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>23.87666666666668</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>24</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3816,24 +4509,21 @@
         <v>321885.341</v>
       </c>
       <c r="G96" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="H96" t="n">
         <v>23.92333333333335</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>24</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3857,24 +4547,21 @@
         <v>26688.7575</v>
       </c>
       <c r="G97" t="n">
+        <v>24.02666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>23.97000000000001</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>24</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,24 +4585,21 @@
         <v>2297.4241</v>
       </c>
       <c r="G98" t="n">
+        <v>23.99333333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>24.01666666666668</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>24</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3939,24 +4623,21 @@
         <v>36122.6958</v>
       </c>
       <c r="G99" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="H99" t="n">
         <v>24.06000000000001</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>24</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3980,24 +4661,21 @@
         <v>59311.4239</v>
       </c>
       <c r="G100" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="H100" t="n">
         <v>24.10333333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>24</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4021,24 +4699,21 @@
         <v>248620.7706</v>
       </c>
       <c r="G101" t="n">
+        <v>23.83333333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>24.14666666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>24</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4062,24 +4737,21 @@
         <v>996.1224999999999</v>
       </c>
       <c r="G102" t="n">
+        <v>23.76666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>24.18833333333334</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>24</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4103,24 +4775,21 @@
         <v>10880.1195</v>
       </c>
       <c r="G103" t="n">
+        <v>23.69333333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>24.23333333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>24</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4144,24 +4813,21 @@
         <v>6314.573951260504</v>
       </c>
       <c r="G104" t="n">
+        <v>23.63333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>24.27666666666668</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>24</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4185,24 +4851,21 @@
         <v>15616.0867</v>
       </c>
       <c r="G105" t="n">
+        <v>23.59333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>24.29500000000001</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>24</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4226,24 +4889,21 @@
         <v>16099.4294</v>
       </c>
       <c r="G106" t="n">
+        <v>23.56</v>
+      </c>
+      <c r="H106" t="n">
         <v>24.30666666666668</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>24</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4267,24 +4927,21 @@
         <v>63739.7489</v>
       </c>
       <c r="G107" t="n">
+        <v>23.55333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>24.32000000000001</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>24</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4308,24 +4965,21 @@
         <v>42011.8606</v>
       </c>
       <c r="G108" t="n">
+        <v>23.53333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>24.33000000000002</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>24</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,24 +5003,21 @@
         <v>8261.018400000001</v>
       </c>
       <c r="G109" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="H109" t="n">
         <v>24.33833333333335</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>24</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,24 +5041,21 @@
         <v>17584.2659</v>
       </c>
       <c r="G110" t="n">
+        <v>23.50666666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>24.33166666666668</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>24</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4431,24 +5079,21 @@
         <v>88596.1385</v>
       </c>
       <c r="G111" t="n">
+        <v>23.48666666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>24.31333333333335</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>24</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4472,24 +5117,21 @@
         <v>9908.9998</v>
       </c>
       <c r="G112" t="n">
+        <v>23.49999999999999</v>
+      </c>
+      <c r="H112" t="n">
         <v>24.31333333333335</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>24</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4513,24 +5155,21 @@
         <v>717.6894</v>
       </c>
       <c r="G113" t="n">
+        <v>23.48666666666666</v>
+      </c>
+      <c r="H113" t="n">
         <v>24.30666666666668</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>24</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4554,24 +5193,21 @@
         <v>13000</v>
       </c>
       <c r="G114" t="n">
+        <v>23.47333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>24.30166666666668</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>24</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4595,24 +5231,21 @@
         <v>188880.4364</v>
       </c>
       <c r="G115" t="n">
+        <v>23.47333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>24.29166666666668</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>24</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4636,24 +5269,21 @@
         <v>29065.155</v>
       </c>
       <c r="G116" t="n">
+        <v>23.45999999999999</v>
+      </c>
+      <c r="H116" t="n">
         <v>24.27833333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>24</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4677,24 +5307,21 @@
         <v>19388.3897</v>
       </c>
       <c r="G117" t="n">
+        <v>23.44666666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>24.26166666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>24</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,24 +5345,21 @@
         <v>16888.0444</v>
       </c>
       <c r="G118" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="H118" t="n">
         <v>24.23333333333334</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>24</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4759,24 +5383,21 @@
         <v>107916.858</v>
       </c>
       <c r="G119" t="n">
+        <v>23.40666666666666</v>
+      </c>
+      <c r="H119" t="n">
         <v>24.20166666666668</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>24</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4800,24 +5421,21 @@
         <v>55040.3196</v>
       </c>
       <c r="G120" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="H120" t="n">
         <v>24.16000000000001</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>24</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,24 +5459,21 @@
         <v>11017.0158</v>
       </c>
       <c r="G121" t="n">
+        <v>23.35333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>24.11666666666668</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>24</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,24 +5497,21 @@
         <v>320</v>
       </c>
       <c r="G122" t="n">
+        <v>23.31333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>24.08666666666668</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>24</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4923,24 +5535,21 @@
         <v>117260.7325</v>
       </c>
       <c r="G123" t="n">
+        <v>23.30666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>24.04833333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>24</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4964,24 +5573,21 @@
         <v>20221.5359</v>
       </c>
       <c r="G124" t="n">
+        <v>23.31333333333334</v>
+      </c>
+      <c r="H124" t="n">
         <v>24.00833333333334</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>24</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5005,24 +5611,21 @@
         <v>33684.0268</v>
       </c>
       <c r="G125" t="n">
+        <v>23.35333333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>23.98000000000001</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>24</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5046,24 +5649,21 @@
         <v>32031.9893</v>
       </c>
       <c r="G126" t="n">
+        <v>23.39333333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>23.94666666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>24</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5087,24 +5687,21 @@
         <v>42000</v>
       </c>
       <c r="G127" t="n">
+        <v>23.40666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>23.89666666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>24</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5128,24 +5725,21 @@
         <v>4000</v>
       </c>
       <c r="G128" t="n">
+        <v>23.49333333333334</v>
+      </c>
+      <c r="H128" t="n">
         <v>23.88000000000001</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>24</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5169,24 +5763,21 @@
         <v>94683.0148</v>
       </c>
       <c r="G129" t="n">
+        <v>23.55333333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>23.86000000000001</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>24</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5210,24 +5801,21 @@
         <v>2700.8254</v>
       </c>
       <c r="G130" t="n">
+        <v>23.62</v>
+      </c>
+      <c r="H130" t="n">
         <v>23.835</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>24</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5251,24 +5839,21 @@
         <v>158254.6678</v>
       </c>
       <c r="G131" t="n">
+        <v>23.68666666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>23.82</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>24</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5292,24 +5877,21 @@
         <v>9372</v>
       </c>
       <c r="G132" t="n">
+        <v>23.72000000000001</v>
+      </c>
+      <c r="H132" t="n">
         <v>23.79833333333334</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>24</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5333,24 +5915,21 @@
         <v>56420.1659</v>
       </c>
       <c r="G133" t="n">
+        <v>23.78666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>23.78833333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>24</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5374,24 +5953,21 @@
         <v>268947.0356</v>
       </c>
       <c r="G134" t="n">
+        <v>23.86666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>23.78</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>24</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5415,24 +5991,21 @@
         <v>57404.6055</v>
       </c>
       <c r="G135" t="n">
+        <v>23.90666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>23.755</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>24</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5456,24 +6029,21 @@
         <v>34261.7762</v>
       </c>
       <c r="G136" t="n">
+        <v>23.93333333333334</v>
+      </c>
+      <c r="H136" t="n">
         <v>23.73666666666666</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>24</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,24 +6067,21 @@
         <v>610132.8945000001</v>
       </c>
       <c r="G137" t="n">
+        <v>24.00666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>23.74333333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>24</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5538,24 +6105,21 @@
         <v>26255.0497</v>
       </c>
       <c r="G138" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="H138" t="n">
         <v>23.745</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>24</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5579,24 +6143,21 @@
         <v>95637.29180000001</v>
       </c>
       <c r="G139" t="n">
+        <v>24.06666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>23.75833333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>24</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5620,24 +6181,21 @@
         <v>31672.1519</v>
       </c>
       <c r="G140" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="H140" t="n">
         <v>23.75666666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>24</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5661,24 +6219,21 @@
         <v>155077.8519</v>
       </c>
       <c r="G141" t="n">
+        <v>24.07333333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>23.75333333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>24</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5702,24 +6257,21 @@
         <v>2178.6</v>
       </c>
       <c r="G142" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="H142" t="n">
         <v>23.75333333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>24</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5743,24 +6295,21 @@
         <v>65365.0024</v>
       </c>
       <c r="G143" t="n">
+        <v>24.01333333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>23.74666666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>24</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5784,24 +6333,21 @@
         <v>183237.1508</v>
       </c>
       <c r="G144" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="H144" t="n">
         <v>23.74166666666666</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>24</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5825,24 +6371,21 @@
         <v>113834.9166</v>
       </c>
       <c r="G145" t="n">
+        <v>23.93333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>23.73166666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>24</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5866,24 +6409,21 @@
         <v>49975.9178</v>
       </c>
       <c r="G146" t="n">
+        <v>23.89333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>23.71833333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>24</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5907,24 +6447,21 @@
         <v>59020.9602825</v>
       </c>
       <c r="G147" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="H147" t="n">
         <v>23.71333333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>24</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5948,24 +6485,21 @@
         <v>5527.4875</v>
       </c>
       <c r="G148" t="n">
+        <v>23.89333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>23.69833333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>24</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5989,24 +6523,21 @@
         <v>13000</v>
       </c>
       <c r="G149" t="n">
+        <v>23.84666666666666</v>
+      </c>
+      <c r="H149" t="n">
         <v>23.68833333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>24</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6030,24 +6561,21 @@
         <v>757.0647</v>
       </c>
       <c r="G150" t="n">
+        <v>23.83333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>23.67833333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>24</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6071,24 +6599,21 @@
         <v>1765</v>
       </c>
       <c r="G151" t="n">
+        <v>23.83999999999999</v>
+      </c>
+      <c r="H151" t="n">
         <v>23.67166666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>24</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6112,24 +6637,21 @@
         <v>82829.2203</v>
       </c>
       <c r="G152" t="n">
+        <v>23.79333333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>23.66666666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>24</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,24 +6675,21 @@
         <v>10649.0961</v>
       </c>
       <c r="G153" t="n">
+        <v>23.75333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>23.65833333333334</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>24</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6194,24 +6713,21 @@
         <v>115942.1883</v>
       </c>
       <c r="G154" t="n">
+        <v>23.69999999999999</v>
+      </c>
+      <c r="H154" t="n">
         <v>23.65</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>24</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6235,24 +6751,21 @@
         <v>11</v>
       </c>
       <c r="G155" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="H155" t="n">
         <v>23.65</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>24</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6276,24 +6789,21 @@
         <v>55570.0533</v>
       </c>
       <c r="G156" t="n">
+        <v>23.65333333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>23.65166666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>24</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6317,24 +6827,21 @@
         <v>26033</v>
       </c>
       <c r="G157" t="n">
+        <v>23.62</v>
+      </c>
+      <c r="H157" t="n">
         <v>23.65166666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>24</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6358,24 +6865,21 @@
         <v>26669.2501</v>
       </c>
       <c r="G158" t="n">
+        <v>23.61333333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>23.65166666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>24</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6399,24 +6903,21 @@
         <v>65989.47629999999</v>
       </c>
       <c r="G159" t="n">
+        <v>23.62666666666666</v>
+      </c>
+      <c r="H159" t="n">
         <v>23.65833333333334</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>24</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6440,24 +6941,21 @@
         <v>34837.3682</v>
       </c>
       <c r="G160" t="n">
+        <v>23.63333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>23.66500000000001</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>24</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6481,24 +6979,21 @@
         <v>255996.9438</v>
       </c>
       <c r="G161" t="n">
+        <v>23.63999999999999</v>
+      </c>
+      <c r="H161" t="n">
         <v>23.67000000000001</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>24</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6522,24 +7017,21 @@
         <v>262705.8269</v>
       </c>
       <c r="G162" t="n">
+        <v>23.63333333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>23.68000000000001</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>24</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6563,24 +7055,21 @@
         <v>941.4225</v>
       </c>
       <c r="G163" t="n">
+        <v>23.64666666666666</v>
+      </c>
+      <c r="H163" t="n">
         <v>23.68666666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>24</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6604,24 +7093,21 @@
         <v>709.0336</v>
       </c>
       <c r="G164" t="n">
+        <v>23.65333333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>23.69333333333334</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>24</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6645,24 +7131,21 @@
         <v>706.4417999999999</v>
       </c>
       <c r="G165" t="n">
+        <v>23.64666666666666</v>
+      </c>
+      <c r="H165" t="n">
         <v>23.69166666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>24</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6686,24 +7169,21 @@
         <v>2412</v>
       </c>
       <c r="G166" t="n">
+        <v>23.63333333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>23.69</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>24</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6727,24 +7207,21 @@
         <v>70026.3345</v>
       </c>
       <c r="G167" t="n">
+        <v>23.61333333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>23.68166666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>24</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6768,24 +7245,21 @@
         <v>14256.1541</v>
       </c>
       <c r="G168" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="H168" t="n">
         <v>23.675</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>24</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6809,24 +7283,21 @@
         <v>179.1906</v>
       </c>
       <c r="G169" t="n">
+        <v>23.61333333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>23.67333333333334</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>24</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6850,24 +7321,21 @@
         <v>638.2978000000001</v>
       </c>
       <c r="G170" t="n">
+        <v>23.60666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>23.675</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>24</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6891,24 +7359,21 @@
         <v>35738.1425</v>
       </c>
       <c r="G171" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="H171" t="n">
         <v>23.68</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>24</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6932,24 +7397,21 @@
         <v>45833.06942832618</v>
       </c>
       <c r="G172" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="H172" t="n">
         <v>23.67666666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>24</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6973,24 +7435,21 @@
         <v>41291.0252</v>
       </c>
       <c r="G173" t="n">
+        <v>23.57333333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>23.67333333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>24</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7014,24 +7473,21 @@
         <v>340500.6544</v>
       </c>
       <c r="G174" t="n">
+        <v>23.56</v>
+      </c>
+      <c r="H174" t="n">
         <v>23.68</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>24</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7055,24 +7511,21 @@
         <v>49999.1056</v>
       </c>
       <c r="G175" t="n">
+        <v>23.55333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>23.685</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>24</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7096,24 +7549,21 @@
         <v>727</v>
       </c>
       <c r="G176" t="n">
+        <v>23.53333333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>23.68833333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>24</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7137,24 +7587,21 @@
         <v>16715.9998</v>
       </c>
       <c r="G177" t="n">
+        <v>23.48666666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>23.69</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>24</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7178,24 +7625,21 @@
         <v>10245.4065</v>
       </c>
       <c r="G178" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="H178" t="n">
         <v>23.68666666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>24</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7219,24 +7663,21 @@
         <v>224.8996</v>
       </c>
       <c r="G179" t="n">
+        <v>23.36666666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>23.68333333333334</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>24</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7260,24 +7701,21 @@
         <v>135.8798</v>
       </c>
       <c r="G180" t="n">
+        <v>23.32666666666666</v>
+      </c>
+      <c r="H180" t="n">
         <v>23.67833333333334</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>24</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7301,24 +7739,21 @@
         <v>90464.37119999999</v>
       </c>
       <c r="G181" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="H181" t="n">
         <v>23.68166666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>24</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7342,24 +7777,21 @@
         <v>583</v>
       </c>
       <c r="G182" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="H182" t="n">
         <v>23.68333333333334</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>24</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7383,24 +7815,21 @@
         <v>342919.572</v>
       </c>
       <c r="G183" t="n">
+        <v>23.28666666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>23.67000000000001</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>24</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7424,24 +7853,21 @@
         <v>32911.249</v>
       </c>
       <c r="G184" t="n">
+        <v>23.25999999999999</v>
+      </c>
+      <c r="H184" t="n">
         <v>23.66000000000001</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>24</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7465,24 +7891,21 @@
         <v>44396.9777</v>
       </c>
       <c r="G185" t="n">
+        <v>23.22666666666666</v>
+      </c>
+      <c r="H185" t="n">
         <v>23.64333333333334</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>24</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7506,24 +7929,21 @@
         <v>81428.92</v>
       </c>
       <c r="G186" t="n">
+        <v>23.17333333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>23.62500000000001</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>24</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7547,24 +7967,21 @@
         <v>39309.9465</v>
       </c>
       <c r="G187" t="n">
+        <v>23.10666666666666</v>
+      </c>
+      <c r="H187" t="n">
         <v>23.60166666666668</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>24</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,24 +8005,21 @@
         <v>42377.3247</v>
       </c>
       <c r="G188" t="n">
+        <v>23.05999999999999</v>
+      </c>
+      <c r="H188" t="n">
         <v>23.56500000000001</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>24</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7629,24 +8043,21 @@
         <v>17977.7874</v>
       </c>
       <c r="G189" t="n">
+        <v>23.00666666666666</v>
+      </c>
+      <c r="H189" t="n">
         <v>23.54333333333335</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>24</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7670,24 +8081,21 @@
         <v>107465.6158</v>
       </c>
       <c r="G190" t="n">
+        <v>22.93999999999999</v>
+      </c>
+      <c r="H190" t="n">
         <v>23.51500000000001</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>24</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7711,24 +8119,21 @@
         <v>22200</v>
       </c>
       <c r="G191" t="n">
+        <v>22.89999999999999</v>
+      </c>
+      <c r="H191" t="n">
         <v>23.49166666666668</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>24</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7752,24 +8157,21 @@
         <v>14600</v>
       </c>
       <c r="G192" t="n">
+        <v>22.86666666666666</v>
+      </c>
+      <c r="H192" t="n">
         <v>23.47666666666668</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>24</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7793,24 +8195,21 @@
         <v>1454.9781</v>
       </c>
       <c r="G193" t="n">
+        <v>22.86666666666666</v>
+      </c>
+      <c r="H193" t="n">
         <v>23.45666666666669</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>24</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7834,24 +8233,21 @@
         <v>26600</v>
       </c>
       <c r="G194" t="n">
+        <v>22.85333333333332</v>
+      </c>
+      <c r="H194" t="n">
         <v>23.43000000000002</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>24</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7875,24 +8271,21 @@
         <v>11409.8888</v>
       </c>
       <c r="G195" t="n">
+        <v>22.82666666666666</v>
+      </c>
+      <c r="H195" t="n">
         <v>23.40833333333335</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>24</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7916,24 +8309,21 @@
         <v>41475</v>
       </c>
       <c r="G196" t="n">
+        <v>22.78666666666666</v>
+      </c>
+      <c r="H196" t="n">
         <v>23.39500000000002</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>24</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7957,24 +8347,21 @@
         <v>51362.7217</v>
       </c>
       <c r="G197" t="n">
+        <v>22.71999999999999</v>
+      </c>
+      <c r="H197" t="n">
         <v>23.36166666666668</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>24</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7998,24 +8385,21 @@
         <v>1419.6632</v>
       </c>
       <c r="G198" t="n">
+        <v>22.70666666666666</v>
+      </c>
+      <c r="H198" t="n">
         <v>23.33666666666668</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>24</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8039,24 +8423,21 @@
         <v>526341.927</v>
       </c>
       <c r="G199" t="n">
+        <v>22.67333333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>23.31166666666668</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>24</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8080,24 +8461,21 @@
         <v>4667.7276</v>
       </c>
       <c r="G200" t="n">
+        <v>22.63333333333333</v>
+      </c>
+      <c r="H200" t="n">
         <v>23.28666666666668</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>24</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8121,24 +8499,21 @@
         <v>21.8519</v>
       </c>
       <c r="G201" t="n">
+        <v>22.61999999999999</v>
+      </c>
+      <c r="H201" t="n">
         <v>23.26166666666668</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>24</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8162,24 +8537,21 @@
         <v>228156.0866</v>
       </c>
       <c r="G202" t="n">
+        <v>22.63333333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>23.24000000000002</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>24</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8203,24 +8575,21 @@
         <v>50800</v>
       </c>
       <c r="G203" t="n">
+        <v>22.65333333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>23.22500000000002</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>24</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8244,24 +8613,21 @@
         <v>48066.5198</v>
       </c>
       <c r="G204" t="n">
+        <v>22.65333333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>23.21166666666669</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>24</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8285,24 +8651,21 @@
         <v>309468.4022</v>
       </c>
       <c r="G205" t="n">
+        <v>22.65333333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>23.19500000000002</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>24</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8326,24 +8689,21 @@
         <v>892.8787</v>
       </c>
       <c r="G206" t="n">
+        <v>22.65999999999999</v>
+      </c>
+      <c r="H206" t="n">
         <v>23.18333333333335</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>24</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8367,24 +8727,21 @@
         <v>198.4127</v>
       </c>
       <c r="G207" t="n">
+        <v>22.65999999999999</v>
+      </c>
+      <c r="H207" t="n">
         <v>23.16166666666669</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>24</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8408,24 +8765,21 @@
         <v>11</v>
       </c>
       <c r="G208" t="n">
+        <v>22.65333333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>23.14666666666669</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>24</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8449,24 +8803,21 @@
         <v>756.8988000000001</v>
       </c>
       <c r="G209" t="n">
+        <v>22.64666666666666</v>
+      </c>
+      <c r="H209" t="n">
         <v>23.13000000000002</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>24</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8490,24 +8841,21 @@
         <v>430</v>
       </c>
       <c r="G210" t="n">
+        <v>22.65999999999999</v>
+      </c>
+      <c r="H210" t="n">
         <v>23.11500000000002</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>24</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8531,24 +8879,21 @@
         <v>50525.2017</v>
       </c>
       <c r="G211" t="n">
+        <v>22.67333333333333</v>
+      </c>
+      <c r="H211" t="n">
         <v>23.10333333333335</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>24</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8572,24 +8917,21 @@
         <v>57781.9898</v>
       </c>
       <c r="G212" t="n">
+        <v>22.73999999999999</v>
+      </c>
+      <c r="H212" t="n">
         <v>23.09833333333335</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>24</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8613,24 +8955,21 @@
         <v>25542.9472</v>
       </c>
       <c r="G213" t="n">
+        <v>22.77999999999999</v>
+      </c>
+      <c r="H213" t="n">
         <v>23.09333333333335</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>24</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8654,24 +8993,21 @@
         <v>308</v>
       </c>
       <c r="G214" t="n">
+        <v>22.81999999999999</v>
+      </c>
+      <c r="H214" t="n">
         <v>23.09166666666668</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>24</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8695,24 +9031,21 @@
         <v>8861.0434</v>
       </c>
       <c r="G215" t="n">
+        <v>22.85333333333333</v>
+      </c>
+      <c r="H215" t="n">
         <v>23.08000000000002</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>24</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8736,24 +9069,21 @@
         <v>4989.6069</v>
       </c>
       <c r="G216" t="n">
+        <v>22.87999999999999</v>
+      </c>
+      <c r="H216" t="n">
         <v>23.06833333333335</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>24</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8777,24 +9107,21 @@
         <v>949.3622</v>
       </c>
       <c r="G217" t="n">
+        <v>22.87333333333333</v>
+      </c>
+      <c r="H217" t="n">
         <v>23.05333333333335</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>24</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8818,24 +9145,21 @@
         <v>1212.3973</v>
       </c>
       <c r="G218" t="n">
+        <v>22.88666666666666</v>
+      </c>
+      <c r="H218" t="n">
         <v>23.04333333333335</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>24</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8859,24 +9183,21 @@
         <v>17284.9737</v>
       </c>
       <c r="G219" t="n">
+        <v>22.91999999999999</v>
+      </c>
+      <c r="H219" t="n">
         <v>23.03500000000002</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>24</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8900,24 +9221,21 @@
         <v>210633.5856</v>
       </c>
       <c r="G220" t="n">
+        <v>22.91999999999999</v>
+      </c>
+      <c r="H220" t="n">
         <v>23.01666666666669</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>24</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8941,24 +9259,21 @@
         <v>171</v>
       </c>
       <c r="G221" t="n">
+        <v>22.93333333333333</v>
+      </c>
+      <c r="H221" t="n">
         <v>23.00666666666669</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>24</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8982,24 +9297,21 @@
         <v>17147.0538</v>
       </c>
       <c r="G222" t="n">
+        <v>22.97333333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>22.99666666666668</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>24</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9023,24 +9335,21 @@
         <v>4414.5121</v>
       </c>
       <c r="G223" t="n">
+        <v>22.96666666666666</v>
+      </c>
+      <c r="H223" t="n">
         <v>22.97666666666668</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>24</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9064,24 +9373,21 @@
         <v>223.8636</v>
       </c>
       <c r="G224" t="n">
+        <v>22.96666666666666</v>
+      </c>
+      <c r="H224" t="n">
         <v>22.95833333333335</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>24</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9105,24 +9411,21 @@
         <v>3275.45</v>
       </c>
       <c r="G225" t="n">
+        <v>22.95999999999999</v>
+      </c>
+      <c r="H225" t="n">
         <v>22.94333333333335</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>24</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9146,24 +9449,21 @@
         <v>28159.9298</v>
       </c>
       <c r="G226" t="n">
+        <v>22.91999999999999</v>
+      </c>
+      <c r="H226" t="n">
         <v>22.92500000000002</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>24</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9187,24 +9487,21 @@
         <v>18709.63</v>
       </c>
       <c r="G227" t="n">
+        <v>22.85333333333332</v>
+      </c>
+      <c r="H227" t="n">
         <v>22.90833333333336</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>24</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9228,24 +9525,21 @@
         <v>67711.4148</v>
       </c>
       <c r="G228" t="n">
+        <v>22.79333333333333</v>
+      </c>
+      <c r="H228" t="n">
         <v>22.89166666666669</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>24</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9269,24 +9563,21 @@
         <v>118899.5559</v>
       </c>
       <c r="G229" t="n">
+        <v>22.75333333333332</v>
+      </c>
+      <c r="H229" t="n">
         <v>22.87666666666669</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>24</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9310,24 +9601,21 @@
         <v>4891.9111</v>
       </c>
       <c r="G230" t="n">
+        <v>22.72666666666666</v>
+      </c>
+      <c r="H230" t="n">
         <v>22.86000000000002</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>24</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9351,24 +9639,21 @@
         <v>368</v>
       </c>
       <c r="G231" t="n">
+        <v>22.70666666666666</v>
+      </c>
+      <c r="H231" t="n">
         <v>22.84500000000002</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>24</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9392,24 +9677,401 @@
         <v>347</v>
       </c>
       <c r="G232" t="n">
+        <v>22.69999999999999</v>
+      </c>
+      <c r="H232" t="n">
         <v>22.82833333333336</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>24</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="C233" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D233" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E233" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="F233" t="n">
+        <v>48813.3535</v>
+      </c>
+      <c r="G233" t="n">
+        <v>22.67333333333333</v>
+      </c>
+      <c r="H233" t="n">
+        <v>22.81833333333336</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C234" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D234" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="E234" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G234" t="n">
+        <v>22.61999999999999</v>
+      </c>
+      <c r="H234" t="n">
+        <v>22.80000000000003</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C235" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D235" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E235" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1459</v>
+      </c>
+      <c r="G235" t="n">
+        <v>22.61333333333333</v>
+      </c>
+      <c r="H235" t="n">
+        <v>22.78166666666669</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="C236" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="D236" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="E236" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="F236" t="n">
+        <v>6973.0668</v>
+      </c>
+      <c r="G236" t="n">
+        <v>22.56666666666666</v>
+      </c>
+      <c r="H236" t="n">
+        <v>22.76500000000003</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="C237" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D237" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E237" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="F237" t="n">
+        <v>12041.7423</v>
+      </c>
+      <c r="G237" t="n">
+        <v>22.51333333333332</v>
+      </c>
+      <c r="H237" t="n">
+        <v>22.75333333333336</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="C238" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D238" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="E238" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F238" t="n">
+        <v>45247.9071</v>
+      </c>
+      <c r="G238" t="n">
+        <v>22.47999999999999</v>
+      </c>
+      <c r="H238" t="n">
+        <v>22.74166666666669</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C239" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D239" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E239" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F239" t="n">
+        <v>426</v>
+      </c>
+      <c r="G239" t="n">
+        <v>22.46666666666666</v>
+      </c>
+      <c r="H239" t="n">
+        <v>22.73333333333336</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C240" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D240" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E240" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F240" t="n">
+        <v>22623.9536</v>
+      </c>
+      <c r="G240" t="n">
+        <v>22.43333333333333</v>
+      </c>
+      <c r="H240" t="n">
+        <v>22.72000000000003</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C241" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D241" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E241" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F241" t="n">
+        <v>340</v>
+      </c>
+      <c r="G241" t="n">
+        <v>22.43999999999999</v>
+      </c>
+      <c r="H241" t="n">
+        <v>22.70500000000003</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C242" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D242" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="E242" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="F242" t="n">
+        <v>33144.8638</v>
+      </c>
+      <c r="G242" t="n">
+        <v>22.43999999999999</v>
+      </c>
+      <c r="H242" t="n">
+        <v>22.68833333333336</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest CMT.xlsx
+++ b/BackTest/2019-10-29 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-512212.8860299701</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -649,10 +649,14 @@
         <v>-548181.4889299702</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>20.8</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -682,11 +686,19 @@
         <v>-548181.4889299702</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +727,19 @@
         <v>-566222.6614299702</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -781,10 +801,14 @@
         <v>-626886.0374299702</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>20.8</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -817,8 +841,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +877,19 @@
         <v>-643118.3452299702</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +918,19 @@
         <v>-643118.3452299702</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +959,19 @@
         <v>-643118.3452299702</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1000,19 @@
         <v>-643118.3452299702</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1041,19 @@
         <v>-643118.3452299702</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1082,19 @@
         <v>-671718.3452299702</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1123,19 @@
         <v>-671718.3452299702</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1164,19 @@
         <v>-671718.3452299702</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1205,19 @@
         <v>-697718.3452299702</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1246,19 @@
         <v>-679768.4273299702</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1287,19 @@
         <v>-653968.4273299702</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1328,19 @@
         <v>-672929.0500299701</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1369,19 @@
         <v>-672929.0500299701</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1410,19 @@
         <v>-735329.0500299701</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,15 +1451,19 @@
         <v>-716728.7559299702</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>20.2</v>
       </c>
       <c r="J28" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,17 +1492,17 @@
         <v>-854069.8506299702</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>20.4</v>
       </c>
       <c r="J29" t="n">
-        <v>20.2</v>
+        <v>20.8</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1387,17 +1533,17 @@
         <v>-841069.8506299702</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>20.2</v>
       </c>
       <c r="J30" t="n">
-        <v>20.2</v>
+        <v>20.8</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1428,15 +1574,19 @@
         <v>-841069.8506299702</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>20.4</v>
       </c>
       <c r="J31" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1465,17 +1615,17 @@
         <v>-818569.8507299701</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>20.4</v>
       </c>
       <c r="J32" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1506,17 +1656,17 @@
         <v>-818664.8507299701</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>20.6</v>
       </c>
       <c r="J33" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1547,15 +1697,19 @@
         <v>-818664.8507299701</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>20.4</v>
       </c>
       <c r="J34" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+        <v>20.8</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1584,17 +1738,17 @@
         <v>-819958.6586299702</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>20.4</v>
       </c>
       <c r="J35" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1625,13 +1779,13 @@
         <v>-819958.6586299702</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>20.3</v>
       </c>
       <c r="J36" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1666,13 +1820,13 @@
         <v>-819482.6999299702</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>20.3</v>
       </c>
       <c r="J37" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1707,13 +1861,13 @@
         <v>-827035.3959299702</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>20.5</v>
       </c>
       <c r="J38" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1748,13 +1902,13 @@
         <v>-827035.3959299702</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>20.4</v>
       </c>
       <c r="J39" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1789,13 +1943,13 @@
         <v>-827035.3959299702</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>20.4</v>
       </c>
       <c r="J40" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1830,13 +1984,13 @@
         <v>-827035.3959299702</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>20.4</v>
       </c>
       <c r="J41" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1871,13 +2025,13 @@
         <v>-827035.3959299702</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>20.4</v>
       </c>
       <c r="J42" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1912,13 +2066,13 @@
         <v>-827035.3959299702</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>20.4</v>
       </c>
       <c r="J43" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1953,13 +2107,13 @@
         <v>-827035.3959299702</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>20.4</v>
       </c>
       <c r="J44" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -1994,13 +2148,13 @@
         <v>-827035.3959299702</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>20.4</v>
       </c>
       <c r="J45" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2035,13 +2189,13 @@
         <v>-809838.3887299702</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>20.4</v>
       </c>
       <c r="J46" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2076,13 +2230,13 @@
         <v>-806107.4680299702</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>20.5</v>
       </c>
       <c r="J47" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2117,13 +2271,13 @@
         <v>-806107.4680299702</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>20.6</v>
       </c>
       <c r="J48" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2158,13 +2312,13 @@
         <v>-829507.4680299702</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>20.6</v>
       </c>
       <c r="J49" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2199,13 +2353,13 @@
         <v>-820507.4680299702</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>20.5</v>
       </c>
       <c r="J50" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2240,13 +2394,13 @@
         <v>-820507.4680299702</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>20.6</v>
       </c>
       <c r="J51" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2281,13 +2435,13 @@
         <v>-820507.4680299702</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>20.6</v>
       </c>
       <c r="J52" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2322,13 +2476,13 @@
         <v>-820507.4680299702</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>20.6</v>
       </c>
       <c r="J53" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2363,13 +2517,13 @@
         <v>-820507.4680299702</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>20.6</v>
       </c>
       <c r="J54" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2404,13 +2558,13 @@
         <v>-820507.4680299702</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>20.6</v>
       </c>
       <c r="J55" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2445,13 +2599,13 @@
         <v>-820507.4680299702</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>20.6</v>
       </c>
       <c r="J56" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2486,13 +2640,13 @@
         <v>-820507.4680299702</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>20.6</v>
       </c>
       <c r="J57" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2527,13 +2681,13 @@
         <v>-820507.4680299702</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>20.6</v>
       </c>
       <c r="J58" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2568,13 +2722,13 @@
         <v>-810655.6805903567</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>20.6</v>
       </c>
       <c r="J59" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2609,13 +2763,13 @@
         <v>-816103.6805903567</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>20.7</v>
       </c>
       <c r="J60" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2650,11 +2804,13 @@
         <v>-804520.6410903567</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>20.6</v>
+      </c>
       <c r="J61" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2689,13 +2845,13 @@
         <v>-804510.6410903567</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>20.7</v>
       </c>
       <c r="J62" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2730,11 +2886,13 @@
         <v>-810644.0225903568</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>20.8</v>
+      </c>
       <c r="J63" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2769,13 +2927,13 @@
         <v>-828444.0225903568</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>20.7</v>
       </c>
       <c r="J64" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2810,11 +2968,13 @@
         <v>-828444.0225903568</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>20.6</v>
+      </c>
       <c r="J65" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2849,11 +3009,13 @@
         <v>-1021835.759990357</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>20.6</v>
+      </c>
       <c r="J66" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2888,11 +3050,13 @@
         <v>-1021835.759990357</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>20.5</v>
+      </c>
       <c r="J67" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2927,11 +3091,13 @@
         <v>-1021835.759990357</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>20.5</v>
+      </c>
       <c r="J68" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2966,11 +3132,13 @@
         <v>-1021089.255190357</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>20.5</v>
+      </c>
       <c r="J69" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3005,11 +3173,13 @@
         <v>-997839.2754903567</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>20.6</v>
+      </c>
       <c r="J70" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3044,11 +3214,13 @@
         <v>-1007666.433490357</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>20.7</v>
+      </c>
       <c r="J71" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3083,11 +3255,13 @@
         <v>-986776.6363903568</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>20.6</v>
+      </c>
       <c r="J72" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3122,11 +3296,13 @@
         <v>-973776.6363903568</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>20.7</v>
+      </c>
       <c r="J73" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3161,11 +3337,13 @@
         <v>-973776.6363903568</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>20.8</v>
+      </c>
       <c r="J74" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3200,11 +3378,13 @@
         <v>-973776.6363903568</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>20.8</v>
+      </c>
       <c r="J75" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3239,11 +3419,13 @@
         <v>-828498.7691903568</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>20.8</v>
+      </c>
       <c r="J76" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3278,11 +3460,13 @@
         <v>-828498.7691903568</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>21.1</v>
+      </c>
       <c r="J77" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3321,7 +3505,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3360,7 +3544,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3399,7 +3583,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3438,7 +3622,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3477,7 +3661,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3516,7 +3700,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3551,11 +3735,13 @@
         <v>-865707.2099903568</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>20.7</v>
+      </c>
       <c r="J84" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3594,7 +3780,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3629,11 +3815,13 @@
         <v>-869291.2112903568</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>20.7</v>
+      </c>
       <c r="J86" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3668,11 +3856,13 @@
         <v>-855264.7400903568</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>20.5</v>
+      </c>
       <c r="J87" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3707,11 +3897,13 @@
         <v>-855264.7400903568</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>20.8</v>
+      </c>
       <c r="J88" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3746,11 +3938,13 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>20.8</v>
+      </c>
       <c r="J89" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3785,11 +3979,13 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>20.7</v>
+      </c>
       <c r="J90" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3824,11 +4020,13 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>20.7</v>
+      </c>
       <c r="J91" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3863,11 +4061,13 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>20.7</v>
+      </c>
       <c r="J92" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3902,11 +4102,13 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>20.7</v>
+      </c>
       <c r="J93" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3941,11 +4143,13 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>20.7</v>
+      </c>
       <c r="J94" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3980,11 +4184,13 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>20.7</v>
+      </c>
       <c r="J95" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4019,11 +4225,13 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>20.7</v>
+      </c>
       <c r="J96" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4058,11 +4266,13 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>20.7</v>
+      </c>
       <c r="J97" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4097,11 +4307,13 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>20.7</v>
+      </c>
       <c r="J98" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4136,11 +4348,13 @@
         <v>-903456.1208903568</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>20.7</v>
+      </c>
       <c r="J99" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4175,11 +4389,13 @@
         <v>-876306.6257903569</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>20.7</v>
+      </c>
       <c r="J100" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4214,11 +4430,13 @@
         <v>-876306.6257903569</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>20.8</v>
+      </c>
       <c r="J101" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4257,7 +4475,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4292,11 +4510,13 @@
         <v>-593800.8745903568</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>20.8</v>
+      </c>
       <c r="J103" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4335,7 +4555,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4374,7 +4594,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4413,7 +4633,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4452,7 +4672,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4491,7 +4711,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4530,7 +4750,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4569,7 +4789,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4608,7 +4828,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4647,7 +4867,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4686,7 +4906,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4725,7 +4945,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4764,7 +4984,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4803,7 +5023,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4842,7 +5062,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4881,7 +5101,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4920,7 +5140,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4955,23 +5175,21 @@
         <v>1729074.223257769</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.225392156862745</v>
-      </c>
-      <c r="M120" t="n">
-        <v>1.02970297029703</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4999,8 +5217,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5032,8 +5256,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5065,8 +5295,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5098,8 +5334,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5131,8 +5373,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5161,11 +5409,17 @@
         <v>2778946.677000521</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5197,8 +5451,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5230,8 +5490,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5263,8 +5529,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5296,8 +5568,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5329,8 +5607,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5362,8 +5646,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5392,11 +5682,17 @@
         <v>2416799.492388938</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5425,11 +5721,17 @@
         <v>2321646.311288937</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5458,11 +5760,17 @@
         <v>2209741.929727647</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5494,8 +5802,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5527,8 +5841,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5557,15 +5877,23 @@
         <v>1508790.359127647</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>1.148846153846154</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1.009708737864078</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5623,7 +5951,7 @@
         <v>1244433.774927647</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5656,7 +5984,7 @@
         <v>1244433.774927647</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5689,7 +6017,7 @@
         <v>1134444.367727647</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5722,7 +6050,7 @@
         <v>1266183.221027647</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5755,7 +6083,7 @@
         <v>1337720.337227647</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5788,7 +6116,7 @@
         <v>1337720.337227647</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5821,7 +6149,7 @@
         <v>1458646.874494314</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5854,7 +6182,7 @@
         <v>1384096.050194314</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5887,7 +6215,7 @@
         <v>1384096.050194314</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5920,7 +6248,7 @@
         <v>1383049.471094314</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5953,7 +6281,7 @@
         <v>1377772.384794314</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5986,7 +6314,7 @@
         <v>1377772.384794314</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6019,7 +6347,7 @@
         <v>1267649.570194314</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6052,7 +6380,7 @@
         <v>1192344.170394314</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6085,7 +6413,7 @@
         <v>870458.829394314</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6118,7 +6446,7 @@
         <v>870458.829394314</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6151,7 +6479,7 @@
         <v>870458.829394314</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6184,7 +6512,7 @@
         <v>834336.133594314</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6217,7 +6545,7 @@
         <v>834336.133594314</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6250,7 +6578,7 @@
         <v>834336.133594314</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6283,7 +6611,7 @@
         <v>834336.133594314</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6316,7 +6644,7 @@
         <v>845216.253094314</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6349,7 +6677,7 @@
         <v>838901.6791430535</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6382,7 +6710,7 @@
         <v>854517.7658430535</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6415,7 +6743,7 @@
         <v>838418.3364430534</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6448,7 +6776,7 @@
         <v>902158.0853430534</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6481,7 +6809,7 @@
         <v>860146.2247430534</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6514,7 +6842,7 @@
         <v>860146.2247430534</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6547,7 +6875,7 @@
         <v>842561.9588430534</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6580,7 +6908,7 @@
         <v>753965.8203430534</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6613,7 +6941,7 @@
         <v>763874.8201430534</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6646,7 +6974,7 @@
         <v>763157.1307430534</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6679,7 +7007,7 @@
         <v>750157.1307430534</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6712,7 +7040,7 @@
         <v>939037.5671430534</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6745,7 +7073,7 @@
         <v>909972.4121430534</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6778,7 +7106,7 @@
         <v>909972.4121430534</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6811,7 +7139,7 @@
         <v>909972.4121430534</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7207,7 +7535,7 @@
         <v>1155384.690443053</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7240,7 +7568,7 @@
         <v>997130.0226430534</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7273,7 +7601,7 @@
         <v>987758.0226430534</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7306,7 +7634,7 @@
         <v>1044178.188543053</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7339,7 +7667,7 @@
         <v>1313125.224143053</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7372,7 +7700,7 @@
         <v>1255720.618643053</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7405,7 +7733,7 @@
         <v>1221458.842443053</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7438,7 +7766,7 @@
         <v>1831591.736943054</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7471,7 +7799,7 @@
         <v>1805336.687243053</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7504,7 +7832,7 @@
         <v>1900973.979043053</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7537,7 +7865,7 @@
         <v>1869301.827143054</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7570,7 +7898,7 @@
         <v>2024379.679043054</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7603,7 +7931,7 @@
         <v>2024379.679043054</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7636,7 +7964,7 @@
         <v>1959014.676643054</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7669,7 +7997,7 @@
         <v>1775777.525843054</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7867,7 +8195,7 @@
         <v>1893129.997425554</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7900,7 +8228,7 @@
         <v>1893129.997425554</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7933,7 +8261,7 @@
         <v>1893129.997425554</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7966,7 +8294,7 @@
         <v>1882480.901325554</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7999,7 +8327,7 @@
         <v>1766538.713025554</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8032,7 +8360,7 @@
         <v>1766549.713025554</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8065,7 +8393,7 @@
         <v>1766549.713025554</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8098,7 +8426,7 @@
         <v>1740516.713025554</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8263,7 +8591,7 @@
         <v>1813215.072425554</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8296,7 +8624,7 @@
         <v>1813215.072425554</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8329,7 +8657,7 @@
         <v>1812506.038825554</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8362,7 +8690,7 @@
         <v>1811799.597025554</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8395,7 +8723,7 @@
         <v>1809387.597025554</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8428,7 +8756,7 @@
         <v>1739361.262525554</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8461,7 +8789,7 @@
         <v>1725105.108425554</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8494,7 +8822,7 @@
         <v>1725284.299025554</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8527,7 +8855,7 @@
         <v>1724646.001225554</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8560,7 +8888,7 @@
         <v>1724646.001225554</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8593,7 +8921,7 @@
         <v>1724646.001225554</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8626,7 +8954,7 @@
         <v>1683354.976025554</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8659,7 +8987,7 @@
         <v>2023855.630425554</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8692,7 +9020,7 @@
         <v>2073854.736025554</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8725,7 +9053,7 @@
         <v>2073127.736025554</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8758,7 +9086,7 @@
         <v>2056411.736225554</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8791,7 +9119,7 @@
         <v>2046166.329725554</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8824,7 +9152,7 @@
         <v>2046391.229325553</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8857,7 +9185,7 @@
         <v>2046391.229325553</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8890,7 +9218,7 @@
         <v>2136855.600525553</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8923,7 +9251,7 @@
         <v>2136855.600525553</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8956,7 +9284,7 @@
         <v>1793936.028525553</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8989,7 +9317,7 @@
         <v>1826847.277525553</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9022,7 +9350,7 @@
         <v>1782450.299825554</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9055,7 +9383,7 @@
         <v>1701021.379825554</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9088,7 +9416,7 @@
         <v>1661711.433325554</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9121,7 +9449,7 @@
         <v>1619334.108625554</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9154,7 +9482,7 @@
         <v>1637311.896025554</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9187,7 +9515,7 @@
         <v>1529846.280225554</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9220,7 +9548,7 @@
         <v>1552046.280225554</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9253,7 +9581,7 @@
         <v>1552046.280225554</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9286,7 +9614,7 @@
         <v>1553501.258325553</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9319,7 +9647,7 @@
         <v>1526901.258325553</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9352,7 +9680,7 @@
         <v>1515491.369525553</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9385,7 +9713,7 @@
         <v>1556966.369525553</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9418,7 +9746,7 @@
         <v>1505603.647825553</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9616,7 +9944,7 @@
         <v>2256875.448925553</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9649,7 +9977,7 @@
         <v>2256875.448925553</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9682,7 +10010,7 @@
         <v>1947407.046725553</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9715,7 +10043,7 @@
         <v>1948299.925425553</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9748,7 +10076,7 @@
         <v>1948101.512725553</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9781,7 +10109,7 @@
         <v>1948112.512725553</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9814,7 +10142,7 @@
         <v>1947355.613925553</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10012,7 +10340,7 @@
         <v>2021996.814825553</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10045,7 +10373,7 @@
         <v>2021996.814825553</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10078,7 +10406,7 @@
         <v>2021047.452625553</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10111,7 +10439,7 @@
         <v>2022259.849925553</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10144,7 +10472,7 @@
         <v>2039544.823625553</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10243,7 +10571,7 @@
         <v>1846229.291825554</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10276,7 +10604,7 @@
         <v>1841814.779725554</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10309,7 +10637,7 @@
         <v>1841814.779725554</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10342,7 +10670,7 @@
         <v>1841814.779725554</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10804,7 +11132,7 @@
         <v>1820677.848325554</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10837,7 +11165,7 @@
         <v>1798053.894725554</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10870,7 +11198,7 @@
         <v>1798393.894725554</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10903,7 +11231,7 @@
         <v>1765249.030925554</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10914,6 +11242,6 @@
       <c r="M300" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest CMT.xlsx
+++ b/BackTest/2019-10-29 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-512212.8860299701</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -649,14 +649,10 @@
         <v>-548181.4889299702</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>20.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -686,19 +682,11 @@
         <v>-548181.4889299702</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -727,19 +715,11 @@
         <v>-566222.6614299702</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -801,14 +781,10 @@
         <v>-626886.0374299702</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>20.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -841,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -877,19 +847,11 @@
         <v>-643118.3452299702</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -918,19 +880,11 @@
         <v>-643118.3452299702</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -959,19 +913,11 @@
         <v>-643118.3452299702</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1000,19 +946,11 @@
         <v>-643118.3452299702</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1041,19 +979,11 @@
         <v>-643118.3452299702</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1082,19 +1012,11 @@
         <v>-671718.3452299702</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1123,19 +1045,11 @@
         <v>-671718.3452299702</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1164,19 +1078,11 @@
         <v>-671718.3452299702</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1205,19 +1111,11 @@
         <v>-697718.3452299702</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1246,19 +1144,11 @@
         <v>-679768.4273299702</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1287,19 +1177,11 @@
         <v>-653968.4273299702</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1328,19 +1210,11 @@
         <v>-672929.0500299701</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1369,19 +1243,11 @@
         <v>-672929.0500299701</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1410,19 +1276,11 @@
         <v>-735329.0500299701</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1457,13 +1315,9 @@
         <v>20.2</v>
       </c>
       <c r="J28" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>20.2</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1498,11 +1352,11 @@
         <v>20.4</v>
       </c>
       <c r="J29" t="n">
-        <v>20.8</v>
+        <v>20.2</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1539,11 +1393,11 @@
         <v>20.2</v>
       </c>
       <c r="J30" t="n">
-        <v>20.8</v>
+        <v>20.2</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1580,13 +1434,9 @@
         <v>20.4</v>
       </c>
       <c r="J31" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>20.4</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1621,11 +1471,11 @@
         <v>20.4</v>
       </c>
       <c r="J32" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1656,17 +1506,15 @@
         <v>-818664.8507299701</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>20.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1703,13 +1551,9 @@
         <v>20.4</v>
       </c>
       <c r="J34" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>20.4</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1744,11 +1588,11 @@
         <v>20.4</v>
       </c>
       <c r="J35" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1785,7 +1629,7 @@
         <v>20.3</v>
       </c>
       <c r="J36" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1826,7 +1670,7 @@
         <v>20.3</v>
       </c>
       <c r="J37" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1867,7 +1711,7 @@
         <v>20.5</v>
       </c>
       <c r="J38" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1908,7 +1752,7 @@
         <v>20.4</v>
       </c>
       <c r="J39" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1949,7 +1793,7 @@
         <v>20.4</v>
       </c>
       <c r="J40" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1990,7 +1834,7 @@
         <v>20.4</v>
       </c>
       <c r="J41" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2031,7 +1875,7 @@
         <v>20.4</v>
       </c>
       <c r="J42" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2072,7 +1916,7 @@
         <v>20.4</v>
       </c>
       <c r="J43" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2113,7 +1957,7 @@
         <v>20.4</v>
       </c>
       <c r="J44" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2154,7 +1998,7 @@
         <v>20.4</v>
       </c>
       <c r="J45" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2195,7 +2039,7 @@
         <v>20.4</v>
       </c>
       <c r="J46" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2236,7 +2080,7 @@
         <v>20.5</v>
       </c>
       <c r="J47" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2277,7 +2121,7 @@
         <v>20.6</v>
       </c>
       <c r="J48" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2318,7 +2162,7 @@
         <v>20.6</v>
       </c>
       <c r="J49" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2359,7 +2203,7 @@
         <v>20.5</v>
       </c>
       <c r="J50" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2400,7 +2244,7 @@
         <v>20.6</v>
       </c>
       <c r="J51" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2441,7 +2285,7 @@
         <v>20.6</v>
       </c>
       <c r="J52" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2482,7 +2326,7 @@
         <v>20.6</v>
       </c>
       <c r="J53" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2523,7 +2367,7 @@
         <v>20.6</v>
       </c>
       <c r="J54" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2564,7 +2408,7 @@
         <v>20.6</v>
       </c>
       <c r="J55" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2605,7 +2449,7 @@
         <v>20.6</v>
       </c>
       <c r="J56" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2646,7 +2490,7 @@
         <v>20.6</v>
       </c>
       <c r="J57" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2687,7 +2531,7 @@
         <v>20.6</v>
       </c>
       <c r="J58" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2728,7 +2572,7 @@
         <v>20.6</v>
       </c>
       <c r="J59" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2769,7 +2613,7 @@
         <v>20.7</v>
       </c>
       <c r="J60" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2810,7 +2654,7 @@
         <v>20.6</v>
       </c>
       <c r="J61" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2851,7 +2695,7 @@
         <v>20.7</v>
       </c>
       <c r="J62" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2892,7 +2736,7 @@
         <v>20.8</v>
       </c>
       <c r="J63" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2933,7 +2777,7 @@
         <v>20.7</v>
       </c>
       <c r="J64" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2974,7 +2818,7 @@
         <v>20.6</v>
       </c>
       <c r="J65" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3015,7 +2859,7 @@
         <v>20.6</v>
       </c>
       <c r="J66" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3056,7 +2900,7 @@
         <v>20.5</v>
       </c>
       <c r="J67" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3097,7 +2941,7 @@
         <v>20.5</v>
       </c>
       <c r="J68" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3138,7 +2982,7 @@
         <v>20.5</v>
       </c>
       <c r="J69" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3179,7 +3023,7 @@
         <v>20.6</v>
       </c>
       <c r="J70" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3220,7 +3064,7 @@
         <v>20.7</v>
       </c>
       <c r="J71" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3261,7 +3105,7 @@
         <v>20.6</v>
       </c>
       <c r="J72" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3302,7 +3146,7 @@
         <v>20.7</v>
       </c>
       <c r="J73" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3343,7 +3187,7 @@
         <v>20.8</v>
       </c>
       <c r="J74" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3384,7 +3228,7 @@
         <v>20.8</v>
       </c>
       <c r="J75" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3425,7 +3269,7 @@
         <v>20.8</v>
       </c>
       <c r="J76" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3460,13 +3304,11 @@
         <v>-828498.7691903568</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>21.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3505,7 +3347,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3540,11 +3382,13 @@
         <v>-830004.6935903569</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>20.8</v>
+      </c>
       <c r="J79" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3579,11 +3423,13 @@
         <v>-839099.1988903568</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>20.8</v>
+      </c>
       <c r="J80" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3618,11 +3464,13 @@
         <v>-838766.8288903568</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20.7</v>
+      </c>
       <c r="J81" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3657,11 +3505,13 @@
         <v>-815920.6384903569</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>20.8</v>
+      </c>
       <c r="J82" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3696,11 +3546,13 @@
         <v>-867920.6384903569</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>21</v>
+      </c>
       <c r="J83" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3741,7 +3593,7 @@
         <v>20.7</v>
       </c>
       <c r="J84" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3780,7 +3632,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3821,7 +3673,7 @@
         <v>20.7</v>
       </c>
       <c r="J86" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3862,7 +3714,7 @@
         <v>20.5</v>
       </c>
       <c r="J87" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3903,7 +3755,7 @@
         <v>20.8</v>
       </c>
       <c r="J88" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3944,7 +3796,7 @@
         <v>20.8</v>
       </c>
       <c r="J89" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3985,7 +3837,7 @@
         <v>20.7</v>
       </c>
       <c r="J90" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -4026,7 +3878,7 @@
         <v>20.7</v>
       </c>
       <c r="J91" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4067,7 +3919,7 @@
         <v>20.7</v>
       </c>
       <c r="J92" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4108,7 +3960,7 @@
         <v>20.7</v>
       </c>
       <c r="J93" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4149,7 +4001,7 @@
         <v>20.7</v>
       </c>
       <c r="J94" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4190,7 +4042,7 @@
         <v>20.7</v>
       </c>
       <c r="J95" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4231,7 +4083,7 @@
         <v>20.7</v>
       </c>
       <c r="J96" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4272,7 +4124,7 @@
         <v>20.7</v>
       </c>
       <c r="J97" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4313,7 +4165,7 @@
         <v>20.7</v>
       </c>
       <c r="J98" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4354,7 +4206,7 @@
         <v>20.7</v>
       </c>
       <c r="J99" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4395,7 +4247,7 @@
         <v>20.7</v>
       </c>
       <c r="J100" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4436,7 +4288,7 @@
         <v>20.8</v>
       </c>
       <c r="J101" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4471,11 +4323,13 @@
         <v>-876306.6257903569</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>20.8</v>
+      </c>
       <c r="J102" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4516,7 +4370,7 @@
         <v>20.8</v>
       </c>
       <c r="J103" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4555,7 +4409,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4594,7 +4448,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4633,7 +4487,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4672,7 +4526,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4711,7 +4565,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4750,7 +4604,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4789,7 +4643,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4828,7 +4682,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4867,7 +4721,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4906,7 +4760,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4945,7 +4799,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4984,7 +4838,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -5023,7 +4877,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -5062,7 +4916,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5101,7 +4955,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5140,7 +4994,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5179,7 +5033,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5218,7 +5072,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5257,7 +5111,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5296,7 +5150,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5335,7 +5189,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5374,7 +5228,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5413,7 +5267,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5452,7 +5306,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5491,7 +5345,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5530,7 +5384,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5569,7 +5423,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5608,7 +5462,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5647,7 +5501,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5686,7 +5540,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5725,7 +5579,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5764,7 +5618,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5803,7 +5657,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5842,7 +5696,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5877,23 +5731,21 @@
         <v>1508790.359127647</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.148846153846154</v>
-      </c>
-      <c r="M138" t="n">
-        <v>1.009708737864078</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5921,8 +5773,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5951,11 +5809,17 @@
         <v>1244433.774927647</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5987,12 +5851,20 @@
         <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>1.171470588235294</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1.02970297029703</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6083,7 +5955,7 @@
         <v>1337720.337227647</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -6116,7 +5988,7 @@
         <v>1337720.337227647</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6380,7 +6252,7 @@
         <v>1192344.170394314</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6413,7 +6285,7 @@
         <v>870458.829394314</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6446,7 +6318,7 @@
         <v>870458.829394314</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6479,7 +6351,7 @@
         <v>870458.829394314</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6512,7 +6384,7 @@
         <v>834336.133594314</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6545,7 +6417,7 @@
         <v>834336.133594314</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6578,7 +6450,7 @@
         <v>834336.133594314</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6611,7 +6483,7 @@
         <v>834336.133594314</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6644,7 +6516,7 @@
         <v>845216.253094314</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6677,7 +6549,7 @@
         <v>838901.6791430535</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6710,7 +6582,7 @@
         <v>854517.7658430535</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6743,7 +6615,7 @@
         <v>838418.3364430534</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6776,7 +6648,7 @@
         <v>902158.0853430534</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6809,7 +6681,7 @@
         <v>860146.2247430534</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6842,7 +6714,7 @@
         <v>860146.2247430534</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6875,7 +6747,7 @@
         <v>842561.9588430534</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6908,7 +6780,7 @@
         <v>753965.8203430534</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6941,7 +6813,7 @@
         <v>763874.8201430534</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6974,7 +6846,7 @@
         <v>763157.1307430534</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7007,7 +6879,7 @@
         <v>750157.1307430534</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7040,7 +6912,7 @@
         <v>939037.5671430534</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7073,7 +6945,7 @@
         <v>909972.4121430534</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7106,7 +6978,7 @@
         <v>909972.4121430534</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7139,7 +7011,7 @@
         <v>909972.4121430534</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -8426,7 +8298,7 @@
         <v>1740516.713025554</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8591,7 +8463,7 @@
         <v>1813215.072425554</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8624,7 +8496,7 @@
         <v>1813215.072425554</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8657,7 +8529,7 @@
         <v>1812506.038825554</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8690,7 +8562,7 @@
         <v>1811799.597025554</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8723,7 +8595,7 @@
         <v>1809387.597025554</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8756,7 +8628,7 @@
         <v>1739361.262525554</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8789,7 +8661,7 @@
         <v>1725105.108425554</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8822,7 +8694,7 @@
         <v>1725284.299025554</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8855,7 +8727,7 @@
         <v>1724646.001225554</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8888,7 +8760,7 @@
         <v>1724646.001225554</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8921,7 +8793,7 @@
         <v>1724646.001225554</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8954,7 +8826,7 @@
         <v>1683354.976025554</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8987,7 +8859,7 @@
         <v>2023855.630425554</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9020,7 +8892,7 @@
         <v>2073854.736025554</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9053,7 +8925,7 @@
         <v>2073127.736025554</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9086,7 +8958,7 @@
         <v>2056411.736225554</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9119,7 +8991,7 @@
         <v>2046166.329725554</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9152,7 +9024,7 @@
         <v>2046391.229325553</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9185,7 +9057,7 @@
         <v>2046391.229325553</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9218,7 +9090,7 @@
         <v>2136855.600525553</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9251,7 +9123,7 @@
         <v>2136855.600525553</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9284,7 +9156,7 @@
         <v>1793936.028525553</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9317,7 +9189,7 @@
         <v>1826847.277525553</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9350,7 +9222,7 @@
         <v>1782450.299825554</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9383,7 +9255,7 @@
         <v>1701021.379825554</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9416,7 +9288,7 @@
         <v>1661711.433325554</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9449,7 +9321,7 @@
         <v>1619334.108625554</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9482,7 +9354,7 @@
         <v>1637311.896025554</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9515,7 +9387,7 @@
         <v>1529846.280225554</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9548,7 +9420,7 @@
         <v>1552046.280225554</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9581,7 +9453,7 @@
         <v>1552046.280225554</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9614,7 +9486,7 @@
         <v>1553501.258325553</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9647,7 +9519,7 @@
         <v>1526901.258325553</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9680,7 +9552,7 @@
         <v>1515491.369525553</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9713,7 +9585,7 @@
         <v>1556966.369525553</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9746,7 +9618,7 @@
         <v>1505603.647825553</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9944,7 +9816,7 @@
         <v>2256875.448925553</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9977,7 +9849,7 @@
         <v>2256875.448925553</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10010,7 +9882,7 @@
         <v>1947407.046725553</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10043,7 +9915,7 @@
         <v>1948299.925425553</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10076,7 +9948,7 @@
         <v>1948101.512725553</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10109,7 +9981,7 @@
         <v>1948112.512725553</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -11242,6 +11114,6 @@
       <c r="M300" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest CMT.xlsx
+++ b/BackTest/2019-10-29 BackTest CMT.xlsx
@@ -1144,10 +1144,14 @@
         <v>-679768.4273299702</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>20.3</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1177,11 +1181,19 @@
         <v>-653968.4273299702</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1222,19 @@
         <v>-672929.0500299701</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,10 +1263,14 @@
         <v>-672929.0500299701</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>20.4</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
@@ -1276,11 +1300,19 @@
         <v>-735329.0500299701</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1315,9 +1347,13 @@
         <v>20.2</v>
       </c>
       <c r="J28" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+        <v>20.4</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1352,11 +1388,11 @@
         <v>20.4</v>
       </c>
       <c r="J29" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1393,11 +1429,11 @@
         <v>20.2</v>
       </c>
       <c r="J30" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1436,7 +1472,11 @@
       <c r="J31" t="n">
         <v>20.4</v>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1475,7 +1515,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1506,15 +1546,17 @@
         <v>-818664.8507299701</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>20.6</v>
+      </c>
       <c r="J33" t="n">
         <v>20.4</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1553,7 +1595,11 @@
       <c r="J34" t="n">
         <v>20.4</v>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1592,7 +1638,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -2935,11 +2981,9 @@
         <v>-1021835.759990357</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>20.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>20.4</v>
       </c>
@@ -3382,11 +3426,9 @@
         <v>-830004.6935903569</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>20.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>20.4</v>
       </c>
@@ -3423,11 +3465,9 @@
         <v>-839099.1988903568</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>20.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>20.4</v>
       </c>
@@ -3464,11 +3504,9 @@
         <v>-838766.8288903568</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>20.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>20.4</v>
       </c>
@@ -3505,11 +3543,9 @@
         <v>-815920.6384903569</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>20.4</v>
       </c>
@@ -3546,11 +3582,9 @@
         <v>-867920.6384903569</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>20.4</v>
       </c>
@@ -3587,11 +3621,9 @@
         <v>-865707.2099903568</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>20.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>20.4</v>
       </c>
@@ -3667,11 +3699,9 @@
         <v>-869291.2112903568</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>20.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>20.4</v>
       </c>
@@ -5146,7 +5176,7 @@
         <v>2313688.462608336</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
@@ -5154,13 +5184,15 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>1.254803921568628</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1.024630541871921</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5185,17 +5217,11 @@
         <v>2435478.086508336</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5227,14 +5253,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5263,17 +5283,11 @@
         <v>2778946.677000521</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5302,17 +5316,11 @@
         <v>2298320.825000521</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5341,17 +5349,11 @@
         <v>2637308.522600521</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5380,17 +5382,11 @@
         <v>2222556.905100521</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5419,17 +5415,11 @@
         <v>2098482.469900521</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5458,17 +5448,11 @@
         <v>2004544.86740052</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5497,17 +5481,11 @@
         <v>2089097.969900521</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5536,17 +5514,11 @@
         <v>2416799.492388938</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5575,17 +5547,11 @@
         <v>2321646.311288937</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5614,17 +5580,11 @@
         <v>2209741.929727647</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5653,17 +5613,11 @@
         <v>2209741.929727647</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5695,14 +5649,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5734,14 +5682,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5773,14 +5715,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5812,14 +5748,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5848,23 +5778,15 @@
         <v>1244433.774927647</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>1.171470588235294</v>
-      </c>
-      <c r="M141" t="n">
-        <v>1.02970297029703</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5889,7 +5811,7 @@
         <v>1134444.367727647</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5922,7 +5844,7 @@
         <v>1266183.221027647</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -6021,7 +5943,7 @@
         <v>1458646.874494314</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -6054,7 +5976,7 @@
         <v>1384096.050194314</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6087,7 +6009,7 @@
         <v>1384096.050194314</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6120,7 +6042,7 @@
         <v>1383049.471094314</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6153,7 +6075,7 @@
         <v>1377772.384794314</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6186,7 +6108,7 @@
         <v>1377772.384794314</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6219,7 +6141,7 @@
         <v>1267649.570194314</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest CMT.xlsx
+++ b/BackTest/2019-10-29 BackTest CMT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M300"/>
+  <dimension ref="A1:L300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>176357.4216</v>
       </c>
       <c r="G2" t="n">
-        <v>-512212.8860299701</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>19987.3198</v>
       </c>
       <c r="G3" t="n">
-        <v>-512212.8860299701</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>36179.4202</v>
       </c>
       <c r="G4" t="n">
-        <v>-548392.3062299702</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>210.8173</v>
       </c>
       <c r="G5" t="n">
-        <v>-548181.4889299702</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>756.1897</v>
       </c>
       <c r="G6" t="n">
-        <v>-548181.4889299702</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2121.9052</v>
       </c>
       <c r="G7" t="n">
-        <v>-548181.4889299702</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1060.9526</v>
       </c>
       <c r="G8" t="n">
-        <v>-548181.4889299702</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1060.9525</v>
       </c>
       <c r="G9" t="n">
-        <v>-548181.4889299702</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>18041.1725</v>
       </c>
       <c r="G10" t="n">
-        <v>-566222.6614299702</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>23342.3114</v>
       </c>
       <c r="G11" t="n">
-        <v>-542880.3500299702</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>84005.6874</v>
       </c>
       <c r="G12" t="n">
-        <v>-626886.0374299702</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>16232.3078</v>
       </c>
       <c r="G13" t="n">
-        <v>-643118.3452299702</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>11353</v>
       </c>
       <c r="G14" t="n">
-        <v>-643118.3452299702</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>26025.6765</v>
       </c>
       <c r="G15" t="n">
-        <v>-643118.3452299702</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3422</v>
       </c>
       <c r="G16" t="n">
-        <v>-643118.3452299702</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>65304.5245</v>
       </c>
       <c r="G17" t="n">
-        <v>-643118.3452299702</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1150</v>
       </c>
       <c r="G18" t="n">
-        <v>-643118.3452299702</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>28600</v>
       </c>
       <c r="G19" t="n">
-        <v>-671718.3452299702</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>120533.1815</v>
       </c>
       <c r="G20" t="n">
-        <v>-671718.3452299702</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1306.1229</v>
       </c>
       <c r="G21" t="n">
-        <v>-671718.3452299702</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>26000</v>
       </c>
       <c r="G22" t="n">
-        <v>-697718.3452299702</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,22 +1073,15 @@
         <v>17949.9179</v>
       </c>
       <c r="G23" t="n">
-        <v>-679768.4273299702</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1178,26 +1103,15 @@
         <v>25800</v>
       </c>
       <c r="G24" t="n">
-        <v>-653968.4273299702</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1219,26 +1133,15 @@
         <v>18960.6227</v>
       </c>
       <c r="G25" t="n">
-        <v>-672929.0500299701</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1260,22 +1163,15 @@
         <v>304.3943</v>
       </c>
       <c r="G26" t="n">
-        <v>-672929.0500299701</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1297,26 +1193,15 @@
         <v>62400</v>
       </c>
       <c r="G27" t="n">
-        <v>-735329.0500299701</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1338,26 +1223,15 @@
         <v>18600.2941</v>
       </c>
       <c r="G28" t="n">
-        <v>-716728.7559299702</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1379,26 +1253,15 @@
         <v>137341.0947</v>
       </c>
       <c r="G29" t="n">
-        <v>-854069.8506299702</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J29" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1420,26 +1283,15 @@
         <v>13000</v>
       </c>
       <c r="G30" t="n">
-        <v>-841069.8506299702</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1461,26 +1313,15 @@
         <v>19273.5294</v>
       </c>
       <c r="G31" t="n">
-        <v>-841069.8506299702</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1502,26 +1343,15 @@
         <v>22499.9999</v>
       </c>
       <c r="G32" t="n">
-        <v>-818569.8507299701</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1543,26 +1373,15 @@
         <v>95</v>
       </c>
       <c r="G33" t="n">
-        <v>-818664.8507299701</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1584,26 +1403,15 @@
         <v>192</v>
       </c>
       <c r="G34" t="n">
-        <v>-818664.8507299701</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J34" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1625,26 +1433,21 @@
         <v>1293.8079</v>
       </c>
       <c r="G35" t="n">
-        <v>-819958.6586299702</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
         <v>20.4</v>
       </c>
-      <c r="J35" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1666,26 +1469,21 @@
         <v>5662.7665</v>
       </c>
       <c r="G36" t="n">
-        <v>-819958.6586299702</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
         <v>20.3</v>
       </c>
-      <c r="J36" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1707,26 +1505,21 @@
         <v>475.9587</v>
       </c>
       <c r="G37" t="n">
-        <v>-819482.6999299702</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
         <v>20.3</v>
       </c>
-      <c r="J37" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1748,26 +1541,21 @@
         <v>7552.696</v>
       </c>
       <c r="G38" t="n">
-        <v>-827035.3959299702</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
         <v>20.5</v>
       </c>
-      <c r="J38" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1789,26 +1577,21 @@
         <v>97500.8297</v>
       </c>
       <c r="G39" t="n">
-        <v>-827035.3959299702</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
         <v>20.4</v>
       </c>
-      <c r="J39" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1830,26 +1613,21 @@
         <v>97329.9999</v>
       </c>
       <c r="G40" t="n">
-        <v>-827035.3959299702</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
         <v>20.4</v>
       </c>
-      <c r="J40" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1871,26 +1649,21 @@
         <v>130414.2718</v>
       </c>
       <c r="G41" t="n">
-        <v>-827035.3959299702</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
         <v>20.4</v>
       </c>
-      <c r="J41" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1912,26 +1685,21 @@
         <v>10000</v>
       </c>
       <c r="G42" t="n">
-        <v>-827035.3959299702</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
         <v>20.4</v>
       </c>
-      <c r="J42" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1953,26 +1721,21 @@
         <v>21533.9182</v>
       </c>
       <c r="G43" t="n">
-        <v>-827035.3959299702</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
         <v>20.4</v>
       </c>
-      <c r="J43" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1994,26 +1757,21 @@
         <v>12261.38</v>
       </c>
       <c r="G44" t="n">
-        <v>-827035.3959299702</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
         <v>20.4</v>
       </c>
-      <c r="J44" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2035,26 +1793,21 @@
         <v>10701.9607</v>
       </c>
       <c r="G45" t="n">
-        <v>-827035.3959299702</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
         <v>20.4</v>
       </c>
-      <c r="J45" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2076,26 +1829,21 @@
         <v>17197.0072</v>
       </c>
       <c r="G46" t="n">
-        <v>-809838.3887299702</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
         <v>20.4</v>
       </c>
-      <c r="J46" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2117,26 +1865,21 @@
         <v>3730.9207</v>
       </c>
       <c r="G47" t="n">
-        <v>-806107.4680299702</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
         <v>20.5</v>
       </c>
-      <c r="J47" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2158,26 +1901,21 @@
         <v>10791.2562</v>
       </c>
       <c r="G48" t="n">
-        <v>-806107.4680299702</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
         <v>20.6</v>
       </c>
-      <c r="J48" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K48" t="inlineStr">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2199,26 +1937,21 @@
         <v>23400</v>
       </c>
       <c r="G49" t="n">
-        <v>-829507.4680299702</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
         <v>20.6</v>
       </c>
-      <c r="J49" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K49" t="inlineStr">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2240,26 +1973,21 @@
         <v>9000</v>
       </c>
       <c r="G50" t="n">
-        <v>-820507.4680299702</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
         <v>20.5</v>
       </c>
-      <c r="J50" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K50" t="inlineStr">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2281,26 +2009,21 @@
         <v>189776.5591</v>
       </c>
       <c r="G51" t="n">
-        <v>-820507.4680299702</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
         <v>20.6</v>
       </c>
-      <c r="J51" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K51" t="inlineStr">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2322,26 +2045,19 @@
         <v>22904.0002</v>
       </c>
       <c r="G52" t="n">
-        <v>-820507.4680299702</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J52" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2363,26 +2079,19 @@
         <v>113595.3078</v>
       </c>
       <c r="G53" t="n">
-        <v>-820507.4680299702</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J53" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2404,26 +2113,19 @@
         <v>1461.6853</v>
       </c>
       <c r="G54" t="n">
-        <v>-820507.4680299702</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J54" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K54" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2445,26 +2147,19 @@
         <v>25336.0763</v>
       </c>
       <c r="G55" t="n">
-        <v>-820507.4680299702</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J55" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K55" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2486,26 +2181,19 @@
         <v>8290</v>
       </c>
       <c r="G56" t="n">
-        <v>-820507.4680299702</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J56" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K56" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2527,26 +2215,19 @@
         <v>11180.4167</v>
       </c>
       <c r="G57" t="n">
-        <v>-820507.4680299702</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J57" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K57" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2568,26 +2249,19 @@
         <v>31607</v>
       </c>
       <c r="G58" t="n">
-        <v>-820507.4680299702</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J58" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K58" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2609,26 +2283,19 @@
         <v>9851.787439613527</v>
       </c>
       <c r="G59" t="n">
-        <v>-810655.6805903567</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J59" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K59" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2650,26 +2317,19 @@
         <v>5448</v>
       </c>
       <c r="G60" t="n">
-        <v>-816103.6805903567</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J60" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K60" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2691,26 +2351,19 @@
         <v>11583.0395</v>
       </c>
       <c r="G61" t="n">
-        <v>-804520.6410903567</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J61" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K61" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2732,26 +2385,19 @@
         <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>-804510.6410903567</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J62" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K62" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2773,26 +2419,19 @@
         <v>6133.3815</v>
       </c>
       <c r="G63" t="n">
-        <v>-810644.0225903568</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="J63" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K63" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2814,26 +2453,19 @@
         <v>17800</v>
       </c>
       <c r="G64" t="n">
-        <v>-828444.0225903568</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J64" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K64" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2855,26 +2487,19 @@
         <v>55424.3881</v>
       </c>
       <c r="G65" t="n">
-        <v>-828444.0225903568</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J65" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K65" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2896,26 +2521,19 @@
         <v>193391.7374</v>
       </c>
       <c r="G66" t="n">
-        <v>-1021835.759990357</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J66" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K66" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2937,26 +2555,19 @@
         <v>8000</v>
       </c>
       <c r="G67" t="n">
-        <v>-1021835.759990357</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="J67" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K67" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2978,24 +2589,19 @@
         <v>1739.9254</v>
       </c>
       <c r="G68" t="n">
-        <v>-1021835.759990357</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3017,26 +2623,19 @@
         <v>746.5048</v>
       </c>
       <c r="G69" t="n">
-        <v>-1021089.255190357</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="J69" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K69" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3058,26 +2657,19 @@
         <v>23249.9797</v>
       </c>
       <c r="G70" t="n">
-        <v>-997839.2754903567</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J70" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K70" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3099,26 +2691,19 @@
         <v>9827.157999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>-1007666.433490357</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J71" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K71" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3140,26 +2725,19 @@
         <v>20889.7971</v>
       </c>
       <c r="G72" t="n">
-        <v>-986776.6363903568</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J72" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K72" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3181,26 +2759,19 @@
         <v>13000</v>
       </c>
       <c r="G73" t="n">
-        <v>-973776.6363903568</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J73" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K73" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3222,26 +2793,19 @@
         <v>30099.4711</v>
       </c>
       <c r="G74" t="n">
-        <v>-973776.6363903568</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K74" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3263,26 +2827,19 @@
         <v>22690.3195</v>
       </c>
       <c r="G75" t="n">
-        <v>-973776.6363903568</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="J75" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K75" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3304,26 +2861,19 @@
         <v>145277.8672</v>
       </c>
       <c r="G76" t="n">
-        <v>-828498.7691903568</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="J76" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K76" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3345,24 +2895,19 @@
         <v>9117.298578199052</v>
       </c>
       <c r="G77" t="n">
-        <v>-828498.7691903568</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3384,24 +2929,19 @@
         <v>1505.9244</v>
       </c>
       <c r="G78" t="n">
-        <v>-830004.6935903569</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3423,24 +2963,19 @@
         <v>775.7473</v>
       </c>
       <c r="G79" t="n">
-        <v>-830004.6935903569</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3462,24 +2997,19 @@
         <v>9094.505300000001</v>
       </c>
       <c r="G80" t="n">
-        <v>-839099.1988903568</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3501,24 +3031,19 @@
         <v>332.37</v>
       </c>
       <c r="G81" t="n">
-        <v>-838766.8288903568</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3540,24 +3065,19 @@
         <v>22846.1904</v>
       </c>
       <c r="G82" t="n">
-        <v>-815920.6384903569</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K82" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3579,24 +3099,19 @@
         <v>52000</v>
       </c>
       <c r="G83" t="n">
-        <v>-867920.6384903569</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3618,24 +3133,19 @@
         <v>2213.4285</v>
       </c>
       <c r="G84" t="n">
-        <v>-865707.2099903568</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3657,24 +3167,19 @@
         <v>1416.4833</v>
       </c>
       <c r="G85" t="n">
-        <v>-867123.6932903568</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3696,24 +3201,19 @@
         <v>2167.518</v>
       </c>
       <c r="G86" t="n">
-        <v>-869291.2112903568</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3735,26 +3235,19 @@
         <v>14026.4712</v>
       </c>
       <c r="G87" t="n">
-        <v>-855264.7400903568</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="J87" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K87" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3776,26 +3269,19 @@
         <v>24808.4801</v>
       </c>
       <c r="G88" t="n">
-        <v>-855264.7400903568</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="J88" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K88" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3817,26 +3303,19 @@
         <v>48191.3808</v>
       </c>
       <c r="G89" t="n">
-        <v>-903456.1208903568</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="J89" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K89" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3858,26 +3337,19 @@
         <v>10889.5128</v>
       </c>
       <c r="G90" t="n">
-        <v>-903456.1208903568</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J90" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K90" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3899,26 +3371,19 @@
         <v>37301.8682</v>
       </c>
       <c r="G91" t="n">
-        <v>-903456.1208903568</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J91" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K91" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3940,26 +3405,19 @@
         <v>64600</v>
       </c>
       <c r="G92" t="n">
-        <v>-903456.1208903568</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J92" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K92" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3981,26 +3439,19 @@
         <v>42700</v>
       </c>
       <c r="G93" t="n">
-        <v>-903456.1208903568</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K93" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4022,26 +3473,19 @@
         <v>68400</v>
       </c>
       <c r="G94" t="n">
-        <v>-903456.1208903568</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J94" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K94" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4063,26 +3507,19 @@
         <v>2655.8235</v>
       </c>
       <c r="G95" t="n">
-        <v>-903456.1208903568</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J95" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K95" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4104,26 +3541,19 @@
         <v>22494.3302</v>
       </c>
       <c r="G96" t="n">
-        <v>-903456.1208903568</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J96" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K96" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4145,26 +3575,19 @@
         <v>2555.0577</v>
       </c>
       <c r="G97" t="n">
-        <v>-903456.1208903568</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K97" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4186,26 +3609,19 @@
         <v>26188</v>
       </c>
       <c r="G98" t="n">
-        <v>-903456.1208903568</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J98" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K98" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4227,26 +3643,19 @@
         <v>37600</v>
       </c>
       <c r="G99" t="n">
-        <v>-903456.1208903568</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J99" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K99" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4268,26 +3677,19 @@
         <v>27149.4951</v>
       </c>
       <c r="G100" t="n">
-        <v>-876306.6257903569</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J100" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K100" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4309,26 +3711,19 @@
         <v>26322.166</v>
       </c>
       <c r="G101" t="n">
-        <v>-876306.6257903569</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="J101" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K101" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4350,26 +3745,19 @@
         <v>3548.8717</v>
       </c>
       <c r="G102" t="n">
-        <v>-876306.6257903569</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="J102" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K102" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4391,26 +3779,19 @@
         <v>282505.7512</v>
       </c>
       <c r="G103" t="n">
-        <v>-593800.8745903568</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="J103" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K103" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4432,24 +3813,19 @@
         <v>66454.67200000001</v>
       </c>
       <c r="G104" t="n">
-        <v>-527346.2025903568</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4471,24 +3847,19 @@
         <v>121024.3884</v>
       </c>
       <c r="G105" t="n">
-        <v>-406321.8141903568</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K105" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4510,24 +3881,19 @@
         <v>77257.13989999999</v>
       </c>
       <c r="G106" t="n">
-        <v>-406321.8141903568</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K106" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4549,24 +3915,19 @@
         <v>150628.4872</v>
       </c>
       <c r="G107" t="n">
-        <v>-255693.3269903568</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K107" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4588,24 +3949,19 @@
         <v>129871.8788</v>
       </c>
       <c r="G108" t="n">
-        <v>-125821.4481903568</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K108" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4627,24 +3983,19 @@
         <v>555628.1006868853</v>
       </c>
       <c r="G109" t="n">
-        <v>429806.6524965285</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K109" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4666,24 +4017,19 @@
         <v>136801.5864</v>
       </c>
       <c r="G110" t="n">
-        <v>293005.0660965284</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K110" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4705,24 +4051,19 @@
         <v>37086.99886</v>
       </c>
       <c r="G111" t="n">
-        <v>293005.0660965284</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K111" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4744,24 +4085,19 @@
         <v>78671.20600000001</v>
       </c>
       <c r="G112" t="n">
-        <v>214333.8600965284</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K112" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4783,24 +4119,19 @@
         <v>177787.2675</v>
       </c>
       <c r="G113" t="n">
-        <v>392121.1275965284</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K113" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4822,24 +4153,19 @@
         <v>81589.90664</v>
       </c>
       <c r="G114" t="n">
-        <v>392121.1275965284</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K114" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4861,24 +4187,19 @@
         <v>14841.9584</v>
       </c>
       <c r="G115" t="n">
-        <v>406963.0859965284</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K115" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4900,24 +4221,19 @@
         <v>441071.5485258065</v>
       </c>
       <c r="G116" t="n">
-        <v>848034.6345223349</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K116" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4939,24 +4255,19 @@
         <v>1030830.556474194</v>
       </c>
       <c r="G117" t="n">
-        <v>1878865.190996529</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K117" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4978,24 +4289,19 @@
         <v>413339.5545612403</v>
       </c>
       <c r="G118" t="n">
-        <v>2292204.745557769</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K118" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5017,24 +4323,19 @@
         <v>266341.5015093024</v>
       </c>
       <c r="G119" t="n">
-        <v>2292204.745557769</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K119" t="inlineStr">
+      <c r="J119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5056,24 +4357,19 @@
         <v>563130.5223</v>
       </c>
       <c r="G120" t="n">
-        <v>1729074.223257769</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5095,24 +4391,19 @@
         <v>337308.614</v>
       </c>
       <c r="G121" t="n">
-        <v>2066382.837257769</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K121" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5134,24 +4425,19 @@
         <v>539126.325450566</v>
       </c>
       <c r="G122" t="n">
-        <v>2605509.162708336</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K122" t="inlineStr">
+      <c r="J122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5173,26 +4459,17 @@
         <v>291820.7001</v>
       </c>
       <c r="G123" t="n">
-        <v>2313688.462608336</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K123" t="inlineStr">
+      <c r="J123" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1.254803921568628</v>
-      </c>
-      <c r="M123" t="n">
-        <v>1.024630541871921</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5214,18 +4491,15 @@
         <v>121789.6239</v>
       </c>
       <c r="G124" t="n">
-        <v>2435478.086508336</v>
-      </c>
-      <c r="H124" t="n">
         <v>2</v>
       </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5247,18 +4521,15 @@
         <v>468311.1692921849</v>
       </c>
       <c r="G125" t="n">
-        <v>2903789.255800521</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5280,18 +4551,15 @@
         <v>124842.5788</v>
       </c>
       <c r="G126" t="n">
-        <v>2778946.677000521</v>
-      </c>
-      <c r="H126" t="n">
         <v>2</v>
       </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5313,18 +4581,15 @@
         <v>480625.852</v>
       </c>
       <c r="G127" t="n">
-        <v>2298320.825000521</v>
-      </c>
-      <c r="H127" t="n">
         <v>2</v>
       </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5346,18 +4611,15 @@
         <v>338987.6976</v>
       </c>
       <c r="G128" t="n">
-        <v>2637308.522600521</v>
-      </c>
-      <c r="H128" t="n">
         <v>2</v>
       </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5379,18 +4641,15 @@
         <v>414751.6175</v>
       </c>
       <c r="G129" t="n">
-        <v>2222556.905100521</v>
-      </c>
-      <c r="H129" t="n">
         <v>2</v>
       </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5412,18 +4671,15 @@
         <v>124074.4352</v>
       </c>
       <c r="G130" t="n">
-        <v>2098482.469900521</v>
-      </c>
-      <c r="H130" t="n">
         <v>2</v>
       </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5445,18 +4701,15 @@
         <v>93937.60249999999</v>
       </c>
       <c r="G131" t="n">
-        <v>2004544.86740052</v>
-      </c>
-      <c r="H131" t="n">
         <v>2</v>
       </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5478,18 +4731,15 @@
         <v>84553.10249999999</v>
       </c>
       <c r="G132" t="n">
-        <v>2089097.969900521</v>
-      </c>
-      <c r="H132" t="n">
         <v>2</v>
       </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5511,18 +4761,15 @@
         <v>327701.522488417</v>
       </c>
       <c r="G133" t="n">
-        <v>2416799.492388938</v>
-      </c>
-      <c r="H133" t="n">
         <v>2</v>
       </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5544,18 +4791,15 @@
         <v>95153.1811</v>
       </c>
       <c r="G134" t="n">
-        <v>2321646.311288937</v>
-      </c>
-      <c r="H134" t="n">
         <v>2</v>
       </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5577,18 +4821,15 @@
         <v>111904.3815612903</v>
       </c>
       <c r="G135" t="n">
-        <v>2209741.929727647</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5610,18 +4851,15 @@
         <v>376662.762</v>
       </c>
       <c r="G136" t="n">
-        <v>2209741.929727647</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5643,18 +4881,15 @@
         <v>822542.7769000001</v>
       </c>
       <c r="G137" t="n">
-        <v>1387199.152827647</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5676,18 +4911,15 @@
         <v>121591.2063</v>
       </c>
       <c r="G138" t="n">
-        <v>1508790.359127647</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5709,18 +4941,15 @@
         <v>125039.3333</v>
       </c>
       <c r="G139" t="n">
-        <v>1633829.692427647</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5742,18 +4971,15 @@
         <v>389395.9175</v>
       </c>
       <c r="G140" t="n">
-        <v>1244433.774927647</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5775,18 +5001,15 @@
         <v>114884.1658</v>
       </c>
       <c r="G141" t="n">
-        <v>1244433.774927647</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5808,18 +5031,15 @@
         <v>109989.4072</v>
       </c>
       <c r="G142" t="n">
-        <v>1134444.367727647</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5841,18 +5061,15 @@
         <v>131738.8533</v>
       </c>
       <c r="G143" t="n">
-        <v>1266183.221027647</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5874,18 +5091,15 @@
         <v>71537.1162</v>
       </c>
       <c r="G144" t="n">
-        <v>1337720.337227647</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5907,18 +5121,15 @@
         <v>3793.4441</v>
       </c>
       <c r="G145" t="n">
-        <v>1337720.337227647</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5940,18 +5151,15 @@
         <v>120926.5372666667</v>
       </c>
       <c r="G146" t="n">
-        <v>1458646.874494314</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5973,18 +5181,15 @@
         <v>74550.82429999999</v>
       </c>
       <c r="G147" t="n">
-        <v>1384096.050194314</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6006,18 +5211,15 @@
         <v>426263.9918</v>
       </c>
       <c r="G148" t="n">
-        <v>1384096.050194314</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6039,18 +5241,15 @@
         <v>1046.5791</v>
       </c>
       <c r="G149" t="n">
-        <v>1383049.471094314</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6072,18 +5271,15 @@
         <v>5277.0863</v>
       </c>
       <c r="G150" t="n">
-        <v>1377772.384794314</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6105,18 +5301,15 @@
         <v>683.9251</v>
       </c>
       <c r="G151" t="n">
-        <v>1377772.384794314</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6138,18 +5331,15 @@
         <v>110122.8146</v>
       </c>
       <c r="G152" t="n">
-        <v>1267649.570194314</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6171,18 +5361,15 @@
         <v>75305.3998</v>
       </c>
       <c r="G153" t="n">
-        <v>1192344.170394314</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6204,18 +5391,15 @@
         <v>321885.341</v>
       </c>
       <c r="G154" t="n">
-        <v>870458.829394314</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6237,18 +5421,15 @@
         <v>26688.7575</v>
       </c>
       <c r="G155" t="n">
-        <v>870458.829394314</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6270,18 +5451,15 @@
         <v>2297.4241</v>
       </c>
       <c r="G156" t="n">
-        <v>870458.829394314</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6303,18 +5481,15 @@
         <v>36122.6958</v>
       </c>
       <c r="G157" t="n">
-        <v>834336.133594314</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6336,18 +5511,15 @@
         <v>59311.4239</v>
       </c>
       <c r="G158" t="n">
-        <v>834336.133594314</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6369,18 +5541,15 @@
         <v>248620.7706</v>
       </c>
       <c r="G159" t="n">
-        <v>834336.133594314</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6402,18 +5571,15 @@
         <v>996.1224999999999</v>
       </c>
       <c r="G160" t="n">
-        <v>834336.133594314</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6435,18 +5601,15 @@
         <v>10880.1195</v>
       </c>
       <c r="G161" t="n">
-        <v>845216.253094314</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6468,18 +5631,15 @@
         <v>6314.573951260504</v>
       </c>
       <c r="G162" t="n">
-        <v>838901.6791430535</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6501,18 +5661,15 @@
         <v>15616.0867</v>
       </c>
       <c r="G163" t="n">
-        <v>854517.7658430535</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6534,18 +5691,15 @@
         <v>16099.4294</v>
       </c>
       <c r="G164" t="n">
-        <v>838418.3364430534</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6567,18 +5721,15 @@
         <v>63739.7489</v>
       </c>
       <c r="G165" t="n">
-        <v>902158.0853430534</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6600,18 +5751,15 @@
         <v>42011.8606</v>
       </c>
       <c r="G166" t="n">
-        <v>860146.2247430534</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6633,18 +5781,15 @@
         <v>8261.018400000001</v>
       </c>
       <c r="G167" t="n">
-        <v>860146.2247430534</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6666,18 +5811,15 @@
         <v>17584.2659</v>
       </c>
       <c r="G168" t="n">
-        <v>842561.9588430534</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6699,18 +5841,15 @@
         <v>88596.1385</v>
       </c>
       <c r="G169" t="n">
-        <v>753965.8203430534</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6732,18 +5871,15 @@
         <v>9908.9998</v>
       </c>
       <c r="G170" t="n">
-        <v>763874.8201430534</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6765,18 +5901,15 @@
         <v>717.6894</v>
       </c>
       <c r="G171" t="n">
-        <v>763157.1307430534</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6798,18 +5931,15 @@
         <v>13000</v>
       </c>
       <c r="G172" t="n">
-        <v>750157.1307430534</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6831,18 +5961,15 @@
         <v>188880.4364</v>
       </c>
       <c r="G173" t="n">
-        <v>939037.5671430534</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6864,18 +5991,15 @@
         <v>29065.155</v>
       </c>
       <c r="G174" t="n">
-        <v>909972.4121430534</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6897,18 +6021,15 @@
         <v>19388.3897</v>
       </c>
       <c r="G175" t="n">
-        <v>909972.4121430534</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6930,18 +6051,15 @@
         <v>16888.0444</v>
       </c>
       <c r="G176" t="n">
-        <v>909972.4121430534</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6963,18 +6081,15 @@
         <v>107916.858</v>
       </c>
       <c r="G177" t="n">
-        <v>1017889.270143053</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6996,18 +6111,15 @@
         <v>55040.3196</v>
       </c>
       <c r="G178" t="n">
-        <v>1072929.589743053</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7029,18 +6141,15 @@
         <v>11017.0158</v>
       </c>
       <c r="G179" t="n">
-        <v>1061912.573943053</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7062,18 +6171,15 @@
         <v>320</v>
       </c>
       <c r="G180" t="n">
-        <v>1062232.573943053</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7095,18 +6201,15 @@
         <v>117260.7325</v>
       </c>
       <c r="G181" t="n">
-        <v>1179493.306443053</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7128,18 +6231,15 @@
         <v>20221.5359</v>
       </c>
       <c r="G182" t="n">
-        <v>1199714.842343053</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7161,18 +6261,15 @@
         <v>33684.0268</v>
       </c>
       <c r="G183" t="n">
-        <v>1233398.869143053</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7194,18 +6291,15 @@
         <v>32031.9893</v>
       </c>
       <c r="G184" t="n">
-        <v>1201366.879843053</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7227,18 +6321,15 @@
         <v>42000</v>
       </c>
       <c r="G185" t="n">
-        <v>1243366.879843053</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7260,18 +6351,15 @@
         <v>4000</v>
       </c>
       <c r="G186" t="n">
-        <v>1247366.879843053</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7293,18 +6381,15 @@
         <v>94683.0148</v>
       </c>
       <c r="G187" t="n">
-        <v>1152683.865043053</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7326,18 +6411,15 @@
         <v>2700.8254</v>
       </c>
       <c r="G188" t="n">
-        <v>1155384.690443053</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7359,18 +6441,15 @@
         <v>158254.6678</v>
       </c>
       <c r="G189" t="n">
-        <v>997130.0226430534</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7392,18 +6471,15 @@
         <v>9372</v>
       </c>
       <c r="G190" t="n">
-        <v>987758.0226430534</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7425,18 +6501,15 @@
         <v>56420.1659</v>
       </c>
       <c r="G191" t="n">
-        <v>1044178.188543053</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7458,18 +6531,15 @@
         <v>268947.0356</v>
       </c>
       <c r="G192" t="n">
-        <v>1313125.224143053</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7491,18 +6561,15 @@
         <v>57404.6055</v>
       </c>
       <c r="G193" t="n">
-        <v>1255720.618643053</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7524,18 +6591,15 @@
         <v>34261.7762</v>
       </c>
       <c r="G194" t="n">
-        <v>1221458.842443053</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7557,18 +6621,15 @@
         <v>610132.8945000001</v>
       </c>
       <c r="G195" t="n">
-        <v>1831591.736943054</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7590,18 +6651,15 @@
         <v>26255.0497</v>
       </c>
       <c r="G196" t="n">
-        <v>1805336.687243053</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7623,18 +6681,15 @@
         <v>95637.29180000001</v>
       </c>
       <c r="G197" t="n">
-        <v>1900973.979043053</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7656,18 +6711,15 @@
         <v>31672.1519</v>
       </c>
       <c r="G198" t="n">
-        <v>1869301.827143054</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7689,18 +6741,15 @@
         <v>155077.8519</v>
       </c>
       <c r="G199" t="n">
-        <v>2024379.679043054</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7722,18 +6771,15 @@
         <v>2178.6</v>
       </c>
       <c r="G200" t="n">
-        <v>2024379.679043054</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7755,18 +6801,15 @@
         <v>65365.0024</v>
       </c>
       <c r="G201" t="n">
-        <v>1959014.676643054</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7788,18 +6831,15 @@
         <v>183237.1508</v>
       </c>
       <c r="G202" t="n">
-        <v>1775777.525843054</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7821,18 +6861,15 @@
         <v>113834.9166</v>
       </c>
       <c r="G203" t="n">
-        <v>1889612.442443054</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7854,18 +6891,15 @@
         <v>49975.9178</v>
       </c>
       <c r="G204" t="n">
-        <v>1839636.524643054</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7887,18 +6921,15 @@
         <v>59020.9602825</v>
       </c>
       <c r="G205" t="n">
-        <v>1898657.484925554</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7920,18 +6951,15 @@
         <v>5527.4875</v>
       </c>
       <c r="G206" t="n">
-        <v>1893129.997425554</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7953,18 +6981,15 @@
         <v>13000</v>
       </c>
       <c r="G207" t="n">
-        <v>1893129.997425554</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7986,18 +7011,15 @@
         <v>757.0647</v>
       </c>
       <c r="G208" t="n">
-        <v>1893129.997425554</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8019,18 +7041,15 @@
         <v>1765</v>
       </c>
       <c r="G209" t="n">
-        <v>1893129.997425554</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8052,18 +7071,15 @@
         <v>82829.2203</v>
       </c>
       <c r="G210" t="n">
-        <v>1893129.997425554</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8085,18 +7101,15 @@
         <v>10649.0961</v>
       </c>
       <c r="G211" t="n">
-        <v>1882480.901325554</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8118,18 +7131,15 @@
         <v>115942.1883</v>
       </c>
       <c r="G212" t="n">
-        <v>1766538.713025554</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8151,18 +7161,15 @@
         <v>11</v>
       </c>
       <c r="G213" t="n">
-        <v>1766549.713025554</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8184,18 +7191,15 @@
         <v>55570.0533</v>
       </c>
       <c r="G214" t="n">
-        <v>1766549.713025554</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8217,18 +7221,15 @@
         <v>26033</v>
       </c>
       <c r="G215" t="n">
-        <v>1740516.713025554</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8250,18 +7251,15 @@
         <v>26669.2501</v>
       </c>
       <c r="G216" t="n">
-        <v>1740516.713025554</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8283,18 +7281,15 @@
         <v>65989.47629999999</v>
       </c>
       <c r="G217" t="n">
-        <v>1806506.189325554</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8316,18 +7311,15 @@
         <v>34837.3682</v>
       </c>
       <c r="G218" t="n">
-        <v>1806506.189325554</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8349,18 +7341,15 @@
         <v>255996.9438</v>
       </c>
       <c r="G219" t="n">
-        <v>1550509.245525554</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8382,18 +7371,15 @@
         <v>262705.8269</v>
       </c>
       <c r="G220" t="n">
-        <v>1813215.072425554</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8415,18 +7401,15 @@
         <v>941.4225</v>
       </c>
       <c r="G221" t="n">
-        <v>1813215.072425554</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8448,18 +7431,15 @@
         <v>709.0336</v>
       </c>
       <c r="G222" t="n">
-        <v>1812506.038825554</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8481,18 +7461,15 @@
         <v>706.4417999999999</v>
       </c>
       <c r="G223" t="n">
-        <v>1811799.597025554</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8514,18 +7491,15 @@
         <v>2412</v>
       </c>
       <c r="G224" t="n">
-        <v>1809387.597025554</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8547,18 +7521,15 @@
         <v>70026.3345</v>
       </c>
       <c r="G225" t="n">
-        <v>1739361.262525554</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8580,18 +7551,15 @@
         <v>14256.1541</v>
       </c>
       <c r="G226" t="n">
-        <v>1725105.108425554</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8613,18 +7581,15 @@
         <v>179.1906</v>
       </c>
       <c r="G227" t="n">
-        <v>1725284.299025554</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8646,18 +7611,15 @@
         <v>638.2978000000001</v>
       </c>
       <c r="G228" t="n">
-        <v>1724646.001225554</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8679,18 +7641,15 @@
         <v>35738.1425</v>
       </c>
       <c r="G229" t="n">
-        <v>1724646.001225554</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8712,18 +7671,15 @@
         <v>45833.06942832618</v>
       </c>
       <c r="G230" t="n">
-        <v>1724646.001225554</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8745,18 +7701,15 @@
         <v>41291.0252</v>
       </c>
       <c r="G231" t="n">
-        <v>1683354.976025554</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8778,18 +7731,15 @@
         <v>340500.6544</v>
       </c>
       <c r="G232" t="n">
-        <v>2023855.630425554</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8811,18 +7761,15 @@
         <v>49999.1056</v>
       </c>
       <c r="G233" t="n">
-        <v>2073854.736025554</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8844,18 +7791,15 @@
         <v>727</v>
       </c>
       <c r="G234" t="n">
-        <v>2073127.736025554</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8877,18 +7821,15 @@
         <v>16715.9998</v>
       </c>
       <c r="G235" t="n">
-        <v>2056411.736225554</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8910,18 +7851,15 @@
         <v>10245.4065</v>
       </c>
       <c r="G236" t="n">
-        <v>2046166.329725554</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8943,18 +7881,15 @@
         <v>224.8996</v>
       </c>
       <c r="G237" t="n">
-        <v>2046391.229325553</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8976,18 +7911,15 @@
         <v>135.8798</v>
       </c>
       <c r="G238" t="n">
-        <v>2046391.229325553</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9009,18 +7941,15 @@
         <v>90464.37119999999</v>
       </c>
       <c r="G239" t="n">
-        <v>2136855.600525553</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9042,18 +7971,15 @@
         <v>583</v>
       </c>
       <c r="G240" t="n">
-        <v>2136855.600525553</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9075,18 +8001,15 @@
         <v>342919.572</v>
       </c>
       <c r="G241" t="n">
-        <v>1793936.028525553</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9108,18 +8031,15 @@
         <v>32911.249</v>
       </c>
       <c r="G242" t="n">
-        <v>1826847.277525553</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9141,18 +8061,15 @@
         <v>44396.9777</v>
       </c>
       <c r="G243" t="n">
-        <v>1782450.299825554</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9174,18 +8091,15 @@
         <v>81428.92</v>
       </c>
       <c r="G244" t="n">
-        <v>1701021.379825554</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9207,18 +8121,15 @@
         <v>39309.9465</v>
       </c>
       <c r="G245" t="n">
-        <v>1661711.433325554</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9240,18 +8151,15 @@
         <v>42377.3247</v>
       </c>
       <c r="G246" t="n">
-        <v>1619334.108625554</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9273,18 +8181,15 @@
         <v>17977.7874</v>
       </c>
       <c r="G247" t="n">
-        <v>1637311.896025554</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9306,18 +8211,15 @@
         <v>107465.6158</v>
       </c>
       <c r="G248" t="n">
-        <v>1529846.280225554</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9339,18 +8241,15 @@
         <v>22200</v>
       </c>
       <c r="G249" t="n">
-        <v>1552046.280225554</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9372,18 +8271,15 @@
         <v>14600</v>
       </c>
       <c r="G250" t="n">
-        <v>1552046.280225554</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9405,18 +8301,15 @@
         <v>1454.9781</v>
       </c>
       <c r="G251" t="n">
-        <v>1553501.258325553</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9438,18 +8331,15 @@
         <v>26600</v>
       </c>
       <c r="G252" t="n">
-        <v>1526901.258325553</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9471,18 +8361,15 @@
         <v>11409.8888</v>
       </c>
       <c r="G253" t="n">
-        <v>1515491.369525553</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9504,18 +8391,15 @@
         <v>41475</v>
       </c>
       <c r="G254" t="n">
-        <v>1556966.369525553</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9537,18 +8421,15 @@
         <v>51362.7217</v>
       </c>
       <c r="G255" t="n">
-        <v>1505603.647825553</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9570,18 +8451,15 @@
         <v>1419.6632</v>
       </c>
       <c r="G256" t="n">
-        <v>1507023.311025553</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9603,18 +8481,15 @@
         <v>526341.927</v>
       </c>
       <c r="G257" t="n">
-        <v>2033365.238025554</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9636,18 +8511,15 @@
         <v>4667.7276</v>
       </c>
       <c r="G258" t="n">
-        <v>2028697.510425553</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9669,18 +8541,15 @@
         <v>21.8519</v>
       </c>
       <c r="G259" t="n">
-        <v>2028719.362325553</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9702,18 +8571,15 @@
         <v>228156.0866</v>
       </c>
       <c r="G260" t="n">
-        <v>2256875.448925553</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9735,18 +8601,15 @@
         <v>50800</v>
       </c>
       <c r="G261" t="n">
-        <v>2256875.448925553</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9768,18 +8631,15 @@
         <v>48066.5198</v>
       </c>
       <c r="G262" t="n">
-        <v>2256875.448925553</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9801,18 +8661,15 @@
         <v>309468.4022</v>
       </c>
       <c r="G263" t="n">
-        <v>1947407.046725553</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9834,18 +8691,15 @@
         <v>892.8787</v>
       </c>
       <c r="G264" t="n">
-        <v>1948299.925425553</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9867,18 +8721,15 @@
         <v>198.4127</v>
       </c>
       <c r="G265" t="n">
-        <v>1948101.512725553</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9900,18 +8751,15 @@
         <v>11</v>
       </c>
       <c r="G266" t="n">
-        <v>1948112.512725553</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9933,18 +8781,15 @@
         <v>756.8988000000001</v>
       </c>
       <c r="G267" t="n">
-        <v>1947355.613925553</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9966,18 +8811,15 @@
         <v>430</v>
       </c>
       <c r="G268" t="n">
-        <v>1947785.613925553</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9999,18 +8841,15 @@
         <v>50525.2017</v>
       </c>
       <c r="G269" t="n">
-        <v>1998310.815625553</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10032,18 +8871,15 @@
         <v>57781.9898</v>
       </c>
       <c r="G270" t="n">
-        <v>2056092.805425554</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10065,18 +8901,15 @@
         <v>25542.9472</v>
       </c>
       <c r="G271" t="n">
-        <v>2030549.858225554</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10098,18 +8931,15 @@
         <v>308</v>
       </c>
       <c r="G272" t="n">
-        <v>2030857.858225554</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10131,18 +8961,15 @@
         <v>8861.0434</v>
       </c>
       <c r="G273" t="n">
-        <v>2021996.814825553</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10164,18 +8991,15 @@
         <v>4989.6069</v>
       </c>
       <c r="G274" t="n">
-        <v>2021996.814825553</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10197,18 +9021,15 @@
         <v>949.3622</v>
       </c>
       <c r="G275" t="n">
-        <v>2021047.452625553</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10230,18 +9051,15 @@
         <v>1212.3973</v>
       </c>
       <c r="G276" t="n">
-        <v>2022259.849925553</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10263,18 +9081,15 @@
         <v>17284.9737</v>
       </c>
       <c r="G277" t="n">
-        <v>2039544.823625553</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10296,18 +9111,15 @@
         <v>210633.5856</v>
       </c>
       <c r="G278" t="n">
-        <v>1828911.238025554</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10329,18 +9141,15 @@
         <v>171</v>
       </c>
       <c r="G279" t="n">
-        <v>1829082.238025554</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10362,18 +9171,15 @@
         <v>17147.0538</v>
       </c>
       <c r="G280" t="n">
-        <v>1846229.291825554</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10395,18 +9201,15 @@
         <v>4414.5121</v>
       </c>
       <c r="G281" t="n">
-        <v>1841814.779725554</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10428,18 +9231,15 @@
         <v>223.8636</v>
       </c>
       <c r="G282" t="n">
-        <v>1841814.779725554</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10461,18 +9261,15 @@
         <v>3275.45</v>
       </c>
       <c r="G283" t="n">
-        <v>1841814.779725554</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10494,18 +9291,15 @@
         <v>28159.9298</v>
       </c>
       <c r="G284" t="n">
-        <v>1813654.849925554</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10527,18 +9321,15 @@
         <v>18709.63</v>
       </c>
       <c r="G285" t="n">
-        <v>1813654.849925554</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10560,18 +9351,15 @@
         <v>67711.4148</v>
       </c>
       <c r="G286" t="n">
-        <v>1745943.435125554</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10593,18 +9381,15 @@
         <v>118899.5559</v>
       </c>
       <c r="G287" t="n">
-        <v>1864842.991025554</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10626,18 +9411,15 @@
         <v>4891.9111</v>
       </c>
       <c r="G288" t="n">
-        <v>1859951.079925554</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10659,18 +9441,15 @@
         <v>368</v>
       </c>
       <c r="G289" t="n">
-        <v>1860319.079925554</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10692,18 +9471,15 @@
         <v>347</v>
       </c>
       <c r="G290" t="n">
-        <v>1859972.079925554</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10725,18 +9501,15 @@
         <v>48813.3535</v>
       </c>
       <c r="G291" t="n">
-        <v>1859972.079925554</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10758,18 +9531,15 @@
         <v>1000</v>
       </c>
       <c r="G292" t="n">
-        <v>1858972.079925554</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10791,18 +9561,15 @@
         <v>1459</v>
       </c>
       <c r="G293" t="n">
-        <v>1860431.079925554</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10824,18 +9591,15 @@
         <v>6973.0668</v>
       </c>
       <c r="G294" t="n">
-        <v>1853458.013125554</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10857,18 +9621,15 @@
         <v>12041.7423</v>
       </c>
       <c r="G295" t="n">
-        <v>1865499.755425554</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10890,18 +9651,15 @@
         <v>45247.9071</v>
       </c>
       <c r="G296" t="n">
-        <v>1820251.848325554</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10923,18 +9681,15 @@
         <v>426</v>
       </c>
       <c r="G297" t="n">
-        <v>1820677.848325554</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10956,18 +9711,15 @@
         <v>22623.9536</v>
       </c>
       <c r="G298" t="n">
-        <v>1798053.894725554</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10989,18 +9741,15 @@
         <v>340</v>
       </c>
       <c r="G299" t="n">
-        <v>1798393.894725554</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11022,18 +9771,15 @@
         <v>33144.8638</v>
       </c>
       <c r="G300" t="n">
-        <v>1765249.030925554</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
